--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCB81ED-955C-5F4D-8A48-6CE5C18D9421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCDD32-4686-994A-929D-9AFBC8870FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
@@ -42,7 +42,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -57,30 +57,20 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
   <si>
     <t>Abmessungen Imperial</t>
   </si>
@@ -472,9 +462,6 @@
     <t>https://www.amazon.de/dp/B09QX3THX3?ref=ppx_yo2ov_dt_b_product_details&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.de/Universalschraube-Senkkopf-schwarz-T-STAR-Vollgewinde/dp/B09QXDLVB6?ref_=ast_sto_dp&amp;th=1</t>
-  </si>
-  <si>
     <t>4 mm x 40 mm</t>
   </si>
   <si>
@@ -523,16 +510,25 @@
     <t>https://www.amazon.de/gp/product/B09FXNLYTN/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;th=1</t>
   </si>
   <si>
-    <t>M2,5 x 4</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/gp/product/B09J91JWGM/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gewindeeinsatz 6-32 für Kunststiff. Höhe ca. </t>
   </si>
   <si>
     <t>6-32</t>
+  </si>
+  <si>
+    <t>Lochdurchmesser 5,6 mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Universalschraube-Senkkopf-schwarz-T-STAR-Vollgewinde/dp/B09QX782N9?ref_=ast_sto_dp&amp;th=1</t>
+  </si>
+  <si>
+    <t>M2,5 x 4 // M2 x 3</t>
+  </si>
+  <si>
+    <t>M2 x 3 besser wegen Platzbedarf der Mutter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B0BG16KFTM/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -726,17 +722,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -755,7 +747,6 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
 </richValueRels>
 </file>
 
@@ -1059,7 +1050,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1153,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1179,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1193,7 +1184,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1219,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1259,7 +1250,7 @@
         <v>77</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1279,7 +1270,7 @@
         <v>74</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,7 +1296,7 @@
         <v>125</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1328,7 +1319,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1370,10 +1361,10 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G30" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1401,13 +1392,13 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
         <v>125</v>
@@ -1424,10 +1415,13 @@
         <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>151</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1435,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1478,7 +1472,7 @@
       <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="G43" t="e" vm="3">
+      <c r="G43" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1486,18 +1480,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{CE876507-9B7C-564E-B359-6ED3413B92F4}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{D1A4AD6F-4C61-684A-90B6-1A2B90B6E631}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{BD467FBF-2E0F-084F-9405-2EA43A3401AB}"/>
-    <hyperlink ref="H17" r:id="rId4" xr:uid="{781EFB5D-65E1-5D48-B35F-42D7261F586B}"/>
-    <hyperlink ref="H16" r:id="rId5" xr:uid="{81D71EA9-16F4-C04D-8F25-E6FB71AAFC5C}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{F0FAE1DF-FF7D-0648-B002-74A434BCC67F}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{83ED10DD-6AC8-484A-B155-8D4DC00CE070}"/>
-    <hyperlink ref="H19" r:id="rId8" xr:uid="{2C31950A-0717-DA4F-9CEB-905802C9CDBC}"/>
-    <hyperlink ref="H22" r:id="rId9" xr:uid="{16693DBE-83F3-9841-ACAE-4C0D7D929DB3}"/>
-    <hyperlink ref="H23" r:id="rId10" xr:uid="{EC1C5360-3941-DB40-A532-FAAB949DDCEC}"/>
-    <hyperlink ref="H34" r:id="rId11" xr:uid="{0C1DF67D-7093-7F45-84C8-917306477800}"/>
-    <hyperlink ref="H30" r:id="rId12" xr:uid="{A8A6B72D-0ED1-874E-9AC8-C0688EB233C6}"/>
-    <hyperlink ref="H32" r:id="rId13" xr:uid="{50C5DA00-B12E-8441-A2CC-3CB8B76C48EA}"/>
+    <hyperlink ref="H18" r:id="rId2" xr:uid="{BD467FBF-2E0F-084F-9405-2EA43A3401AB}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{781EFB5D-65E1-5D48-B35F-42D7261F586B}"/>
+    <hyperlink ref="H16" r:id="rId4" xr:uid="{81D71EA9-16F4-C04D-8F25-E6FB71AAFC5C}"/>
+    <hyperlink ref="H14" r:id="rId5" xr:uid="{F0FAE1DF-FF7D-0648-B002-74A434BCC67F}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{83ED10DD-6AC8-484A-B155-8D4DC00CE070}"/>
+    <hyperlink ref="H19" r:id="rId7" xr:uid="{2C31950A-0717-DA4F-9CEB-905802C9CDBC}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{16693DBE-83F3-9841-ACAE-4C0D7D929DB3}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{EC1C5360-3941-DB40-A532-FAAB949DDCEC}"/>
+    <hyperlink ref="H34" r:id="rId10" xr:uid="{0C1DF67D-7093-7F45-84C8-917306477800}"/>
+    <hyperlink ref="H30" r:id="rId11" xr:uid="{A8A6B72D-0ED1-874E-9AC8-C0688EB233C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACCDD32-4686-994A-929D-9AFBC8870FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1CE83C-4F60-9446-8B3D-AE02C59F2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26700" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -50,97 +50,51 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="153">
-  <si>
-    <t>Abmessungen Imperial</t>
-  </si>
-  <si>
-    <t>MDF</t>
-  </si>
-  <si>
-    <t>0,75"</t>
-  </si>
-  <si>
-    <t>0,25"</t>
-  </si>
-  <si>
-    <t>0,5"</t>
-  </si>
-  <si>
-    <t>#8-32 x 1,25</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="789">
   <si>
     <t>M4 x 30 mm</t>
   </si>
   <si>
-    <t>Gewindeschraube #8-32 x 1,25, Kreuzschlitz, Senkkopf</t>
-  </si>
-  <si>
     <t>schwarz</t>
   </si>
   <si>
-    <t>Gewindeschraube #8-32 x 0,625, Kreuzschlitz, Senkkopf</t>
-  </si>
-  <si>
-    <t>#8-32 x 0,625</t>
-  </si>
-  <si>
     <t>M4 x 16 mm</t>
   </si>
   <si>
     <t>Unterlegscheibe #8, innen: 4,763mm; außen: 11,113 mm; Dicke: 1,651mm</t>
   </si>
   <si>
-    <t>#8-32 x 1,5</t>
-  </si>
-  <si>
-    <t>Mutter #8-32</t>
-  </si>
-  <si>
-    <t>#8-32</t>
-  </si>
-  <si>
     <t>M4 x 40 mm</t>
   </si>
   <si>
-    <t>Gewindeeinsatz 8-32 für Kunststoff, Höhe ca. 4,655 mm</t>
-  </si>
-  <si>
-    <t>8-32</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t>Part Number</t>
   </si>
   <si>
+    <t>90252A112</t>
+  </si>
+  <si>
     <t>Part Name</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>FHWS, 82DEG, #8 X 1.00, STEEL, BLK, FOR MDF</t>
+  </si>
+  <si>
     <t>Material Name</t>
   </si>
   <si>
@@ -228,16 +182,7 @@
     <t>Anmerkung</t>
   </si>
   <si>
-    <t>nicht nehmen! zu kurz</t>
-  </si>
-  <si>
-    <t>#8 x 1</t>
-  </si>
-  <si>
-    <t>90252A115 - FHWS, 82DEG, #8 X 1.50, STEEL, BLK, FOR MDF</t>
-  </si>
-  <si>
-    <t>#8 x 1,5</t>
+    <t>FHWS, 82DEG, #8 X 1.50, STEEL, BLK, FOR MDF</t>
   </si>
   <si>
     <t>19 mm</t>
@@ -249,88 +194,82 @@
     <t>6 mm</t>
   </si>
   <si>
-    <t>90252A112 - FHWS, 82DEG, #8 X 1.00, STEEL, BLK, FOR MDF</t>
-  </si>
-  <si>
-    <t>90471A436 - FHS, 100DEG, #8-32 X 1.25, STEEL</t>
-  </si>
-  <si>
-    <t>90471A435 - FHS, 100DEG, #8-32 X .625, STEEL</t>
-  </si>
-  <si>
-    <t>98023A113 - WASHER, #8, STEEL, ZINC v1</t>
+    <t>90471A436</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #8-32 X .625, STEEL</t>
+  </si>
+  <si>
+    <t>98023A113</t>
+  </si>
+  <si>
+    <t>WASHER, #8, STEEL, ZINC</t>
   </si>
   <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>90272A203 - PHS, #8-32 x 1.50, STEEL v1</t>
-  </si>
-  <si>
-    <t>91841A009 - NUT, #8-32, 18-8 v1</t>
+    <t>90272A203</t>
+  </si>
+  <si>
+    <t>91841A009</t>
+  </si>
+  <si>
+    <t>NUT, #8-32, 18-8</t>
   </si>
   <si>
     <t>SS</t>
   </si>
   <si>
+    <t>93365A140</t>
+  </si>
+  <si>
+    <t>INSERT, 8-32, BRASS, FOR PLASTICS</t>
+  </si>
+  <si>
     <t>OpenHornet Materialliste rechte Konsole - Struktur</t>
   </si>
   <si>
-    <t>93365A140 - INSERT, 8-32, BRASS, FOR PLASTICS</t>
-  </si>
-  <si>
-    <t>93365A130 - INSERT, 6-32, BRASS, FOR PLASTICS</t>
+    <t>93365A130</t>
+  </si>
+  <si>
+    <t>INSERT, 6-32, BRASS, FOR PLASTIC</t>
+  </si>
+  <si>
+    <t>92105A660</t>
   </si>
   <si>
     <t>92105A660 - INSERT, 8-32, SELF TAPPING, FOR SOFTWOOD v1</t>
   </si>
   <si>
-    <t>91249A192 - PHS, #8-32 X .375, 18-8, BLK</t>
-  </si>
-  <si>
-    <t>#8-32 x 0,375</t>
+    <t>INSERT, 8-32, SELF TAPPING, FOR SOFTWOOD</t>
+  </si>
+  <si>
+    <t>PHS, #8-32 X .375, 18-8, BLK</t>
   </si>
   <si>
     <t>M4 x 10</t>
   </si>
   <si>
-    <t>M4 x 10 mm</t>
-  </si>
-  <si>
     <t>3225T24 - VIBRATION-DAMPING LOOP CLAMP</t>
   </si>
   <si>
-    <t>#8-32 x 0,250</t>
+    <t>90272A190</t>
   </si>
   <si>
     <t>M4 x 6 mm</t>
   </si>
   <si>
-    <t>91249A151 - PHS, #6-32 X .625, 18-8, BLK</t>
-  </si>
-  <si>
-    <t>90272A190 - PHS, #8-32 x 0.250, STEEL</t>
-  </si>
-  <si>
-    <t>#6-32 x 0,625</t>
-  </si>
-  <si>
-    <t>Gewindeschraube #8-32 x 0,250, Kreuzschlitz, Linsenkopf?</t>
-  </si>
-  <si>
-    <t>Gewindeschraube #8-32 x 0,375, Kreuzschlitz, Linsenkopf?</t>
-  </si>
-  <si>
-    <t>Gewindeschraube #8-32 x 0,625, Kreuzschlitz, Linsenkopf?</t>
-  </si>
-  <si>
-    <t>Gewindeschraube #8-32 x 1,5, Kreuzschlitz, Linsenkopf?</t>
-  </si>
-  <si>
-    <t>93365A110 - INSERT, 2-56, BRASS, FOR PLASTIC</t>
-  </si>
-  <si>
-    <t>Messing Einschmelzmutter 2-56 kurz</t>
+    <t>91249A151</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .625, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>93365A110</t>
+  </si>
+  <si>
+    <t>INSERT, 2-56, BRASS, FOR PLASTIC</t>
   </si>
   <si>
     <t>Material/Beschreibung</t>
@@ -357,12 +296,6 @@
     <t>4,166 mm x 38,1 mm</t>
   </si>
   <si>
-    <t>Holzschraube, Kreuzschlitz, Senkkopf #8 x 1,00, schwarz</t>
-  </si>
-  <si>
-    <t>Holzschraube, Kreuzschlitz, Senkkopf #8 x 1,50, schwarz</t>
-  </si>
-  <si>
     <t>4 mm x 25 mm</t>
   </si>
   <si>
@@ -405,18 +338,9 @@
     <t>Moment of Inertia at Origin   (ouncemass in^2)</t>
   </si>
   <si>
-    <t>Gewindeschraube #2-56 x 1,0, Kreuzschlitz, schwarz, Linsenkopf?</t>
-  </si>
-  <si>
-    <t>#2-56 x 1,0</t>
-  </si>
-  <si>
     <t>2,1844 mm x 25,4 mm</t>
   </si>
   <si>
-    <t>SPAX 1191040400403</t>
-  </si>
-  <si>
     <t>4,166 mm x 31,75 mm</t>
   </si>
   <si>
@@ -444,15 +368,9 @@
     <t>4,166 mm x 6,35 mm</t>
   </si>
   <si>
-    <t>3,5052 x 15,88 mm</t>
-  </si>
-  <si>
     <t>eigentlich M3,5, aber dafür gibt es keine Einschmelzmuttern</t>
   </si>
   <si>
-    <t>2-56</t>
-  </si>
-  <si>
     <t>vorbohren 6mm</t>
   </si>
   <si>
@@ -477,24 +395,18 @@
     <t>https://www.normreich.de/1x-Linsenkopfschraube-M4-x-6-ISO-7380-1-ISK-A2</t>
   </si>
   <si>
-    <t>https://www.normreich.de/1x-Linsenkopfschraube-M4-x-10-ISO-7380-1-ISK-A2</t>
-  </si>
-  <si>
-    <t>https://www.normreich.de/1x-Linsenkopfschraube-M4-x-16-ISO-7380-1-ISK-A2</t>
-  </si>
-  <si>
     <t>https://www.normreich.de/1x-Linsenkopfschraube-M4-x-40-ISO-7380-1-ISK-A2</t>
   </si>
   <si>
     <t>https://www.normreich.de/1x-Unterlegscheibe-M4-DIN-125-Form-A-A2</t>
   </si>
   <si>
+    <t>M4 3,2 mm Dicke</t>
+  </si>
+  <si>
     <t>https://www.normreich.de/1x-Sechskantmutter-M4-DIN-934-A2</t>
   </si>
   <si>
-    <t>M4 3,2 mm Dicke DIN 934</t>
-  </si>
-  <si>
     <t>M4 4,3 mm x 9mm x 0,8 mm DIN 125</t>
   </si>
   <si>
@@ -504,41 +416,2042 @@
     <t>https://www.normreich.de/1x-Gewindeeinsatz-M4x10-DIN-7965-VZ</t>
   </si>
   <si>
-    <t>M4 x 4</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/gp/product/B09FXNLYTN/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;th=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Gewindeeinsatz 6-32 für Kunststiff. Höhe ca. </t>
-  </si>
-  <si>
-    <t>6-32</t>
-  </si>
-  <si>
     <t>Lochdurchmesser 5,6 mm</t>
   </si>
   <si>
     <t>https://www.amazon.de/Universalschraube-Senkkopf-schwarz-T-STAR-Vollgewinde/dp/B09QX782N9?ref_=ast_sto_dp&amp;th=1</t>
   </si>
   <si>
-    <t>M2,5 x 4 // M2 x 3</t>
-  </si>
-  <si>
-    <t>M2 x 3 besser wegen Platzbedarf der Mutter</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/gp/product/B0BG16KFTM/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B09FXNX6WF/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>M2 x 3 manchmal besser wegen Platzbedarf der Mutter</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X .375, .1875 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X 1.00, .1875 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93505A217 STANDOFF, #2-56 X 1.00, .1875 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>Aluminium Abstandshalter Motherboard etc.</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 9,53 mm</t>
+  </si>
+  <si>
+    <t>93505A212, STANDOFF, #2-56 X .375, .156 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 9,53 mm x 3,96 mm</t>
+  </si>
+  <si>
+    <t>90272A077</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .250, STEEL</t>
+  </si>
+  <si>
+    <t>90272A079</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .375, STEEL</t>
+  </si>
+  <si>
+    <t>90272A106</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .250, STEEL</t>
+  </si>
+  <si>
+    <t>90272A110</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .500, STEEL</t>
+  </si>
+  <si>
+    <t>90272A112</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .625, STEEL</t>
+  </si>
+  <si>
+    <t>90272A144</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X 0.250, STEEL</t>
+  </si>
+  <si>
+    <t>PHS, #8-32 X 0.250, STEEL</t>
+  </si>
+  <si>
+    <t>90272A201</t>
+  </si>
+  <si>
+    <t>PHS, #8-32 X 1.250, STEEL</t>
+  </si>
+  <si>
+    <t>PHS, #8-32 X 1.50, STEEL</t>
+  </si>
+  <si>
+    <t>90272A832</t>
+  </si>
+  <si>
+    <t>PHS, #10-32 X .875, STEEL</t>
+  </si>
+  <si>
+    <t>91249A021</t>
+  </si>
+  <si>
+    <t>PHS, #0-80 X 0.375, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A050</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .25, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A058</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .500, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A060</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .625, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A063</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .750, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A111</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .50, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A115</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .625, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A120</t>
+  </si>
+  <si>
+    <t>PHS, #4-40 X .875, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A144</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .250, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A146</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .375, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A148</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .50, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A155</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .750, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A156</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .8750, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A161</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X 1.50, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91249A164</t>
+  </si>
+  <si>
+    <t>91249A192</t>
+  </si>
+  <si>
+    <t>91249A197</t>
+  </si>
+  <si>
+    <t>PHS, #8-32 X .750, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>91772A058</t>
+  </si>
+  <si>
+    <t>PHS, #0-80 X 0.2187, 18-8</t>
+  </si>
+  <si>
+    <t>91772A060</t>
+  </si>
+  <si>
+    <t>PHS, #0-80 X 0.625, 18-8</t>
+  </si>
+  <si>
+    <t>91772A064</t>
+  </si>
+  <si>
+    <t>PHS, #0-80 X 0.4375, 18-8</t>
+  </si>
+  <si>
+    <t>91772A162</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X .5625, 18-8</t>
+  </si>
+  <si>
+    <t>94070A076</t>
+  </si>
+  <si>
+    <t>PHS, #2-56 X .1875, BRASS</t>
+  </si>
+  <si>
+    <t>99461A914</t>
+  </si>
+  <si>
+    <t>PHS, M2, 5MM, SELF-TAP, 18-8</t>
+  </si>
+  <si>
+    <t>Part Number original</t>
+  </si>
+  <si>
+    <t>90273A153</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #6-32 X 1.00, STEEL</t>
+  </si>
+  <si>
+    <t>90273A157</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #6-32 X 1.50, STEEL</t>
+  </si>
+  <si>
+    <t>90275A196</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #8-32 X .625, STEEL</t>
+  </si>
+  <si>
+    <t>90471A115</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #2-56 X .250, STEEL</t>
+  </si>
+  <si>
+    <t>90471A130</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #2-56 X .375, STEEL</t>
+  </si>
+  <si>
+    <t>90471A150</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X .1875, STEEL</t>
+  </si>
+  <si>
+    <t>90471A160</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X .375, STEEL</t>
+  </si>
+  <si>
+    <t>90471A210</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #6-32 X .3125, STEEL</t>
+  </si>
+  <si>
+    <t>90471A220</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #6-32 X .500, STEEL</t>
+  </si>
+  <si>
+    <t>90471A223</t>
+  </si>
+  <si>
+    <t>FHS, 100 DEG, #6-32 X .750, STEEL</t>
+  </si>
+  <si>
+    <t>90471A276</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #8-32 X 1.00, STEEL</t>
+  </si>
+  <si>
+    <t>90471A427</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X .625, STEEL</t>
+  </si>
+  <si>
+    <t>90471A435</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #8-32 X 1.25, STEEL</t>
+  </si>
+  <si>
+    <t>90471A445</t>
+  </si>
+  <si>
+    <t>FHS, 100 DEG CSK, .25-20 X .625, STEEL</t>
+  </si>
+  <si>
+    <t>91771A071</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #0-80 X .75, 18-8</t>
+  </si>
+  <si>
+    <t>91771A119</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #4-40 X 1.50, 18-8</t>
+  </si>
+  <si>
+    <t>91771A140</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #2-56 X 1.00, 18-8</t>
+  </si>
+  <si>
+    <t>91771A141</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #2-56 X 1.25, 18-8</t>
+  </si>
+  <si>
+    <t>93085A116</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X .875, 18-8</t>
+  </si>
+  <si>
+    <t>93085A628</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #6-32 X .625, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>93085A851</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X 1.25, 18-8</t>
+  </si>
+  <si>
+    <t>93085A854</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #8-32 X 2.00, 18-8</t>
+  </si>
+  <si>
+    <t>96640A025</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #2-56 X .375, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>96640A027</t>
+  </si>
+  <si>
+    <t>FHS, 82DEG, #2-56 X .50, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>96640A295</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #2-56 X .250, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>96640A298</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #2-56 X .4375, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>96640A334</t>
+  </si>
+  <si>
+    <t>FHS, 100DEG, #4-40 X .250, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>96640A344</t>
+  </si>
+  <si>
+    <t>90252A115</t>
+  </si>
+  <si>
+    <t>90252A118</t>
+  </si>
+  <si>
+    <t>FHWS, 82DEG, #8 X 2.00, STEEL, BLK, FOR MDF</t>
+  </si>
+  <si>
+    <t>Stückzahl (gesamt)</t>
+  </si>
+  <si>
+    <t>92095A179</t>
+  </si>
+  <si>
+    <t>92095A194</t>
+  </si>
+  <si>
+    <t>92095A205</t>
+  </si>
+  <si>
+    <t>92095A223</t>
+  </si>
+  <si>
+    <t>92095A238</t>
+  </si>
+  <si>
+    <t>92095A454</t>
+  </si>
+  <si>
+    <t>97763A141</t>
+  </si>
+  <si>
+    <t>97763A324</t>
+  </si>
+  <si>
+    <t>MDF 0,75"</t>
+  </si>
+  <si>
+    <t>MDF 0,5"</t>
+  </si>
+  <si>
+    <t>MDF 0,25"</t>
+  </si>
+  <si>
+    <t>4,166 mm x 50,8 mm</t>
+  </si>
+  <si>
+    <t>92125A130</t>
+  </si>
+  <si>
+    <t>92125A132</t>
+  </si>
+  <si>
+    <t>92125A141</t>
+  </si>
+  <si>
+    <t>92125A192</t>
+  </si>
+  <si>
+    <t>92125A203</t>
+  </si>
+  <si>
+    <t>92125A204</t>
+  </si>
+  <si>
+    <t>92125A205</t>
+  </si>
+  <si>
+    <t>92125A216</t>
+  </si>
+  <si>
+    <t>92125A222</t>
+  </si>
+  <si>
+    <t>92125A250</t>
+  </si>
+  <si>
+    <t>92125A373</t>
+  </si>
+  <si>
+    <t>BHCS, M3 X 0.5 - 6, 18-8</t>
+  </si>
+  <si>
+    <t>BHCS, M4 X 0.7MM, 16MM LONG</t>
+  </si>
+  <si>
+    <t>BHCS, M4 X 0.7MM, 45MM LONG</t>
+  </si>
+  <si>
+    <t>BHCS, M5 X 0.8 MM, 45 MM LONG</t>
+  </si>
+  <si>
+    <t>BHCS, M6 X 1MM, 16MM LONG</t>
+  </si>
+  <si>
+    <t>BHCS, M2 X 0.4MM, 8 MM LONG</t>
+  </si>
+  <si>
+    <t>BHCS, #6-32 X .250, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>BHCS, #6-32 X .125, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>FHCS, M3 X 0.5 MM, 10 MM LONG</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Senkkopf mit ISK</t>
+  </si>
+  <si>
+    <t>FHCS, M3 X 0.5 MM, 12 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M3 X 0.5 MM, 35 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M4 X 0.7 MM, 12 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M4 X 0.7 MM, 30 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M4 X 0.7 MM, 35 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M4 X 0.7 MM, 40 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M5 X 0.8 MM, 25 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M5 X 0.8 MM, 35 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M6 X 1 MM, 45 MM LONG</t>
+  </si>
+  <si>
+    <t>FHCS, M4 X 0.7 MM, 55 MM LONG</t>
+  </si>
+  <si>
+    <t>Holzschraube, Senkkopf, Kreuzschlitz, schwarz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Senkkopf, Kreuzschlitz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Senkkopf, Kreuzschlitz, schwarz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube Halbrundkopf mit ISK</t>
+  </si>
+  <si>
+    <t>Gewindeschraube Halbrundkopf mit ISK, schwarz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube Flachkopf, Kreuzschlitz</t>
+  </si>
+  <si>
+    <t>DIN oder ISO Norm metrisches Pendant</t>
+  </si>
+  <si>
+    <t>DIN7985</t>
+  </si>
+  <si>
+    <t>Gewindeschraube Flachkopf, Kreuzschlitz, schwarz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube Flachkopf, Kreuzschlitz, Messing</t>
+  </si>
+  <si>
+    <t>selbstschneidende Schraube für Kunststoff, Flachkopf, Kreuzschlitz</t>
+  </si>
+  <si>
+    <t>ISO7380</t>
+  </si>
+  <si>
+    <t>91247A546</t>
+  </si>
+  <si>
+    <t>HHCS, .25-20 X 1.50, GR8, STEEL</t>
+  </si>
+  <si>
+    <t>91309A542</t>
+  </si>
+  <si>
+    <t>HHCS, .25-20 X 1.00, STEEL, ZINC</t>
+  </si>
+  <si>
+    <t>91309A553</t>
+  </si>
+  <si>
+    <t>HHCS, .25-20 X 2.75, STEEL, ZINC</t>
+  </si>
+  <si>
+    <t>91309A587</t>
+  </si>
+  <si>
+    <t>HHCS, .3125-18 X 1.5, STEEL</t>
+  </si>
+  <si>
+    <t>92198A692</t>
+  </si>
+  <si>
+    <t>HHCS, .3125-18 X 2.25, PART THD, 18-8</t>
+  </si>
+  <si>
+    <t>92316A536</t>
+  </si>
+  <si>
+    <t>HHCS, .25-20 X .500, GR8, STEEL, BLACK PHOS</t>
+  </si>
+  <si>
+    <t>91287A155</t>
+  </si>
+  <si>
+    <t>HHS, M8 X 1.25 MM, 35 MM LONG</t>
+  </si>
+  <si>
+    <t>91287A254</t>
+  </si>
+  <si>
+    <t>HHS, M6 X 1 MM, 80 MM LONG</t>
+  </si>
+  <si>
+    <t>91287A307</t>
+  </si>
+  <si>
+    <t>HHS, M8 X 1.25 MM THREAD, 45 MM LONG</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Sechskant</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Sechskant, Teilgewinde</t>
+  </si>
+  <si>
+    <t>DIN931</t>
+  </si>
+  <si>
+    <t>DIN6921</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Sechskant, Flansch, schwarz</t>
+  </si>
+  <si>
+    <t>DIN933, ISO4017</t>
+  </si>
+  <si>
+    <t>93365A102</t>
+  </si>
+  <si>
+    <t>INSERT, 0-80, BRASS, FOR PLASTICS</t>
+  </si>
+  <si>
+    <t>93365A112</t>
+  </si>
+  <si>
+    <t>INSERT, 2-56, BRASS, FOR PLASTICS</t>
+  </si>
+  <si>
+    <t>93365A120</t>
+  </si>
+  <si>
+    <t>INSERT, 4-40, BRASS, FOR PLASTICS</t>
+  </si>
+  <si>
+    <t>93365A160</t>
+  </si>
+  <si>
+    <t>INSERT, .25-20, BRASS, FOR PLASTICS</t>
+  </si>
+  <si>
+    <t>94180A331</t>
+  </si>
+  <si>
+    <t>HEAT-SET INSERT, M3 X 0.50 MM</t>
+  </si>
+  <si>
+    <t>94180A333</t>
+  </si>
+  <si>
+    <t>94180A351</t>
+  </si>
+  <si>
+    <t>SCREW-TO-EXPAND INSERT, M2 X 0.4MM</t>
+  </si>
+  <si>
+    <t>98060A580</t>
+  </si>
+  <si>
+    <t>BOLT, CARRIAGE, KNURLED-NECK, .3125-18 X 1.75L, GR5</t>
+  </si>
+  <si>
+    <t>59935K73</t>
+  </si>
+  <si>
+    <t>M8 8MM BALL JOINT ROD END</t>
+  </si>
+  <si>
+    <t>60645K111 (LH)</t>
+  </si>
+  <si>
+    <t>ROD END, BALL JOINT, 10-32 X .750 X .3125 ID, STEEL</t>
+  </si>
+  <si>
+    <t>60645K111 (RH)</t>
+  </si>
+  <si>
+    <t>ROD END, BALL JOINT, 10-32 X .750 X .3125 ID, RH, STEEL</t>
+  </si>
+  <si>
+    <t>60645K131</t>
+  </si>
+  <si>
+    <t>ROD END, BALL JOINT, .3125-24 X 1.25 SHANK X .875 OAW, STEEL</t>
+  </si>
+  <si>
+    <t>60645K311</t>
+  </si>
+  <si>
+    <t>ROD END, BALL JOINT, 10-32 FEMALE X .3125 ID, STEEL, ZINC</t>
+  </si>
+  <si>
+    <t>6516K120</t>
+  </si>
+  <si>
+    <t>ROD, CONNECTING, 10-32 X 1.1875, 12 OAL, STEEL</t>
+  </si>
+  <si>
+    <t>90322A639</t>
+  </si>
+  <si>
+    <t>ROD, THREADED, 10-32 X 1.0, STEEL</t>
+  </si>
+  <si>
+    <t>90969A310</t>
+  </si>
+  <si>
+    <t>SCREW, ULTRA LOW PROFILE SHOULDER, .375 X .50 L X .3125-18 X .50</t>
+  </si>
+  <si>
+    <t>91654A144</t>
+  </si>
+  <si>
+    <t>SCREW NAIL, DOMED, .14 X .25 SHANK X .25 HD DIA, 18-8</t>
+  </si>
+  <si>
+    <t>92981A230</t>
+  </si>
+  <si>
+    <t>SHOULDER SCREW, M6 X 1MM, 8MM SHOULDER DIA, 80MM SHOULDER LEN</t>
+  </si>
+  <si>
+    <t>93025A568</t>
+  </si>
+  <si>
+    <t>ROD, #6-32 X 3.00, BRASS</t>
+  </si>
+  <si>
+    <t>93225A413</t>
+  </si>
+  <si>
+    <t>ROD, THREADED, 2-56 X 2.0</t>
+  </si>
+  <si>
+    <t>95412A560</t>
+  </si>
+  <si>
+    <t>ROD, .25-20 X 4.500, 18-8</t>
+  </si>
+  <si>
+    <t>90480A003</t>
+  </si>
+  <si>
+    <t>NUT, #2-56, STEEL</t>
+  </si>
+  <si>
+    <t>90480A195</t>
+  </si>
+  <si>
+    <t>NUT, #10-32, THIN, STEEL</t>
+  </si>
+  <si>
+    <t>90760A005</t>
+  </si>
+  <si>
+    <t>NUT, NARROW, #4-40, STEEL</t>
+  </si>
+  <si>
+    <t>90760A007</t>
+  </si>
+  <si>
+    <t>NUT, JAM, #6-32, STEEL</t>
+  </si>
+  <si>
+    <t>91078A029</t>
+  </si>
+  <si>
+    <t>NUT, THIN, .25-20, STEEL</t>
+  </si>
+  <si>
+    <t>91828A241</t>
+  </si>
+  <si>
+    <t>HEX NUT, M5 X 0.8 MM</t>
+  </si>
+  <si>
+    <t>91828A410</t>
+  </si>
+  <si>
+    <t>HEX NUT, M8 X 1.25</t>
+  </si>
+  <si>
+    <t>91831A005</t>
+  </si>
+  <si>
+    <t>NUT, NYLOC, #4-40, 18-8</t>
+  </si>
+  <si>
+    <t>91831A007</t>
+  </si>
+  <si>
+    <t>NYLOC NUT, #6-32, 18-8</t>
+  </si>
+  <si>
+    <t>91831A025</t>
+  </si>
+  <si>
+    <t>NYLOC NUT, #12-24, 18-8</t>
+  </si>
+  <si>
+    <t>91841A003</t>
+  </si>
+  <si>
+    <t>NUT, #2-56, 18-1</t>
+  </si>
+  <si>
+    <t>91841A005</t>
+  </si>
+  <si>
+    <t>NUT, #4-40, 18-1</t>
+  </si>
+  <si>
+    <t>91841A007</t>
+  </si>
+  <si>
+    <t>NUT, #6-32, 18-8</t>
+  </si>
+  <si>
+    <t>92671A115</t>
+  </si>
+  <si>
+    <t>NUT, #0-80, BRASS</t>
+  </si>
+  <si>
+    <t>92673A119</t>
+  </si>
+  <si>
+    <t>NUT, .3125-18, 18-8</t>
+  </si>
+  <si>
+    <t>93187A110</t>
+  </si>
+  <si>
+    <t>HEX NUT, M2 X 0.4 MM, BRASS</t>
+  </si>
+  <si>
+    <t>93625A100</t>
+  </si>
+  <si>
+    <t>NYLOC HEX NUT, M3 X 0.5 MM</t>
+  </si>
+  <si>
+    <t>93625A150</t>
+  </si>
+  <si>
+    <t>NYLOC HEX NUT, M4 X 0.7 MM</t>
+  </si>
+  <si>
+    <t>93625A200</t>
+  </si>
+  <si>
+    <t>NYLOC HEX NUT, M5 X 0.8 MM</t>
+  </si>
+  <si>
+    <t>93625A250</t>
+  </si>
+  <si>
+    <t>NYLOC HEX NUT, M6 X 1 MM</t>
+  </si>
+  <si>
+    <t>93625A300</t>
+  </si>
+  <si>
+    <t>NYLOC HEX NUT, M8 X 1.25MM</t>
+  </si>
+  <si>
+    <t>95130A105</t>
+  </si>
+  <si>
+    <t>NUT, #2-56, NARROW, BRASS</t>
+  </si>
+  <si>
+    <t>95615A120</t>
+  </si>
+  <si>
+    <t>NYLOC NUT, .25-20, GR5, STEEL</t>
+  </si>
+  <si>
+    <t>AJ-146-12</t>
+  </si>
+  <si>
+    <t>RETAINING NUT FOR M55116-10/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT503M </t>
+  </si>
+  <si>
+    <t>TOP NUT (PO MB2011SB1W01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT527M </t>
+  </si>
+  <si>
+    <t>BOTTOM NUT (PO MB2011SB1W01)</t>
+  </si>
+  <si>
+    <t>DSTL-0840 NUT</t>
+  </si>
+  <si>
+    <t>HEX NUT FOR DSTL-0840, 6/16-18 UNF-2B</t>
+  </si>
+  <si>
+    <t>HDW4</t>
+  </si>
+  <si>
+    <t>HEX NUT FOR SWITCH, 15/32-32NS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NUT (PO P170S-FC20BR10K)</t>
+  </si>
+  <si>
+    <t>TOP NUT (PO 50A36-01-1-05N)</t>
+  </si>
+  <si>
+    <t>PV2F24011</t>
+  </si>
+  <si>
+    <t>PV2F24011 - MOUNTING NUT</t>
+  </si>
+  <si>
+    <t>92105A675</t>
+  </si>
+  <si>
+    <t>INSERT, .25-20, SELF TAPPING, FOR SOFTWOOD</t>
+  </si>
+  <si>
+    <t>99461A505</t>
+  </si>
+  <si>
+    <t>PHS, 0-42 X .125, SELF TAPPING, 18-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H-37-5</t>
+  </si>
+  <si>
+    <t>LOCKWASHER FOR POTENTIOMETER, 1/4 ID</t>
+  </si>
+  <si>
+    <t>90276A143</t>
+  </si>
+  <si>
+    <t>RHS, SLOTTED, 6-32 X .1875, STEEL</t>
+  </si>
+  <si>
+    <t>P09X WASHER</t>
+  </si>
+  <si>
+    <t>WASHER FOR POTENTIOMETER, M7</t>
+  </si>
+  <si>
+    <t>5395T211</t>
+  </si>
+  <si>
+    <t>8MM SET SCREW SHAFT COUPLING</t>
+  </si>
+  <si>
+    <t>57485K67</t>
+  </si>
+  <si>
+    <t>8MM SET SCREW SHAFT COLLAR</t>
+  </si>
+  <si>
+    <t>57485K68</t>
+  </si>
+  <si>
+    <t>10 MM CARBON STEEL SET SCREW SHAFT COLLAR</t>
+  </si>
+  <si>
+    <t>92015A121</t>
+  </si>
+  <si>
+    <t>SET SCREW, M5 X 0.8 MM, 10 MM LONG</t>
+  </si>
+  <si>
+    <t>92311A102</t>
+  </si>
+  <si>
+    <t>SET SCREW, 4-40 X .093 CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A103</t>
+  </si>
+  <si>
+    <t>SET SCREW, 4-40 X .125, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A105</t>
+  </si>
+  <si>
+    <t>SET SCREW, 4-40 X .1875, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A144</t>
+  </si>
+  <si>
+    <t>SET SCREW, #6-32 X 0.25, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A188</t>
+  </si>
+  <si>
+    <t>SET SCREW, 8-32 X .1875, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A189</t>
+  </si>
+  <si>
+    <t>92311A191</t>
+  </si>
+  <si>
+    <t>SET SCREW, 8-32 X .3125, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>92311A425</t>
+  </si>
+  <si>
+    <t>SET SCREW, 10-32 X .250, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>91251A106</t>
+  </si>
+  <si>
+    <t>SHCS, #4-40 X .250, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A107</t>
+  </si>
+  <si>
+    <t>SHCS, #4-40 X .3125, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A108</t>
+  </si>
+  <si>
+    <t>SHCS, #4-40 X .375, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A115</t>
+  </si>
+  <si>
+    <t>SHCS, #4-40 X 1.00, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A146</t>
+  </si>
+  <si>
+    <t>SHCS, 6-32 X .375, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A535</t>
+  </si>
+  <si>
+    <t>SHCS, .25-20 X .375, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91251A540</t>
+  </si>
+  <si>
+    <t>SHCS, .25-20 X .750, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>91292A126</t>
+  </si>
+  <si>
+    <t>SHCS, M5X0.8, 16MM, 18-8</t>
+  </si>
+  <si>
+    <t>91292A129</t>
+  </si>
+  <si>
+    <t>SHCS, M5X0.8, 25MM, 18-8</t>
+  </si>
+  <si>
+    <t>91292A318</t>
+  </si>
+  <si>
+    <t>SHCS, M4 X 0.7 MM, 75 MM LONG</t>
+  </si>
+  <si>
+    <t>92196A084</t>
+  </si>
+  <si>
+    <t>SHCS, #2-56 X .750, 18-8</t>
+  </si>
+  <si>
+    <t>92196A108</t>
+  </si>
+  <si>
+    <t>SHCS, #4-40 X .375, 18-8</t>
+  </si>
+  <si>
+    <t>92196A303</t>
+  </si>
+  <si>
+    <t>SHCS, #12-24 X 1.750, 18-8</t>
+  </si>
+  <si>
+    <t>92200A197</t>
+  </si>
+  <si>
+    <t>SHCS, #8-32 X .750, 18-8</t>
+  </si>
+  <si>
+    <t>92855A628</t>
+  </si>
+  <si>
+    <t>SHCS, M6X1.0, 35MM, 18-1, LOW-PROFILE</t>
+  </si>
+  <si>
+    <t>96006A231</t>
+  </si>
+  <si>
+    <t>SHCS, #2-56 X .125, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>90807A112</t>
+  </si>
+  <si>
+    <t>SHSS, .25-20 X .375 THD, .250 X .375 SHOULDER, STEEL</t>
+  </si>
+  <si>
+    <t>90176A102</t>
+  </si>
+  <si>
+    <t>SPACER, #4 X .188 OD X .125 L, NYLON, BLK</t>
+  </si>
+  <si>
+    <t>90176A105</t>
+  </si>
+  <si>
+    <t>SPACER, #4 X .188 OD X .2188 L, NYLON, BLK</t>
+  </si>
+  <si>
+    <t>90176A115</t>
+  </si>
+  <si>
+    <t>SPACER, #4 X .188 OD X .4688 L, NYLON, BLK</t>
+  </si>
+  <si>
+    <t>94639A187</t>
+  </si>
+  <si>
+    <t>SPACER, #2 X 0.25 OD X 0.125 L, NYLON</t>
+  </si>
+  <si>
+    <t>91780A028</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X .375, .125 HEX, FEMALE, 6061</t>
+  </si>
+  <si>
+    <t>91780A035</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X 1.50, .1875 HEX, FEMALE, 6061</t>
+  </si>
+  <si>
+    <t>91780A045</t>
+  </si>
+  <si>
+    <t>STANDOFF, #4-40 X 2.50, HEX, FEMALE, ALU</t>
+  </si>
+  <si>
+    <t>91780A105</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X .375, .1875 HEX, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>91780A117</t>
+  </si>
+  <si>
+    <t>STANDOFF, #2-56 X 1.00, .1875 HEX, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>91780A209</t>
+  </si>
+  <si>
+    <t>STANDOFF, #6-32 X .875, .250 HEX, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>91780A337</t>
+  </si>
+  <si>
+    <t>STANDOFF, #6-32 X 1.50, .25 HEX, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>91920A579</t>
+  </si>
+  <si>
+    <t>STANDOFF, M3 X 0.5 - 6.4 X 4.5 HEX X 50L, STL</t>
+  </si>
+  <si>
+    <t>93330A438</t>
+  </si>
+  <si>
+    <t>STANDOFF, #4-40 X .875, .25 OD, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93330A554</t>
+  </si>
+  <si>
+    <t>STANDOFF, #10-32 X 3.50, .25 OD, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93330A564</t>
+  </si>
+  <si>
+    <t>STANDOFF, #10-32 X 4.00, .25 OD, FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93505A107</t>
+  </si>
+  <si>
+    <t>STANDOFF, #4-40 X 1.00, HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93505A212</t>
+  </si>
+  <si>
+    <t>93505A217</t>
+  </si>
+  <si>
+    <t>93505A445</t>
+  </si>
+  <si>
+    <t>STANDOFF, 6-32 X .875, .25 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93505A446</t>
+  </si>
+  <si>
+    <t>STANDOFF, #6-32 X 1.00, .25 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>93505A456</t>
+  </si>
+  <si>
+    <t>STANDOFF, #8-32 X 1.00, .250 HEX, MALE-FEMALE, ALUMINUM</t>
+  </si>
+  <si>
+    <t>AT508</t>
+  </si>
+  <si>
+    <t>LOCK WASHER FOR SWITCH, M12</t>
+  </si>
+  <si>
+    <t>AT509</t>
+  </si>
+  <si>
+    <t>LOCK WASHER FOR SWITCH, M6</t>
+  </si>
+  <si>
+    <t>C7 LOCKWASHER</t>
+  </si>
+  <si>
+    <t>LOCKWASHER FOR C7 SWITCH, 3/8 ID</t>
+  </si>
+  <si>
+    <t>PEC11R WASHER</t>
+  </si>
+  <si>
+    <t>WASHER FOR SWITCH, M7, 12 MM OD</t>
+  </si>
+  <si>
+    <t>90126A029</t>
+  </si>
+  <si>
+    <t>WASHER, .25 X .625, STEEL, ZINC</t>
+  </si>
+  <si>
+    <t>90131A102</t>
+  </si>
+  <si>
+    <t>WASHER, CUSHIONING, 0.250 ID, ABRASION-RESISTANT</t>
+  </si>
+  <si>
+    <t>90131A103</t>
+  </si>
+  <si>
+    <t>WASHER, CUSHIONING, 0.375 ID, ABRASION-RESISTANT</t>
+  </si>
+  <si>
+    <t>90377A165</t>
+  </si>
+  <si>
+    <t>WASHER, .3125 X 1.50 OD, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>90618A127</t>
+  </si>
+  <si>
+    <t>WASHER, .25 X .438 OD X .029-.035 THK, MS15795-854B, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>90618A200</t>
+  </si>
+  <si>
+    <t>WASHER, #4 X .250, 18-8, BLACK OXIDE, MS15795-803B</t>
+  </si>
+  <si>
+    <t>91100A120</t>
+  </si>
+  <si>
+    <t>WASHER, M3 X 9 OD, STL, ZINC</t>
+  </si>
+  <si>
+    <t>91116A160</t>
+  </si>
+  <si>
+    <t>OVERSIZED FLAT WASHER, M8, 8.4MM ID 24MM OD</t>
+  </si>
+  <si>
+    <t>92141A003</t>
+  </si>
+  <si>
+    <t>WASHER, #2 X .250 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92141A008</t>
+  </si>
+  <si>
+    <t>WASHER, #6 X .3125 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92141A011</t>
+  </si>
+  <si>
+    <t>WASHER, #10 X .438 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92141A013</t>
+  </si>
+  <si>
+    <t>WASHER, #12 X 0.50 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92141A029</t>
+  </si>
+  <si>
+    <t>WASHER, 0.281 X .625 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92141A034</t>
+  </si>
+  <si>
+    <t>WASHER, 0.578 X 1.062 OD, 18-8</t>
+  </si>
+  <si>
+    <t>92503A180</t>
+  </si>
+  <si>
+    <t>WASHER, #6 X 0.56 OD, 18-8, MIL-SPEC</t>
+  </si>
+  <si>
+    <t>93475A230</t>
+  </si>
+  <si>
+    <t>FLAT WASHER, M4</t>
+  </si>
+  <si>
+    <t>93475A240</t>
+  </si>
+  <si>
+    <t>FLAT WASHER, M5</t>
+  </si>
+  <si>
+    <t>93475A250</t>
+  </si>
+  <si>
+    <t>FLAT WASHER, M6</t>
+  </si>
+  <si>
+    <t>93475A270</t>
+  </si>
+  <si>
+    <t>93475A280</t>
+  </si>
+  <si>
+    <t>FLAT WASHER, M10</t>
+  </si>
+  <si>
+    <t>93650A155</t>
+  </si>
+  <si>
+    <t>Cushioning Washer, 0.3125", Moisture-Resistant</t>
+  </si>
+  <si>
+    <t>95649A232</t>
+  </si>
+  <si>
+    <t>WASHER, .25 X .50 OD, .031 THK, PLASTIC UHMW</t>
+  </si>
+  <si>
+    <t>96765A115</t>
+  </si>
+  <si>
+    <t>WASHER, #6 X .375 OD, 18-8, BLACK-OXIDE</t>
+  </si>
+  <si>
+    <t>96765A120</t>
+  </si>
+  <si>
+    <t>WASHER, #8 X .375 OD, 18-8, BLACK</t>
+  </si>
+  <si>
+    <t>96765A145</t>
+  </si>
+  <si>
+    <t>WASHER, .3125 X .750 X .05 THK, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>97416A113</t>
+  </si>
+  <si>
+    <t>WASHER, #8, STEEL, BLACK-OXIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT508 </t>
+  </si>
+  <si>
+    <t>LOCK WASHER (PO MB2011SB1W01)</t>
+  </si>
+  <si>
+    <t>DSTL-0840 WASHER</t>
+  </si>
+  <si>
+    <t>WASHER FOR DSTL-0840</t>
+  </si>
+  <si>
+    <t>HDW12</t>
+  </si>
+  <si>
+    <t>LOCK WASHER FOR SWITCH, B13</t>
+  </si>
+  <si>
+    <t>unklar; Bestellnummer ist M4x4,7mm; Beschreibung passt nicht</t>
+  </si>
+  <si>
+    <t>Eine Art Schlossschraube, aber mit geriffeltem Hals</t>
+  </si>
+  <si>
+    <t>DIN 912, ISO 4762</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Zylinderschraube, Innensechkant, schwarz</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Zylinderschraube, Innensechkant</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Zylinderschraube, Innensechkant, niedriger Kopf</t>
+  </si>
+  <si>
+    <t>DIN7984</t>
+  </si>
+  <si>
+    <t>Gewindeschraube, Schulterschraube, Innensechskant</t>
+  </si>
+  <si>
+    <t>Abstandshülse, Nylon, schwarz</t>
+  </si>
+  <si>
+    <t>Abstandshülse, Nylon, cremefarben</t>
+  </si>
+  <si>
+    <t>Distanzhülse, Sechskant, weiblich-weiblich</t>
+  </si>
+  <si>
+    <t>Distanzhülse, Sechskant, männlich-weiblich</t>
+  </si>
+  <si>
+    <t>DIN 916 und ISO 4029</t>
+  </si>
+  <si>
+    <t>Gewindestift, Innensechskant, Ringschneide</t>
+  </si>
+  <si>
+    <t>Stellring, schwarz</t>
+  </si>
+  <si>
+    <t>Wellenkupplung mit Stellschrauben</t>
+  </si>
+  <si>
+    <t>Rundkopfschraube, Schlitzschraube</t>
+  </si>
+  <si>
+    <t>Gewindeschneideeinsatz für Holz</t>
+  </si>
+  <si>
+    <t>Gewindeschneideschraube, Flachkopf, Kreuzschlitz</t>
+  </si>
+  <si>
+    <t>Mutter, sechskant</t>
+  </si>
+  <si>
+    <t>Mutter, sechskant, dünn, etwa 1/2 normale Dicke</t>
+  </si>
+  <si>
+    <t>Mutter, sechskant, etwa 20% dünner als normale Dicke</t>
+  </si>
+  <si>
+    <t>DIN934</t>
+  </si>
+  <si>
+    <t>Mutter, sechskant, Messing</t>
+  </si>
+  <si>
+    <t>DIN985</t>
+  </si>
+  <si>
+    <t>Stopmutter, sechskant</t>
+  </si>
+  <si>
+    <t>Ersatz durch Torx</t>
+  </si>
+  <si>
+    <t>Ersatz durch Inbus</t>
+  </si>
+  <si>
+    <t>DIN125</t>
+  </si>
+  <si>
+    <t>DIN7985; DIN7380-1(ISK)</t>
+  </si>
+  <si>
+    <t>DIN965; DIN14581 (Torx)</t>
+  </si>
+  <si>
+    <t>innen: 4,763mm; außen: 11,113 mm; Dicke: 1,651mm</t>
+  </si>
+  <si>
+    <t>deutlich dünner!</t>
+  </si>
+  <si>
+    <t>Ersatz durch Torx; anderer Winkel Kopf; in DEU einheitlich 90°</t>
+  </si>
+  <si>
+    <t>M4 x 25 mm</t>
+  </si>
+  <si>
+    <t>M4 x 50 mm</t>
+  </si>
+  <si>
+    <t>https://www.normreich.de/1x-Senkschraube-M4-x-25-ISO-14581-Torx-TX-A2</t>
+  </si>
+  <si>
+    <t>https://www.normreich.de/1x-Senkschraube-M4-x-50-ISO-14581-Torx-TX-A2</t>
+  </si>
+  <si>
+    <t>FHS, 100 DEG, #6-32 X .50, STEEL, BLK</t>
+  </si>
+  <si>
+    <t>2,845 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 7,94 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 12,7 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 25,4 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 38,1 mm</t>
+  </si>
+  <si>
+    <t>3,505mm x 12,7 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 15,88 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 4,76 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 6,35 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 9,53 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 15,88 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 22,23 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 31,75 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 38,1 mm</t>
+  </si>
+  <si>
+    <t>M3 x 8 mm</t>
+  </si>
+  <si>
+    <t>M3 x 12 mm</t>
+  </si>
+  <si>
+    <t>M3 x 20 mm</t>
+  </si>
+  <si>
+    <t>M3 x 25 mm</t>
+  </si>
+  <si>
+    <t>M3 x 40 mm</t>
+  </si>
+  <si>
+    <t>M3 x 16 mm</t>
+  </si>
+  <si>
+    <t>M3 x 5 mm</t>
+  </si>
+  <si>
+    <t>M3 x 6 mm</t>
+  </si>
+  <si>
+    <t>M3 x 10 mm</t>
+  </si>
+  <si>
+    <t>M3 x 30 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 6,35 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 11,11 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 12,7 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 31,75 mm</t>
+  </si>
+  <si>
+    <t>M2 x 6 mm</t>
+  </si>
+  <si>
+    <t>M2 x 10 mm</t>
+  </si>
+  <si>
+    <t>M2 x 12 mm</t>
+  </si>
+  <si>
+    <t>M2 x 30 mm</t>
+  </si>
+  <si>
+    <t>M2 x 25 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 15,88 mm</t>
+  </si>
+  <si>
+    <t>M6 x 16 mm</t>
+  </si>
+  <si>
+    <t>1,5240 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>M1,6 x 20 mm</t>
+  </si>
+  <si>
+    <t>4,166 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>M 4 x 20 mm</t>
+  </si>
+  <si>
+    <t>M 4 x 10 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 6,35 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 14,29 mm</t>
+  </si>
+  <si>
+    <t>M3 x 14 mm</t>
+  </si>
+  <si>
+    <t>4,826 mm x 22,23 mm</t>
+  </si>
+  <si>
+    <t>M3 x 22 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 12,7 mm</t>
+  </si>
+  <si>
+    <t>1,524 mm x 5,55 mm</t>
+  </si>
+  <si>
+    <t>1,524 mm x 15,88 mm</t>
+  </si>
+  <si>
+    <t>1,524 mm x 11,11 mm</t>
+  </si>
+  <si>
+    <t>M1,6 x 6 mm</t>
+  </si>
+  <si>
+    <t>M1,6 x 12 mm</t>
+  </si>
+  <si>
+    <t>M1,6 x 16 mm</t>
+  </si>
+  <si>
+    <t>Feingewinde?</t>
+  </si>
+  <si>
+    <t>3,505 mm x 9,53 mm</t>
+  </si>
+  <si>
+    <t>3,505 x 15,88 mm</t>
+  </si>
+  <si>
+    <t>3,505 x 19,05 mm</t>
+  </si>
+  <si>
+    <t>3,505 x  22,23 mm</t>
+  </si>
+  <si>
+    <t>3,505 x  38,1 mm</t>
+  </si>
+  <si>
+    <t>PHS, #6-32 X 1.25, 18-8, BLK</t>
+  </si>
+  <si>
+    <t>3,505 x  31,75 mm</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10643</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10644</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10645</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10646</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10647</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10648</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10649</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10650</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10651</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10652</t>
+  </si>
+  <si>
+    <t>DIN 7991, ISO 10642; alternativ DIN14581 (Torx)</t>
+  </si>
+  <si>
+    <t>M3 x 35 mm</t>
+  </si>
+  <si>
+    <t>M4 x 12 mm</t>
+  </si>
+  <si>
+    <t>M4 x 35 mm</t>
+  </si>
+  <si>
+    <t>M5 x 25 mm</t>
+  </si>
+  <si>
+    <t>M5 x 35 mm</t>
+  </si>
+  <si>
+    <t>M6 x 45 mm</t>
+  </si>
+  <si>
+    <t>M4 x 55 mm</t>
+  </si>
+  <si>
+    <t>M4 x 45 mm</t>
+  </si>
+  <si>
+    <t>M5 x 45 mm</t>
+  </si>
+  <si>
+    <t>M2 x 8 mm</t>
+  </si>
+  <si>
+    <t>M3 x 3 mm</t>
+  </si>
+  <si>
+    <t>M8 x 35 mm</t>
+  </si>
+  <si>
+    <t>M6 x 80 mm</t>
+  </si>
+  <si>
+    <t>M8 x 45 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 38,1 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 25,4 mm</t>
+  </si>
+  <si>
+    <t>7,94 mm x 38,1 mm</t>
+  </si>
+  <si>
+    <t>7,94 mm x 57,2 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 69,9 mm</t>
+  </si>
+  <si>
+    <t>M6 x 40 mm</t>
+  </si>
+  <si>
+    <t>M6 x 25 mm</t>
+  </si>
+  <si>
+    <t>M6 x 70 mm</t>
+  </si>
+  <si>
+    <t>M8 x 40 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 12,7 mm</t>
+  </si>
+  <si>
+    <t>M6 x 12 mm</t>
+  </si>
+  <si>
+    <t>M8 x 60 mm</t>
+  </si>
+  <si>
+    <t>M5 x 16 mm</t>
+  </si>
+  <si>
+    <t>M4 x 75 mm</t>
+  </si>
+  <si>
+    <t>M6 x 35 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>5,486 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>M2 x 20 mm oder M2,5 x 20 mm</t>
+  </si>
+  <si>
+    <t>M5 x 20 mm</t>
+  </si>
+  <si>
+    <t>M4 x 20 mm</t>
+  </si>
+  <si>
+    <t>M2 oder M2,5</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M5 x 22 mm Feingewinde</t>
+  </si>
+  <si>
+    <t>M5 Feingewinde</t>
+  </si>
+  <si>
+    <t>M3 flach</t>
+  </si>
+  <si>
+    <t>Nummer stimmt nicht</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>5,486 mm</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M5 oder M6</t>
+  </si>
+  <si>
+    <t>7,94 mm</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>Mutter, sechskant, Messing, flach</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M1,6</t>
+  </si>
+  <si>
+    <t>Mutter, sechkant</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe für 1/4" Schraube</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, "Gummi" für 1/4" Schraube</t>
+  </si>
+  <si>
+    <t>9,56 mm</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>FLAT WASHER, M8</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, Übergröße, 5/16" Schraube, schwarz, Durchmesser 1,5"</t>
+  </si>
+  <si>
+    <t>M8 Karrosseriescheibe</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>DIN9021</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, groß</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, groß, Schraube #2, AD 0,25"</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, groß, Schraube #6, AD 0,312"</t>
+  </si>
+  <si>
+    <t>3,96 mm x 7,92 mm</t>
+  </si>
+  <si>
+    <t>Unterlegscheibe, "Gummi" für 1/4" Schraube aka Dämpfungsscheibe</t>
+  </si>
+  <si>
+    <t>Gewindeeinsatz, Messing, zum einschmelzen in Kunststoff, kurz</t>
+  </si>
+  <si>
+    <t>Gewindeeinsatz, Messing, zum einschmelzen in Kunststoff, lang</t>
+  </si>
+  <si>
+    <t>M3 x 5,7 mm</t>
+  </si>
+  <si>
+    <t>M2 x 3mm  oder M2,5 x 4mm</t>
+  </si>
+  <si>
+    <t>M4 x 4 mm</t>
+  </si>
+  <si>
+    <t>M6 x ??</t>
+  </si>
+  <si>
+    <t>Lochdurchmesser 4,0 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,6 +2471,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -572,13 +2493,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -601,19 +2559,47 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -722,13 +2708,9 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
     <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -746,7 +2728,6 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
 </richValueRels>
 </file>
 
@@ -1047,449 +3028,4495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B225" sqref="A225:XFD237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" customWidth="1"/>
-    <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12">
+        <v>313</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="12">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>632</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="12">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="12">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="I15" t="s">
+        <v>632</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="12">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>632</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="I17" t="s">
+        <v>632</v>
+      </c>
+      <c r="J17" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="12">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="12">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="12">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="12">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="13">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="13">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="12">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="12">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="12">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="12">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="12">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="12">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="13">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="13">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="13">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G41" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="13">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="12">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="I45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="23">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="12">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="11">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="11">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="12">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="13">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="11">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="11">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>285</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="11">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="13">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="12">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" t="s">
+        <v>633</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="12">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="12">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>633</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="13">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="13">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="12">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="13">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="13">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G69" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="13">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G70" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C71" s="19">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G71" t="s">
+        <v>666</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G72" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="13">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>304</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G73" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C74" s="13">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G74" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="13">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G75" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="12">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="12">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="12">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="12">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>301</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="12">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="21">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>301</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="11">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="11">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="11">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="11">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="11">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="11">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="11">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="11">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="11">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="11">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G98" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="11">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G99" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="11">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G100" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="11">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="11">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="12">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="11">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>299</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="11">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>299</v>
+      </c>
+      <c r="G107" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="11">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>299</v>
+      </c>
+      <c r="G108" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" s="11">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>299</v>
+      </c>
+      <c r="G109" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" t="s">
+        <v>281</v>
+      </c>
+      <c r="C110" s="11">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>299</v>
+      </c>
+      <c r="G110" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="11">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>300</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="11">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>300</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="11">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>326</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="11">
+        <v>35</v>
+      </c>
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G115" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="11">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>326</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G116" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="11">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G117" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" t="s">
+        <v>317</v>
+      </c>
+      <c r="C118" s="11">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G118" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="11">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>330</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="11">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>326</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G121" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B122" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="11">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>326</v>
+      </c>
+      <c r="G122" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" s="11">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>326</v>
+      </c>
+      <c r="G123" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C125" s="11">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>609</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>469</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C126" s="11">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>609</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>471</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C127" s="11">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>609</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>473</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C128" s="11">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>609</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>475</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C129" s="11">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>609</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>477</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" s="11">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>609</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>479</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C131" s="11">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>609</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>481</v>
+      </c>
+      <c r="B132" t="s">
+        <v>482</v>
+      </c>
+      <c r="C132" s="11">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>610</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>483</v>
+      </c>
+      <c r="B133" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" s="11">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>610</v>
+      </c>
+      <c r="E133" s="15"/>
+      <c r="F133" t="s">
+        <v>608</v>
+      </c>
+      <c r="G133" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>491</v>
+      </c>
+      <c r="B134" t="s">
+        <v>492</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>610</v>
+      </c>
+      <c r="E134" t="s">
+        <v>748</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>493</v>
+      </c>
+      <c r="B135" t="s">
+        <v>494</v>
+      </c>
+      <c r="C135" s="11">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>610</v>
+      </c>
+      <c r="E135" t="s">
+        <v>684</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>485</v>
+      </c>
+      <c r="B136" t="s">
+        <v>486</v>
+      </c>
+      <c r="C136" s="13">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>610</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137" t="s">
+        <v>488</v>
+      </c>
+      <c r="C137" s="11">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
+        <v>610</v>
+      </c>
+      <c r="E137" t="s">
+        <v>747</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>489</v>
+      </c>
+      <c r="B138" t="s">
+        <v>490</v>
+      </c>
+      <c r="C138" s="11">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>610</v>
+      </c>
+      <c r="E138" t="s">
+        <v>656</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>495</v>
+      </c>
+      <c r="B139" t="s">
+        <v>496</v>
+      </c>
+      <c r="C139" s="13">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>611</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="G139" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>497</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C140" s="11">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>609</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" s="11">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>625</v>
+      </c>
+      <c r="G143" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B144" t="s">
+        <v>376</v>
+      </c>
+      <c r="C144" s="11">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>626</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B145" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="11">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>627</v>
+      </c>
+      <c r="G145" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B146" t="s">
+        <v>380</v>
+      </c>
+      <c r="C146" s="11">
+        <v>111</v>
+      </c>
+      <c r="D146" t="s">
+        <v>631</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B147" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147" s="11">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>626</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G147" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B148" t="s">
+        <v>384</v>
+      </c>
+      <c r="C148" s="11">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>625</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B149" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" s="11">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>625</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" s="11">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>631</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G150" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151" s="11">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>631</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G151" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B152" t="s">
+        <v>392</v>
+      </c>
+      <c r="C152" s="11">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>631</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G152" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B153" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" s="11">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>625</v>
+      </c>
+      <c r="G153" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B154" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="11">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s">
+        <v>625</v>
+      </c>
+      <c r="G154" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B155" t="s">
+        <v>398</v>
+      </c>
+      <c r="C155" s="11">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>625</v>
+      </c>
+      <c r="G155" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C156" s="12">
+        <v>329</v>
+      </c>
+      <c r="D156" t="s">
+        <v>625</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G156" t="s">
+        <v>113</v>
+      </c>
+      <c r="J156" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" t="s">
+        <v>400</v>
+      </c>
+      <c r="C157" s="13">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>629</v>
+      </c>
+      <c r="G157" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B158" t="s">
+        <v>402</v>
+      </c>
+      <c r="C158" s="11">
+        <v>20</v>
+      </c>
+      <c r="D158" t="s">
+        <v>767</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G158" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B159" t="s">
+        <v>404</v>
+      </c>
+      <c r="C159" s="11">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>764</v>
+      </c>
+      <c r="G159" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B160" t="s">
+        <v>406</v>
+      </c>
+      <c r="C160" s="11">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>631</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B161" t="s">
+        <v>408</v>
+      </c>
+      <c r="C161" s="11">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B162" t="s">
+        <v>410</v>
+      </c>
+      <c r="C162" s="11">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B163" t="s">
+        <v>412</v>
+      </c>
+      <c r="C163" s="11">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B164" t="s">
+        <v>414</v>
+      </c>
+      <c r="C164" s="11">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B165" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" s="11">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>764</v>
+      </c>
+      <c r="G165" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B166" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" s="11">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>631</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G166" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>549</v>
+      </c>
+      <c r="B168" t="s">
+        <v>550</v>
+      </c>
+      <c r="C168" s="11">
+        <v>46</v>
+      </c>
+      <c r="D168" t="s">
+        <v>768</v>
+      </c>
+      <c r="E168" t="s">
+        <v>74</v>
+      </c>
+      <c r="F168"/>
+      <c r="G168" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>551</v>
+      </c>
+      <c r="B169" t="s">
+        <v>552</v>
+      </c>
+      <c r="C169" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D169" t="s">
+        <v>781</v>
+      </c>
+      <c r="E169" t="s">
+        <v>74</v>
+      </c>
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>553</v>
+      </c>
+      <c r="B170" t="s">
+        <v>554</v>
+      </c>
+      <c r="C170" s="13">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>769</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F170"/>
+      <c r="G170" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>555</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C171" s="11">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>773</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F171"/>
+      <c r="G171" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>557</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="C172" s="11">
+        <v>4</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>559</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C173" s="11">
+        <v>40</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>561</v>
+      </c>
+      <c r="B174" t="s">
+        <v>562</v>
+      </c>
+      <c r="C174" s="11">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>777</v>
+      </c>
+      <c r="E174"/>
+      <c r="F174" t="s">
+        <v>776</v>
+      </c>
+      <c r="G174" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>563</v>
+      </c>
+      <c r="B175" t="s">
+        <v>564</v>
+      </c>
+      <c r="C175" s="11">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>777</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175" t="s">
+        <v>776</v>
+      </c>
+      <c r="G175" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>565</v>
+      </c>
+      <c r="B176" t="s">
+        <v>566</v>
+      </c>
+      <c r="C176" s="11">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>778</v>
+      </c>
+      <c r="E176" t="s">
+        <v>671</v>
+      </c>
+      <c r="F176" t="s">
+        <v>776</v>
+      </c>
+      <c r="G176" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>567</v>
+      </c>
+      <c r="B177" t="s">
+        <v>568</v>
+      </c>
+      <c r="C177" s="11">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>779</v>
+      </c>
+      <c r="E177" t="s">
+        <v>780</v>
+      </c>
+      <c r="F177" t="s">
+        <v>776</v>
+      </c>
+      <c r="G177" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>569</v>
+      </c>
+      <c r="B178" t="s">
+        <v>570</v>
+      </c>
+      <c r="C178" s="11">
+        <v>8</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>571</v>
+      </c>
+      <c r="B179" t="s">
+        <v>572</v>
+      </c>
+      <c r="C179" s="11">
+        <v>6</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>573</v>
+      </c>
+      <c r="B180" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E180"/>
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>575</v>
+      </c>
+      <c r="B181" t="s">
+        <v>576</v>
+      </c>
+      <c r="C181" s="11">
+        <v>2</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>577</v>
+      </c>
+      <c r="B182" t="s">
+        <v>578</v>
+      </c>
+      <c r="C182" s="11">
+        <v>1</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>579</v>
+      </c>
+      <c r="B183" t="s">
+        <v>580</v>
+      </c>
+      <c r="C183" s="11">
+        <v>48</v>
+      </c>
+      <c r="E183"/>
+      <c r="F183" t="s">
+        <v>634</v>
+      </c>
+      <c r="G183" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>581</v>
+      </c>
+      <c r="B184" t="s">
+        <v>582</v>
+      </c>
+      <c r="C184" s="11">
+        <v>26</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184" t="s">
+        <v>634</v>
+      </c>
+      <c r="G184" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>583</v>
+      </c>
+      <c r="B185" t="s">
+        <v>584</v>
+      </c>
+      <c r="C185" s="11">
+        <v>14</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>634</v>
+      </c>
+      <c r="G185" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>585</v>
+      </c>
+      <c r="B186" t="s">
+        <v>772</v>
+      </c>
+      <c r="C186" s="11">
+        <v>23</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186" t="s">
+        <v>634</v>
+      </c>
+      <c r="G186" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>586</v>
+      </c>
+      <c r="B187" t="s">
+        <v>587</v>
+      </c>
+      <c r="C187" s="11">
+        <v>4</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187" t="s">
+        <v>634</v>
+      </c>
+      <c r="G187" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>588</v>
+      </c>
+      <c r="B188" t="s">
+        <v>589</v>
+      </c>
+      <c r="C188" s="11">
+        <v>2</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>590</v>
+      </c>
+      <c r="B189" t="s">
+        <v>591</v>
+      </c>
+      <c r="C189" s="11">
+        <v>2</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>592</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C190" s="11">
+        <v>14</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>594</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C191" s="11">
+        <v>41</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>596</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="C192" s="11">
+        <v>24</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>598</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C193" s="11">
+        <v>8</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" s="12">
+        <v>299</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G194" t="s">
+        <v>115</v>
+      </c>
+      <c r="I194" t="s">
+        <v>638</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B197" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" s="11">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>782</v>
+      </c>
+      <c r="G197" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B198" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="11">
+        <v>116</v>
+      </c>
+      <c r="D198" t="s">
+        <v>782</v>
+      </c>
+      <c r="G198" t="s">
+        <v>785</v>
+      </c>
+      <c r="I198" t="s">
+        <v>123</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B199" t="s">
+        <v>335</v>
+      </c>
+      <c r="C199" s="11">
+        <v>19</v>
+      </c>
+      <c r="D199" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B200" t="s">
+        <v>337</v>
+      </c>
+      <c r="C200" s="11">
+        <v>74</v>
+      </c>
+      <c r="D200" t="s">
+        <v>782</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G200" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" s="11">
+        <v>192</v>
+      </c>
+      <c r="D201" t="s">
+        <v>782</v>
+      </c>
+      <c r="G201" t="s">
+        <v>728</v>
+      </c>
+      <c r="I201" t="s">
+        <v>788</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="11">
+        <v>231</v>
+      </c>
+      <c r="D202" t="s">
+        <v>782</v>
+      </c>
+      <c r="G202" t="s">
+        <v>786</v>
+      </c>
+      <c r="I202" t="s">
+        <v>119</v>
+      </c>
+      <c r="J202" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B203" t="s">
+        <v>339</v>
+      </c>
+      <c r="C203" s="11">
+        <v>23</v>
+      </c>
+      <c r="D203" t="s">
+        <v>782</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G203" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B204" t="s">
+        <v>341</v>
+      </c>
+      <c r="C204" s="11">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>782</v>
+      </c>
+      <c r="G204" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B205" t="s">
+        <v>341</v>
+      </c>
+      <c r="C205" s="11">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>783</v>
+      </c>
+      <c r="G205" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" t="s">
+        <v>116</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D211" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G211" t="s">
+        <v>104</v>
+      </c>
+      <c r="I211" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E212" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G212" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E213" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B216" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="D216" t="s">
+        <v>127</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B217" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I218" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B227" t="s">
+        <v>344</v>
+      </c>
+      <c r="C227" s="11">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B229" t="s">
+        <v>346</v>
+      </c>
+      <c r="C229" s="11">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B231" t="s">
+        <v>348</v>
+      </c>
+      <c r="C231" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B232" t="s">
+        <v>350</v>
+      </c>
+      <c r="C232" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B233" t="s">
+        <v>352</v>
+      </c>
+      <c r="C233" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B234" t="s">
+        <v>354</v>
+      </c>
+      <c r="C234" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B235" t="s">
+        <v>356</v>
+      </c>
+      <c r="C235" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B236" t="s">
+        <v>358</v>
+      </c>
+      <c r="C236" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B237" t="s">
+        <v>360</v>
+      </c>
+      <c r="C237" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B238" t="s">
+        <v>362</v>
+      </c>
+      <c r="C238" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B239" t="s">
+        <v>364</v>
+      </c>
+      <c r="C239" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B240" t="s">
+        <v>366</v>
+      </c>
+      <c r="C240" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B241" t="s">
+        <v>368</v>
+      </c>
+      <c r="C241" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B242" t="s">
+        <v>370</v>
+      </c>
+      <c r="C242" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B243" t="s">
+        <v>372</v>
+      </c>
+      <c r="C243" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B245" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" s="11">
+        <v>172</v>
+      </c>
+      <c r="D245" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B246" t="s">
+        <v>435</v>
+      </c>
+      <c r="C246" s="11">
+        <v>17</v>
+      </c>
+      <c r="D246" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B247" t="s">
+        <v>437</v>
+      </c>
+      <c r="C247" s="11">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>438</v>
+      </c>
+      <c r="B249" t="s">
+        <v>439</v>
+      </c>
+      <c r="C249" s="11">
+        <v>11</v>
+      </c>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249" s="9"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>442</v>
+      </c>
+      <c r="B250" t="s">
+        <v>443</v>
+      </c>
+      <c r="C250" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E250"/>
+      <c r="F250"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>440</v>
+      </c>
+      <c r="B252" t="s">
+        <v>441</v>
+      </c>
+      <c r="C252" s="11">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>622</v>
+      </c>
+      <c r="E252"/>
+      <c r="F252"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>444</v>
+      </c>
+      <c r="B254" t="s">
+        <v>445</v>
+      </c>
+      <c r="C254" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D254" t="s">
+        <v>621</v>
+      </c>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254" s="9"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>446</v>
+      </c>
+      <c r="B255" t="s">
+        <v>447</v>
+      </c>
+      <c r="C255" s="11">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>620</v>
+      </c>
+      <c r="E255"/>
+      <c r="F255"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>448</v>
+      </c>
+      <c r="B256" t="s">
+        <v>449</v>
+      </c>
+      <c r="C256" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D256" t="s">
+        <v>620</v>
+      </c>
+      <c r="E256"/>
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>450</v>
+      </c>
+      <c r="B257" t="s">
+        <v>451</v>
+      </c>
+      <c r="C257" s="11">
+        <v>3</v>
+      </c>
+      <c r="D257" t="s">
+        <v>619</v>
+      </c>
+      <c r="E257"/>
+      <c r="F257" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>452</v>
+      </c>
+      <c r="B258" t="s">
+        <v>453</v>
+      </c>
+      <c r="C258" s="11">
+        <v>18</v>
+      </c>
+      <c r="D258" t="s">
+        <v>619</v>
+      </c>
+      <c r="E258"/>
+      <c r="F258"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>454</v>
+      </c>
+      <c r="B259" t="s">
+        <v>455</v>
+      </c>
+      <c r="C259" s="11">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>619</v>
+      </c>
+      <c r="E259"/>
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>456</v>
+      </c>
+      <c r="B260" t="s">
+        <v>457</v>
+      </c>
+      <c r="C260" s="11">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>619</v>
+      </c>
+      <c r="E260"/>
+      <c r="F260"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>458</v>
+      </c>
+      <c r="B261" t="s">
+        <v>459</v>
+      </c>
+      <c r="C261" s="11">
+        <v>3</v>
+      </c>
+      <c r="D261" t="s">
+        <v>619</v>
+      </c>
+      <c r="E261"/>
+      <c r="F261"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>460</v>
+      </c>
+      <c r="B262" t="s">
+        <v>461</v>
+      </c>
+      <c r="C262" s="11">
+        <v>14</v>
+      </c>
+      <c r="D262" t="s">
+        <v>619</v>
+      </c>
+      <c r="E262"/>
+      <c r="F262"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>462</v>
+      </c>
+      <c r="B263" t="s">
+        <v>461</v>
+      </c>
+      <c r="C263" s="11">
+        <v>23</v>
+      </c>
+      <c r="D263" t="s">
+        <v>619</v>
+      </c>
+      <c r="E263"/>
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>463</v>
+      </c>
+      <c r="B264" t="s">
+        <v>464</v>
+      </c>
+      <c r="C264" s="11">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>619</v>
+      </c>
+      <c r="E264"/>
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>465</v>
+      </c>
+      <c r="B265" t="s">
+        <v>466</v>
+      </c>
+      <c r="C265" s="11">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>619</v>
+      </c>
+      <c r="E265"/>
+      <c r="F265"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>499</v>
+      </c>
+      <c r="B269" t="s">
+        <v>500</v>
+      </c>
+      <c r="C269" s="11">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>613</v>
+      </c>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269" s="9"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>501</v>
+      </c>
+      <c r="B271" t="s">
+        <v>502</v>
+      </c>
+      <c r="C271" s="11">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>614</v>
+      </c>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271" s="9"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>503</v>
+      </c>
+      <c r="B272" t="s">
+        <v>504</v>
+      </c>
+      <c r="C272" s="11">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>614</v>
+      </c>
+      <c r="E272"/>
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>505</v>
+      </c>
+      <c r="B273" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" s="11">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>614</v>
+      </c>
+      <c r="E273"/>
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>507</v>
+      </c>
+      <c r="B274" t="s">
+        <v>508</v>
+      </c>
+      <c r="C274" s="11">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D274" t="s">
+        <v>615</v>
+      </c>
+      <c r="E274"/>
+      <c r="F274"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>509</v>
+      </c>
+      <c r="B276" t="s">
+        <v>510</v>
+      </c>
+      <c r="C276" s="11">
+        <v>30</v>
+      </c>
+      <c r="D276" t="s">
+        <v>616</v>
+      </c>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276" s="9"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>511</v>
+      </c>
+      <c r="B277" t="s">
+        <v>512</v>
+      </c>
+      <c r="C277" s="11">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>616</v>
+      </c>
+      <c r="E277"/>
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>513</v>
+      </c>
+      <c r="B278" t="s">
+        <v>514</v>
+      </c>
+      <c r="C278" s="11">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>616</v>
+      </c>
+      <c r="E278"/>
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>515</v>
+      </c>
+      <c r="B279" t="s">
+        <v>516</v>
+      </c>
+      <c r="C279" s="11">
+        <v>67</v>
+      </c>
+      <c r="D279" t="s">
+        <v>616</v>
+      </c>
+      <c r="E279"/>
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>517</v>
+      </c>
+      <c r="B280" t="s">
+        <v>518</v>
+      </c>
+      <c r="C280" s="11">
+        <v>4</v>
+      </c>
+      <c r="D280" t="s">
+        <v>616</v>
+      </c>
+      <c r="E280"/>
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>519</v>
+      </c>
+      <c r="B281" t="s">
+        <v>520</v>
+      </c>
+      <c r="C281" s="11">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s">
+        <v>616</v>
+      </c>
+      <c r="E281"/>
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>521</v>
+      </c>
+      <c r="B282" t="s">
+        <v>522</v>
+      </c>
+      <c r="C282" s="11">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>616</v>
+      </c>
+      <c r="E282"/>
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>523</v>
+      </c>
+      <c r="B283" t="s">
+        <v>524</v>
+      </c>
+      <c r="C283" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D283" t="s">
+        <v>616</v>
+      </c>
+      <c r="E283"/>
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+      <c r="B284" t="s">
+        <v>526</v>
+      </c>
+      <c r="C284" s="11">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>616</v>
+      </c>
+      <c r="E284"/>
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>527</v>
+      </c>
+      <c r="B285" t="s">
+        <v>528</v>
+      </c>
+      <c r="C285" s="11">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>616</v>
+      </c>
+      <c r="E285"/>
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>529</v>
+      </c>
+      <c r="B286" t="s">
+        <v>530</v>
+      </c>
+      <c r="C286" s="11">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>616</v>
+      </c>
+      <c r="E286"/>
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>531</v>
+      </c>
+      <c r="B287" t="s">
+        <v>532</v>
+      </c>
+      <c r="C287" s="11">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>617</v>
+      </c>
+      <c r="E287"/>
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>533</v>
+      </c>
+      <c r="B288" t="s">
+        <v>124</v>
+      </c>
+      <c r="C288" s="11">
+        <v>29</v>
+      </c>
+      <c r="D288" t="s">
+        <v>617</v>
+      </c>
+      <c r="E288"/>
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>534</v>
+      </c>
+      <c r="B289" t="s">
+        <v>125</v>
+      </c>
+      <c r="C289" s="11">
+        <v>17</v>
+      </c>
+      <c r="D289" t="s">
+        <v>617</v>
+      </c>
+      <c r="E289"/>
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>535</v>
+      </c>
+      <c r="B290" t="s">
+        <v>536</v>
+      </c>
+      <c r="C290" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D290" t="s">
+        <v>617</v>
+      </c>
+      <c r="E290"/>
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>537</v>
+      </c>
+      <c r="B291" t="s">
+        <v>538</v>
+      </c>
+      <c r="C291" s="11">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>617</v>
+      </c>
+      <c r="E291"/>
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>539</v>
+      </c>
+      <c r="B292" t="s">
+        <v>540</v>
+      </c>
+      <c r="C292" s="11">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>617</v>
+      </c>
+      <c r="E292"/>
+      <c r="F292"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>541</v>
+      </c>
+      <c r="B294" t="s">
+        <v>542</v>
+      </c>
+      <c r="C294" s="11">
+        <v>28</v>
+      </c>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294" s="9"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>543</v>
+      </c>
+      <c r="B295" t="s">
+        <v>544</v>
+      </c>
+      <c r="C295" s="11">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E295"/>
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>545</v>
+      </c>
+      <c r="B296" t="s">
+        <v>546</v>
+      </c>
+      <c r="C296" s="11">
+        <v>1</v>
+      </c>
+      <c r="E296"/>
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>547</v>
+      </c>
+      <c r="B297" t="s">
+        <v>548</v>
+      </c>
+      <c r="C297" s="11">
+        <v>3</v>
+      </c>
+      <c r="E297"/>
+      <c r="F297"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300" s="11">
+        <v>1</v>
+      </c>
+      <c r="E300"/>
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" s="11">
+        <v>2</v>
+      </c>
+      <c r="E301"/>
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" s="11">
+        <v>28</v>
+      </c>
+      <c r="E302"/>
+      <c r="F302"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B304" t="s">
+        <v>420</v>
+      </c>
+      <c r="C304" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B305" t="s">
+        <v>422</v>
+      </c>
+      <c r="C305" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B306" t="s">
+        <v>424</v>
+      </c>
+      <c r="C306" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B307" t="s">
+        <v>426</v>
+      </c>
+      <c r="C307" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B308" t="s">
+        <v>428</v>
+      </c>
+      <c r="C308" s="11">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" t="e" vm="2">
-        <v>#VALUE!</v>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B309" t="s">
+        <v>430</v>
+      </c>
+      <c r="C309" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="10"/>
+      <c r="B310" t="s">
+        <v>431</v>
+      </c>
+      <c r="C310" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B311" t="s">
+        <v>433</v>
+      </c>
+      <c r="C311" s="11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{CE876507-9B7C-564E-B359-6ED3413B92F4}"/>
-    <hyperlink ref="H18" r:id="rId2" xr:uid="{BD467FBF-2E0F-084F-9405-2EA43A3401AB}"/>
-    <hyperlink ref="H17" r:id="rId3" xr:uid="{781EFB5D-65E1-5D48-B35F-42D7261F586B}"/>
-    <hyperlink ref="H16" r:id="rId4" xr:uid="{81D71EA9-16F4-C04D-8F25-E6FB71AAFC5C}"/>
-    <hyperlink ref="H14" r:id="rId5" xr:uid="{F0FAE1DF-FF7D-0648-B002-74A434BCC67F}"/>
-    <hyperlink ref="H13" r:id="rId6" xr:uid="{83ED10DD-6AC8-484A-B155-8D4DC00CE070}"/>
-    <hyperlink ref="H19" r:id="rId7" xr:uid="{2C31950A-0717-DA4F-9CEB-905802C9CDBC}"/>
-    <hyperlink ref="H22" r:id="rId8" xr:uid="{16693DBE-83F3-9841-ACAE-4C0D7D929DB3}"/>
-    <hyperlink ref="H23" r:id="rId9" xr:uid="{EC1C5360-3941-DB40-A532-FAAB949DDCEC}"/>
-    <hyperlink ref="H34" r:id="rId10" xr:uid="{0C1DF67D-7093-7F45-84C8-917306477800}"/>
-    <hyperlink ref="H30" r:id="rId11" xr:uid="{A8A6B72D-0ED1-874E-9AC8-C0688EB233C6}"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{CE876507-9B7C-564E-B359-6ED3413B92F4}"/>
+    <hyperlink ref="J13" r:id="rId2" xr:uid="{F0FAE1DF-FF7D-0648-B002-74A434BCC67F}"/>
+    <hyperlink ref="J16" r:id="rId3" xr:uid="{83ED10DD-6AC8-484A-B155-8D4DC00CE070}"/>
+    <hyperlink ref="J194" r:id="rId4" xr:uid="{16693DBE-83F3-9841-ACAE-4C0D7D929DB3}"/>
+    <hyperlink ref="J156" r:id="rId5" xr:uid="{EC1C5360-3941-DB40-A532-FAAB949DDCEC}"/>
+    <hyperlink ref="J210" r:id="rId6" xr:uid="{0C1DF67D-7093-7F45-84C8-917306477800}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{58C491DC-1DAE-1544-B5EE-D6611371BB47}"/>
+    <hyperlink ref="J62" r:id="rId8" xr:uid="{2C31950A-0717-DA4F-9CEB-905802C9CDBC}"/>
+    <hyperlink ref="J60" r:id="rId9" xr:uid="{81D71EA9-16F4-C04D-8F25-E6FB71AAFC5C}"/>
+    <hyperlink ref="J15" r:id="rId10" xr:uid="{6EA09AF9-E458-0E42-931C-C9A3B00B7458}"/>
+    <hyperlink ref="J202" r:id="rId11" xr:uid="{419A550E-BEAA-1841-8E69-A7033BF7C65C}"/>
+    <hyperlink ref="J201" r:id="rId12" xr:uid="{77EF395E-7E74-5E4B-90AC-1CFC96ED8494}"/>
+    <hyperlink ref="J198" r:id="rId13" xr:uid="{B02BA750-ACAB-1D4A-837F-54FFEABED42F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1507,307 +7534,307 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5">
         <v>2.2140000000000001E-5</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="3">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4">
         <v>2.6440000000000001E-7</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="4">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5">
         <v>2.2140000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" s="4">
         <v>2.9350000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3">
+        <v>31</v>
+      </c>
+      <c r="D37" s="4">
         <v>7.3870000000000001E-4</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="4">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5">
         <v>1.7090000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4">
         <v>7.3870000000000001E-4</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="4">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5">
         <v>3.925E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
         <v>-1.266E-3</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="4">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5">
         <v>1.7090000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="3">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4">
         <v>-1.266E-3</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="3">
+        <v>38</v>
+      </c>
+      <c r="D44" s="4">
         <v>1.005E-2</v>
       </c>
     </row>

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1CE83C-4F60-9446-8B3D-AE02C59F2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89412E78-34C5-E648-81E5-F6EBBD7B0579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26700" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="790">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -1967,9 +1967,6 @@
     <t>DIN125</t>
   </si>
   <si>
-    <t>DIN7985; DIN7380-1(ISK)</t>
-  </si>
-  <si>
     <t>DIN965; DIN14581 (Torx)</t>
   </si>
   <si>
@@ -2427,6 +2424,12 @@
   </si>
   <si>
     <t>Lochdurchmesser 4,0 mm</t>
+  </si>
+  <si>
+    <t>M2 habe ich M2,5 nicht</t>
+  </si>
+  <si>
+    <t>DIN7985; ISO7380-1(ISK)</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2599,6 +2602,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3031,7 +3037,7 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B225" sqref="A225:XFD237"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3206,7 +3212,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>2</v>
@@ -3235,13 +3241,13 @@
         <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3261,16 +3267,16 @@
         <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I15" t="s">
         <v>632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3290,7 +3296,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>0</v>
@@ -3319,16 +3325,16 @@
         <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I17" t="s">
         <v>632</v>
       </c>
       <c r="J17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3345,13 +3351,13 @@
         <v>297</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -3368,13 +3374,13 @@
         <v>297</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3391,13 +3397,13 @@
         <v>297</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3414,13 +3420,13 @@
         <v>297</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -3437,13 +3443,13 @@
         <v>297</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3451,7 +3457,7 @@
         <v>248</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C24" s="13">
         <v>13</v>
@@ -3460,13 +3466,13 @@
         <v>297</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3483,13 +3489,13 @@
         <v>298</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3506,13 +3512,13 @@
         <v>297</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3529,13 +3535,13 @@
         <v>298</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3552,13 +3558,13 @@
         <v>297</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3575,13 +3581,13 @@
         <v>297</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3598,13 +3604,13 @@
         <v>297</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3621,13 +3627,13 @@
         <v>297</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3644,13 +3650,13 @@
         <v>297</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3667,13 +3673,13 @@
         <v>297</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3693,10 +3699,10 @@
         <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3713,13 +3719,13 @@
         <v>298</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3739,10 +3745,10 @@
         <v>128</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3759,13 +3765,13 @@
         <v>298</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3782,13 +3788,13 @@
         <v>298</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3808,10 +3814,10 @@
         <v>92</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3828,13 +3834,13 @@
         <v>297</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3851,10 +3857,10 @@
         <v>297</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>680</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3871,13 +3877,13 @@
         <v>297</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G45" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>683</v>
-      </c>
       <c r="I45" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3892,17 +3898,17 @@
       <c r="B47" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="12">
         <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>285</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>669</v>
+        <v>716</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3919,10 +3925,10 @@
         <v>285</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3932,17 +3938,17 @@
       <c r="B49" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="12">
         <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>285</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>718</v>
+        <v>707</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3952,17 +3958,17 @@
       <c r="B50" t="s">
         <v>288</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="12">
         <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>285</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>719</v>
+        <v>708</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3979,7 +3985,7 @@
         <v>285</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>0</v>
@@ -3999,10 +4005,10 @@
         <v>285</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -4012,16 +4018,16 @@
       <c r="B53" t="s">
         <v>291</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="12">
         <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>285</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G53" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4032,17 +4038,17 @@
       <c r="B54" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="12">
         <v>26</v>
       </c>
       <c r="D54" t="s">
         <v>285</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>721</v>
+        <v>712</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -4052,17 +4058,17 @@
       <c r="B55" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="12">
         <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>285</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -4072,17 +4078,17 @@
       <c r="B56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="12">
         <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>285</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>723</v>
+        <v>714</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4099,10 +4105,10 @@
         <v>285</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4127,7 +4133,7 @@
         <v>101</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>635</v>
+        <v>789</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>65</v>
@@ -4176,7 +4182,7 @@
         <v>77</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>635</v>
+        <v>789</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>4</v>
@@ -4205,7 +4211,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4222,10 +4228,10 @@
         <v>304</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>684</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -4242,10 +4248,10 @@
         <v>301</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4262,10 +4268,10 @@
         <v>301</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G67" s="18" t="s">
         <v>688</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -4282,10 +4288,10 @@
         <v>304</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G68" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4302,10 +4308,10 @@
         <v>304</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G69" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -4322,10 +4328,10 @@
         <v>304</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G70" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4342,10 +4348,10 @@
         <v>304</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G71" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H71" t="s">
         <v>1</v>
@@ -4369,10 +4375,10 @@
         <v>304</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G72" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4389,10 +4395,10 @@
         <v>304</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G73" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4400,7 +4406,7 @@
         <v>175</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C74" s="13">
         <v>6</v>
@@ -4409,10 +4415,10 @@
         <v>304</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G74" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4429,10 +4435,10 @@
         <v>304</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G75" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4449,13 +4455,13 @@
         <v>301</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>303</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4475,7 +4481,7 @@
         <v>128</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4492,10 +4498,10 @@
         <v>301</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4512,10 +4518,10 @@
         <v>301</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4532,10 +4538,10 @@
         <v>301</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4552,10 +4558,10 @@
         <v>301</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4701,10 +4707,10 @@
         <v>301</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G98" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,10 +4727,10 @@
         <v>301</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G99" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4741,10 +4747,10 @@
         <v>301</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G100" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -4792,7 +4798,7 @@
         <v>307</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -4802,13 +4808,13 @@
       <c r="B106" t="s">
         <v>277</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="12">
         <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4819,14 +4825,14 @@
       <c r="B107" t="s">
         <v>278</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="12">
         <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>299</v>
       </c>
-      <c r="G107" t="s">
-        <v>725</v>
+      <c r="G107" s="18" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -4836,14 +4842,14 @@
       <c r="B108" t="s">
         <v>279</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="12">
         <v>2</v>
       </c>
       <c r="D108" t="s">
         <v>299</v>
       </c>
-      <c r="G108" t="s">
-        <v>726</v>
+      <c r="G108" s="18" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -4853,14 +4859,14 @@
       <c r="B109" t="s">
         <v>280</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="12">
         <v>2</v>
       </c>
       <c r="D109" t="s">
         <v>299</v>
       </c>
-      <c r="G109" t="s">
-        <v>681</v>
+      <c r="G109" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -4870,14 +4876,14 @@
       <c r="B110" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="12">
         <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>299</v>
       </c>
-      <c r="G110" t="s">
-        <v>727</v>
+      <c r="G110" s="18" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -4894,7 +4900,7 @@
         <v>300</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -4911,7 +4917,7 @@
         <v>300</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4922,20 +4928,20 @@
       <c r="B114" t="s">
         <v>309</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="12">
         <v>4</v>
       </c>
       <c r="D114" t="s">
         <v>326</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G114" t="s">
-        <v>737</v>
+      <c r="G114" s="18" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4945,17 +4951,17 @@
       <c r="B115" t="s">
         <v>311</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="12">
         <v>35</v>
       </c>
       <c r="D115" t="s">
         <v>326</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G115" t="s">
-        <v>738</v>
+        <v>732</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4965,17 +4971,17 @@
       <c r="B116" t="s">
         <v>313</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="12">
         <v>1</v>
       </c>
       <c r="D116" t="s">
         <v>326</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G116" t="s">
-        <v>739</v>
+        <v>735</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4985,17 +4991,17 @@
       <c r="B117" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="12">
         <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G117" t="s">
-        <v>740</v>
+        <v>733</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5005,20 +5011,20 @@
       <c r="B118" t="s">
         <v>317</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="12">
         <v>15</v>
       </c>
       <c r="D118" t="s">
         <v>327</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G118" t="s">
-        <v>743</v>
+      <c r="G118" s="18" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5035,13 +5041,13 @@
         <v>330</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>329</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5051,7 +5057,7 @@
       <c r="B121" t="s">
         <v>321</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="12">
         <v>2</v>
       </c>
       <c r="D121" t="s">
@@ -5060,8 +5066,8 @@
       <c r="F121" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G121" t="s">
-        <v>729</v>
+      <c r="G121" s="18" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5071,14 +5077,14 @@
       <c r="B122" t="s">
         <v>323</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="12">
         <v>1</v>
       </c>
       <c r="D122" t="s">
         <v>326</v>
       </c>
-      <c r="G122" t="s">
-        <v>730</v>
+      <c r="G122" s="18" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5088,14 +5094,14 @@
       <c r="B123" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="12">
         <v>3</v>
       </c>
       <c r="D123" t="s">
         <v>326</v>
       </c>
-      <c r="G123" t="s">
-        <v>731</v>
+      <c r="G123" s="18" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5218,7 +5224,7 @@
       <c r="B132" t="s">
         <v>482</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="12">
         <v>2</v>
       </c>
       <c r="D132" t="s">
@@ -5226,8 +5232,8 @@
       </c>
       <c r="E132"/>
       <c r="F132"/>
-      <c r="G132" t="s">
-        <v>744</v>
+      <c r="G132" s="18" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5237,7 +5243,7 @@
       <c r="B133" t="s">
         <v>484</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="12">
         <v>2</v>
       </c>
       <c r="D133" t="s">
@@ -5247,8 +5253,8 @@
       <c r="F133" t="s">
         <v>608</v>
       </c>
-      <c r="G133" t="s">
-        <v>721</v>
+      <c r="G133" s="18" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5258,18 +5264,18 @@
       <c r="B134" t="s">
         <v>492</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="12">
         <v>2</v>
       </c>
       <c r="D134" t="s">
         <v>610</v>
       </c>
       <c r="E134" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F134"/>
-      <c r="G134" t="s">
-        <v>750</v>
+      <c r="G134" s="18" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5279,18 +5285,18 @@
       <c r="B135" t="s">
         <v>494</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="12">
         <v>8</v>
       </c>
       <c r="D135" t="s">
         <v>610</v>
       </c>
       <c r="E135" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F135"/>
-      <c r="G135" t="s">
-        <v>751</v>
+      <c r="G135" s="18" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5309,7 +5315,7 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5319,18 +5325,18 @@
       <c r="B137" t="s">
         <v>488</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="12">
         <v>12</v>
       </c>
       <c r="D137" t="s">
         <v>610</v>
       </c>
       <c r="E137" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F137"/>
-      <c r="G137" t="s">
-        <v>749</v>
+      <c r="G137" s="18" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5340,18 +5346,18 @@
       <c r="B138" t="s">
         <v>490</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="12">
         <v>1</v>
       </c>
       <c r="D138" t="s">
         <v>610</v>
       </c>
       <c r="E138" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F138"/>
-      <c r="G138" t="s">
-        <v>669</v>
+      <c r="G138" s="18" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5372,7 +5378,7 @@
         <v>612</v>
       </c>
       <c r="G139" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5398,14 +5404,14 @@
       <c r="B143" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="12">
         <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>625</v>
       </c>
-      <c r="G143" t="s">
-        <v>752</v>
+      <c r="G143" s="18" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5422,7 +5428,7 @@
         <v>626</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -5439,7 +5445,7 @@
         <v>627</v>
       </c>
       <c r="G145" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -5456,10 +5462,10 @@
         <v>631</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -5469,7 +5475,7 @@
       <c r="B147" t="s">
         <v>382</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="12">
         <v>13</v>
       </c>
       <c r="D147" t="s">
@@ -5478,8 +5484,8 @@
       <c r="E147" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G147" t="s">
-        <v>758</v>
+      <c r="G147" s="18" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -5489,7 +5495,7 @@
       <c r="B148" t="s">
         <v>384</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="12">
         <v>6</v>
       </c>
       <c r="D148" t="s">
@@ -5497,6 +5503,9 @@
       </c>
       <c r="F148" s="1" t="s">
         <v>628</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -5523,17 +5532,17 @@
       <c r="B150" t="s">
         <v>388</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="12">
         <v>9</v>
       </c>
       <c r="D150" t="s">
         <v>631</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G150" t="s">
-        <v>760</v>
+        <v>644</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -5543,17 +5552,17 @@
       <c r="B151" t="s">
         <v>390</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="12">
         <v>9</v>
       </c>
       <c r="D151" t="s">
         <v>631</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G151" t="s">
-        <v>760</v>
+        <v>645</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -5563,17 +5572,17 @@
       <c r="B152" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="12">
         <v>2</v>
       </c>
       <c r="D152" t="s">
         <v>631</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G152" t="s">
-        <v>761</v>
+        <v>758</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -5583,14 +5592,14 @@
       <c r="B153" t="s">
         <v>394</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="12">
         <v>12</v>
       </c>
       <c r="D153" t="s">
         <v>625</v>
       </c>
-      <c r="G153" t="s">
-        <v>752</v>
+      <c r="G153" s="18" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -5600,14 +5609,14 @@
       <c r="B154" t="s">
         <v>396</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="12">
         <v>22</v>
       </c>
       <c r="D154" t="s">
         <v>625</v>
       </c>
-      <c r="G154" t="s">
-        <v>760</v>
+      <c r="G154" s="18" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -5617,14 +5626,14 @@
       <c r="B155" t="s">
         <v>398</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="12">
         <v>6</v>
       </c>
       <c r="D155" t="s">
         <v>625</v>
       </c>
-      <c r="G155" t="s">
-        <v>760</v>
+      <c r="G155" s="18" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -5643,7 +5652,7 @@
       <c r="F156" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="18" t="s">
         <v>113</v>
       </c>
       <c r="J156" s="7" t="s">
@@ -5664,7 +5673,7 @@
         <v>629</v>
       </c>
       <c r="G157" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -5674,17 +5683,17 @@
       <c r="B158" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="12">
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G158" s="18" t="s">
         <v>762</v>
-      </c>
-      <c r="G158" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -5694,14 +5703,14 @@
       <c r="B159" t="s">
         <v>404</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="12">
         <v>8</v>
       </c>
       <c r="D159" t="s">
+        <v>763</v>
+      </c>
+      <c r="G159" s="18" t="s">
         <v>764</v>
-      </c>
-      <c r="G159" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -5711,7 +5720,7 @@
       <c r="B160" t="s">
         <v>406</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="12">
         <v>10</v>
       </c>
       <c r="D160" t="s">
@@ -5720,88 +5729,106 @@
       <c r="F160" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>407</v>
       </c>
       <c r="B161" t="s">
         <v>408</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C161" s="12">
         <v>34</v>
       </c>
       <c r="D161" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="18" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>409</v>
       </c>
       <c r="B162" t="s">
         <v>410</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="12">
         <v>32</v>
       </c>
       <c r="D162" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>411</v>
       </c>
       <c r="B163" t="s">
         <v>412</v>
       </c>
-      <c r="C163" s="11">
+      <c r="C163" s="12">
         <v>14</v>
       </c>
       <c r="D163" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>413</v>
       </c>
       <c r="B164" t="s">
         <v>414</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="12">
         <v>9</v>
       </c>
       <c r="D164" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="18" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>415</v>
       </c>
       <c r="B165" t="s">
         <v>416</v>
       </c>
-      <c r="C165" s="11">
+      <c r="C165" s="12">
         <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>764</v>
-      </c>
-      <c r="G165" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+      <c r="G165" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="H165" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>417</v>
       </c>
       <c r="B166" t="s">
         <v>418</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="12">
         <v>14</v>
       </c>
       <c r="D166" t="s">
@@ -5810,32 +5837,32 @@
       <c r="E166" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G166" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>549</v>
       </c>
       <c r="B168" t="s">
         <v>550</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="12">
         <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E168" t="s">
         <v>74</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="9" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="24" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>551</v>
       </c>
@@ -5846,14 +5873,14 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E169" t="s">
         <v>74</v>
       </c>
       <c r="F169"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>553</v>
       </c>
@@ -5864,17 +5891,17 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
+        <v>768</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>555</v>
       </c>
@@ -5885,17 +5912,17 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>557</v>
       </c>
@@ -5908,7 +5935,7 @@
       <c r="E172"/>
       <c r="F172"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>559</v>
       </c>
@@ -5921,7 +5948,7 @@
       <c r="E173"/>
       <c r="F173"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>561</v>
       </c>
@@ -5932,17 +5959,17 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G174" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>563</v>
       </c>
@@ -5953,17 +5980,17 @@
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E175"/>
       <c r="F175" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G175" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>565</v>
       </c>
@@ -5974,16 +6001,16 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E176" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F176" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G176" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5997,16 +6024,16 @@
         <v>26</v>
       </c>
       <c r="D177" t="s">
+        <v>778</v>
+      </c>
+      <c r="E177" t="s">
         <v>779</v>
       </c>
-      <c r="E177" t="s">
-        <v>780</v>
-      </c>
       <c r="F177" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G177" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6089,7 +6116,7 @@
         <v>634</v>
       </c>
       <c r="G183" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6099,7 +6126,7 @@
       <c r="B184" t="s">
         <v>582</v>
       </c>
-      <c r="C184" s="11">
+      <c r="C184" s="12">
         <v>26</v>
       </c>
       <c r="E184"/>
@@ -6107,7 +6134,7 @@
         <v>634</v>
       </c>
       <c r="G184" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6117,15 +6144,15 @@
       <c r="B185" t="s">
         <v>584</v>
       </c>
-      <c r="C185" s="11">
+      <c r="C185" s="12">
         <v>14</v>
       </c>
       <c r="E185"/>
       <c r="F185" t="s">
         <v>634</v>
       </c>
-      <c r="G185" t="s">
-        <v>758</v>
+      <c r="G185" s="18" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6133,17 +6160,17 @@
         <v>585</v>
       </c>
       <c r="B186" t="s">
-        <v>772</v>
-      </c>
-      <c r="C186" s="11">
+        <v>771</v>
+      </c>
+      <c r="C186" s="12">
         <v>23</v>
       </c>
       <c r="E186"/>
       <c r="F186" t="s">
         <v>634</v>
       </c>
-      <c r="G186" t="s">
-        <v>763</v>
+      <c r="G186" s="18" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6153,15 +6180,15 @@
       <c r="B187" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="11">
+      <c r="C187" s="12">
         <v>4</v>
       </c>
       <c r="E187"/>
       <c r="F187" t="s">
         <v>634</v>
       </c>
-      <c r="G187" t="s">
-        <v>771</v>
+      <c r="G187" s="18" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6256,7 +6283,7 @@
         <v>3</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>634</v>
@@ -6265,7 +6292,7 @@
         <v>115</v>
       </c>
       <c r="I194" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J194" s="7" t="s">
         <v>112</v>
@@ -6282,10 +6309,10 @@
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G197" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -6299,10 +6326,10 @@
         <v>116</v>
       </c>
       <c r="D198" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G198" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I198" t="s">
         <v>123</v>
@@ -6322,7 +6349,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -6336,13 +6363,13 @@
         <v>74</v>
       </c>
       <c r="D200" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G200" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -6356,13 +6383,13 @@
         <v>192</v>
       </c>
       <c r="D201" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G201" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I201" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>122</v>
@@ -6379,10 +6406,10 @@
         <v>231</v>
       </c>
       <c r="D202" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G202" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I202" t="s">
         <v>119</v>
@@ -6402,13 +6429,13 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G203" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -6422,10 +6449,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G204" t="s">
-        <v>784</v>
+        <v>727</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -6439,10 +6466,10 @@
         <v>4</v>
       </c>
       <c r="D205" t="s">
+        <v>782</v>
+      </c>
+      <c r="G205" t="s">
         <v>783</v>
-      </c>
-      <c r="G205" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.2">

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89412E78-34C5-E648-81E5-F6EBBD7B0579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F347C65-4561-7F4E-AF9A-FA8FCA81C346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26700" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="3" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gravurmaterial" sheetId="4" r:id="rId4"/>
+    <sheet name="Schraubenquellen" sheetId="5" r:id="rId5"/>
+    <sheet name="Aufbau Panels" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="843">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -2430,13 +2434,172 @@
   </si>
   <si>
     <t>DIN7985; ISO7380-1(ISK)</t>
+  </si>
+  <si>
+    <t>Test Lasergravurmaterialien</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Trotec</t>
+  </si>
+  <si>
+    <t>Innograv</t>
+  </si>
+  <si>
+    <t>LaserAcryl 2</t>
+  </si>
+  <si>
+    <t>LaseracrylEco</t>
+  </si>
+  <si>
+    <t>LaserSatin</t>
+  </si>
+  <si>
+    <t>Bestellnummer</t>
+  </si>
+  <si>
+    <t>LZE-2901</t>
+  </si>
+  <si>
+    <t>LZE-901</t>
+  </si>
+  <si>
+    <t>LZS-901</t>
+  </si>
+  <si>
+    <t>Trolase Textures</t>
+  </si>
+  <si>
+    <t>LTX422-206</t>
+  </si>
+  <si>
+    <t>L402-206</t>
+  </si>
+  <si>
+    <t>TroLase schwarz/weiß</t>
+  </si>
+  <si>
+    <t>LT402-202</t>
+  </si>
+  <si>
+    <t>TroLase Thins schwarz/weiß</t>
+  </si>
+  <si>
+    <t>Schrauben</t>
+  </si>
+  <si>
+    <t>Normreich</t>
+  </si>
+  <si>
+    <t>Schraube-Mutter</t>
+  </si>
+  <si>
+    <t>Schraubenbude</t>
+  </si>
+  <si>
+    <t>Schraubenking</t>
+  </si>
+  <si>
+    <t>Frantec</t>
+  </si>
+  <si>
+    <t>ISK M6 niedriger Kopf!</t>
+  </si>
+  <si>
+    <t>Aufbau Panels</t>
+  </si>
+  <si>
+    <t>Legend Plate</t>
+  </si>
+  <si>
+    <t>Light Plate</t>
+  </si>
+  <si>
+    <t>Backplate</t>
+  </si>
+  <si>
+    <t>1,6 mm</t>
+  </si>
+  <si>
+    <t>4,8 mm</t>
+  </si>
+  <si>
+    <t>3,2 mm</t>
+  </si>
+  <si>
+    <t>MDF lackieren</t>
+  </si>
+  <si>
+    <t>Kanten brechen</t>
+  </si>
+  <si>
+    <t>Isoliergrund, Isofiller; Kanten 3x; Grundierfolie 1x oder gar nicht</t>
+  </si>
+  <si>
+    <t>Scheifen von 240er bis 400er Körnung</t>
+  </si>
+  <si>
+    <t>Schaumstoffrolle verwenden</t>
+  </si>
+  <si>
+    <t>Lackieren 3x</t>
+  </si>
+  <si>
+    <t>Schleifen 3x</t>
+  </si>
+  <si>
+    <t>Klarlack 2x</t>
+  </si>
+  <si>
+    <t>Polieren</t>
+  </si>
+  <si>
+    <t>grau RAL 7037 oder 7046</t>
+  </si>
+  <si>
+    <t>Schraubenluchs.de</t>
+  </si>
+  <si>
+    <t>gut, hinterleuchtbar, matt</t>
+  </si>
+  <si>
+    <t>gut, hinterleuchtbar, matt, keicht funkelnd</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>12,30 € + MwSt.</t>
+  </si>
+  <si>
+    <t>11,40 € + MwSt.</t>
+  </si>
+  <si>
+    <t>10,25 € + MwSt.</t>
+  </si>
+  <si>
+    <t>12,85 € + MwSt.</t>
+  </si>
+  <si>
+    <t>11,25 € + MwSt.</t>
+  </si>
+  <si>
+    <t>12,90 € + MwSt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2509,6 +2672,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2564,7 +2735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2575,7 +2746,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2599,13 +2769,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2738,9 +2905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2778,7 +2945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2884,7 +3051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3026,7 +3193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3036,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
   <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="C184" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3118,13 +3285,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>172</v>
       </c>
       <c r="D9" t="s">
@@ -3133,7 +3300,7 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>78</v>
       </c>
       <c r="H9" t="s">
@@ -3144,13 +3311,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>313</v>
       </c>
       <c r="D10" t="s">
@@ -3159,7 +3326,7 @@
       <c r="E10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>106</v>
       </c>
       <c r="H10" t="s">
@@ -3170,13 +3337,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>52</v>
       </c>
       <c r="D11" t="s">
@@ -3185,7 +3352,7 @@
       <c r="E11" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>107</v>
       </c>
       <c r="H11" t="s">
@@ -3196,13 +3363,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>120</v>
       </c>
       <c r="D13" t="s">
@@ -3214,7 +3381,7 @@
       <c r="F13" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I13" t="s">
@@ -3225,13 +3392,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>16</v>
       </c>
       <c r="D14" t="s">
@@ -3243,7 +3410,7 @@
       <c r="F14" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I14" t="s">
@@ -3251,13 +3418,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B15" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -3269,7 +3436,7 @@
       <c r="F15" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>639</v>
       </c>
       <c r="I15" t="s">
@@ -3280,13 +3447,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>133</v>
       </c>
       <c r="D16" t="s">
@@ -3298,7 +3465,7 @@
       <c r="F16" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
       <c r="I16" t="s">
@@ -3309,13 +3476,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>4</v>
       </c>
       <c r="D17" t="s">
@@ -3327,7 +3494,7 @@
       <c r="F17" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>640</v>
       </c>
       <c r="I17" t="s">
@@ -3338,13 +3505,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" t="s">
@@ -3356,18 +3523,18 @@
       <c r="F19" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>52</v>
       </c>
       <c r="D20" t="s">
@@ -3379,18 +3546,18 @@
       <c r="F20" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>212</v>
       </c>
       <c r="B21" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>8</v>
       </c>
       <c r="D21" t="s">
@@ -3402,18 +3569,18 @@
       <c r="F21" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>28</v>
       </c>
       <c r="D22" t="s">
@@ -3425,18 +3592,18 @@
       <c r="F22" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
       <c r="D23" t="s">
@@ -3448,18 +3615,18 @@
       <c r="F23" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>13</v>
       </c>
       <c r="D24" t="s">
@@ -3471,18 +3638,18 @@
       <c r="F24" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>4</v>
       </c>
       <c r="D25" t="s">
@@ -3494,18 +3661,18 @@
       <c r="F25" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B27" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -3517,18 +3684,18 @@
       <c r="F27" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
       <c r="D28" t="s">
@@ -3540,18 +3707,18 @@
       <c r="F28" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>8</v>
       </c>
       <c r="D29" t="s">
@@ -3563,18 +3730,18 @@
       <c r="F29" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>216</v>
       </c>
       <c r="B30" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>18</v>
       </c>
       <c r="D30" t="s">
@@ -3586,18 +3753,18 @@
       <c r="F30" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B31" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>11</v>
       </c>
       <c r="D31" t="s">
@@ -3609,18 +3776,18 @@
       <c r="F31" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>235</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>4</v>
       </c>
       <c r="D32" t="s">
@@ -3632,18 +3799,18 @@
       <c r="F32" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>224</v>
       </c>
       <c r="B33" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
       <c r="D33" t="s">
@@ -3655,18 +3822,18 @@
       <c r="F33" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B35" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>14</v>
       </c>
       <c r="D35" t="s">
@@ -3678,18 +3845,18 @@
       <c r="F35" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>7</v>
       </c>
       <c r="D36" t="s">
@@ -3701,18 +3868,18 @@
       <c r="F36" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>13</v>
       </c>
       <c r="D37" t="s">
@@ -3724,18 +3891,18 @@
       <c r="F37" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="16" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -3747,18 +3914,18 @@
       <c r="F38" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>11</v>
       </c>
       <c r="D39" t="s">
@@ -3770,18 +3937,18 @@
       <c r="F39" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>16</v>
       </c>
       <c r="D40" t="s">
@@ -3793,18 +3960,18 @@
       <c r="F40" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B41" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>2</v>
       </c>
       <c r="D41" t="s">
@@ -3821,13 +3988,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B42" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -3844,13 +4011,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B44" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>4</v>
       </c>
       <c r="D44" t="s">
@@ -3859,18 +4026,18 @@
       <c r="E44" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B45" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1</v>
       </c>
       <c r="D45" t="s">
@@ -3879,7 +4046,7 @@
       <c r="E45" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
         <v>682</v>
       </c>
       <c r="I45" t="s">
@@ -3887,18 +4054,17 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="13"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B47" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>6</v>
       </c>
       <c r="D47" t="s">
@@ -3907,18 +4073,18 @@
       <c r="F47" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="17" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B48" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>4</v>
       </c>
       <c r="D48" t="s">
@@ -3927,18 +4093,18 @@
       <c r="F48" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B49" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>10</v>
       </c>
       <c r="D49" t="s">
@@ -3947,18 +4113,18 @@
       <c r="F49" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>288</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>6</v>
       </c>
       <c r="D50" t="s">
@@ -3967,18 +4133,18 @@
       <c r="F50" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>6</v>
       </c>
       <c r="D51" t="s">
@@ -3987,18 +4153,18 @@
       <c r="F51" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B52" t="s">
         <v>290</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>2</v>
       </c>
       <c r="D52" t="s">
@@ -4007,18 +4173,18 @@
       <c r="F52" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B53" t="s">
         <v>291</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>2</v>
       </c>
       <c r="D53" t="s">
@@ -4027,18 +4193,18 @@
       <c r="F53" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>272</v>
       </c>
       <c r="B54" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>26</v>
       </c>
       <c r="D54" t="s">
@@ -4047,18 +4213,18 @@
       <c r="F54" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="17" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B55" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>6</v>
       </c>
       <c r="D55" t="s">
@@ -4067,18 +4233,18 @@
       <c r="F55" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="17" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>12</v>
       </c>
       <c r="D56" t="s">
@@ -4087,18 +4253,18 @@
       <c r="F56" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>275</v>
       </c>
       <c r="B57" t="s">
         <v>295</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>2</v>
       </c>
       <c r="D57" t="s">
@@ -4107,23 +4273,22 @@
       <c r="F57" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="13"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>4</v>
       </c>
       <c r="D60" t="s">
@@ -4135,7 +4300,7 @@
       <c r="F60" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="17" t="s">
         <v>65</v>
       </c>
       <c r="I60" t="s">
@@ -4146,13 +4311,13 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>78</v>
       </c>
       <c r="D61" t="s">
@@ -4161,18 +4326,18 @@
       <c r="E61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>127</v>
       </c>
       <c r="D62" t="s">
@@ -4184,7 +4349,7 @@
       <c r="F62" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="17" t="s">
         <v>4</v>
       </c>
       <c r="I62" t="s">
@@ -4195,13 +4360,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>24</v>
       </c>
       <c r="D63" t="s">
@@ -4210,18 +4375,18 @@
       <c r="E63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="16" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="12">
         <v>90</v>
       </c>
       <c r="D64" t="s">
@@ -4230,18 +4395,18 @@
       <c r="E64" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="16" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B66" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>26</v>
       </c>
       <c r="D66" t="s">
@@ -4250,18 +4415,18 @@
       <c r="E66" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B67" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>2</v>
       </c>
       <c r="D67" t="s">
@@ -4270,18 +4435,18 @@
       <c r="E67" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="17" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>4</v>
       </c>
       <c r="D68" t="s">
@@ -4295,13 +4460,13 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>4</v>
       </c>
       <c r="D69" t="s">
@@ -4315,13 +4480,13 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="12">
         <v>70</v>
       </c>
       <c r="D70" t="s">
@@ -4335,13 +4500,13 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="18">
         <v>107</v>
       </c>
       <c r="D71" t="s">
@@ -4362,13 +4527,13 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="12">
         <v>2</v>
       </c>
       <c r="D72" t="s">
@@ -4382,13 +4547,13 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <v>25</v>
       </c>
       <c r="D73" t="s">
@@ -4402,13 +4567,13 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="12">
         <v>6</v>
       </c>
       <c r="D74" t="s">
@@ -4422,13 +4587,13 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <v>5</v>
       </c>
       <c r="D75" t="s">
@@ -4442,13 +4607,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B77" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>40</v>
       </c>
       <c r="D77" t="s">
@@ -4460,18 +4625,18 @@
       <c r="F77" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="17" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B78" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11">
         <v>30</v>
       </c>
       <c r="D78" t="s">
@@ -4480,18 +4645,18 @@
       <c r="E78" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="17" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B80" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>20</v>
       </c>
       <c r="D80" t="s">
@@ -4500,18 +4665,18 @@
       <c r="E80" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>16</v>
       </c>
       <c r="D81" t="s">
@@ -4520,18 +4685,18 @@
       <c r="E81" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="17" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B82" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <v>8</v>
       </c>
       <c r="D82" t="s">
@@ -4540,18 +4705,18 @@
       <c r="E82" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="17" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B85" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="20">
         <v>1</v>
       </c>
       <c r="D85" t="s">
@@ -4560,18 +4725,18 @@
       <c r="E85" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="19" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="10">
         <v>4</v>
       </c>
       <c r="D87" t="s">
@@ -4579,13 +4744,13 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="10">
         <v>5</v>
       </c>
       <c r="D89" t="s">
@@ -4593,13 +4758,13 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="10">
         <v>2</v>
       </c>
       <c r="D90" t="s">
@@ -4607,13 +4772,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>27</v>
       </c>
       <c r="D91" t="s">
@@ -4621,13 +4786,13 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <v>2</v>
       </c>
       <c r="D92" t="s">
@@ -4635,13 +4800,13 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <v>11</v>
       </c>
       <c r="D93" t="s">
@@ -4652,13 +4817,13 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <v>22</v>
       </c>
       <c r="D94" t="s">
@@ -4666,13 +4831,13 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="10">
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -4680,13 +4845,13 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>8</v>
       </c>
       <c r="D96" t="s">
@@ -4694,13 +4859,13 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B98" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>2</v>
       </c>
       <c r="D98" t="s">
@@ -4714,13 +4879,13 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>10</v>
       </c>
       <c r="D99" t="s">
@@ -4734,13 +4899,13 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>184</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>2</v>
       </c>
       <c r="D100" t="s">
@@ -4754,13 +4919,13 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B102" t="s">
         <v>190</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>208</v>
       </c>
       <c r="D102" t="s">
@@ -4768,13 +4933,13 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B103" t="s">
         <v>192</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>19</v>
       </c>
       <c r="D103" t="s">
@@ -4782,13 +4947,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>253</v>
       </c>
       <c r="B105" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="11">
         <v>8</v>
       </c>
       <c r="D105" t="s">
@@ -4797,138 +4962,138 @@
       <c r="F105" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>254</v>
       </c>
       <c r="B106" t="s">
         <v>277</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="11">
         <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>299</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="G106" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B107" t="s">
         <v>278</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="11">
         <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>299</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G107" s="17" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>256</v>
       </c>
       <c r="B108" t="s">
         <v>279</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="11">
         <v>2</v>
       </c>
       <c r="D108" t="s">
         <v>299</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" s="17" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>257</v>
       </c>
       <c r="B109" t="s">
         <v>280</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="11">
         <v>2</v>
       </c>
       <c r="D109" t="s">
         <v>299</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G109" s="17" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>258</v>
       </c>
       <c r="B110" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>10</v>
       </c>
       <c r="D110" t="s">
         <v>299</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G110" s="17" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <v>10</v>
       </c>
       <c r="D111" t="s">
         <v>300</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="16" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>2</v>
       </c>
       <c r="D112" t="s">
         <v>300</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="16" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>308</v>
       </c>
       <c r="B114" t="s">
         <v>309</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="11">
         <v>4</v>
       </c>
       <c r="D114" t="s">
@@ -4940,18 +5105,18 @@
       <c r="F114" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="17" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>310</v>
       </c>
       <c r="B115" t="s">
         <v>311</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="11">
         <v>35</v>
       </c>
       <c r="D115" t="s">
@@ -4960,18 +5125,18 @@
       <c r="E115" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G115" s="18" t="s">
+      <c r="G115" s="17" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>312</v>
       </c>
       <c r="B116" t="s">
         <v>313</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="11">
         <v>1</v>
       </c>
       <c r="D116" t="s">
@@ -4980,18 +5145,18 @@
       <c r="E116" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="17" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>314</v>
       </c>
       <c r="B117" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="11">
         <v>4</v>
       </c>
       <c r="D117" t="s">
@@ -5000,18 +5165,18 @@
       <c r="E117" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G117" s="18" t="s">
+      <c r="G117" s="17" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B118" t="s">
         <v>317</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="11">
         <v>15</v>
       </c>
       <c r="D118" t="s">
@@ -5023,18 +5188,18 @@
       <c r="F118" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="17" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>16</v>
       </c>
       <c r="D119" t="s">
@@ -5046,18 +5211,18 @@
       <c r="F119" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="16" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>320</v>
       </c>
       <c r="B121" t="s">
         <v>321</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="11">
         <v>2</v>
       </c>
       <c r="D121" t="s">
@@ -5066,41 +5231,41 @@
       <c r="F121" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G121" s="17" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>322</v>
       </c>
       <c r="B122" t="s">
         <v>323</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="11">
         <v>1</v>
       </c>
       <c r="D122" t="s">
         <v>326</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="17" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>324</v>
       </c>
       <c r="B123" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="11">
         <v>3</v>
       </c>
       <c r="D123" t="s">
         <v>326</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="17" t="s">
         <v>730</v>
       </c>
     </row>
@@ -5108,10 +5273,10 @@
       <c r="A125" t="s">
         <v>467</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="10">
         <v>4</v>
       </c>
       <c r="D125" t="s">
@@ -5119,16 +5284,16 @@
       </c>
       <c r="E125"/>
       <c r="F125"/>
-      <c r="G125" s="9"/>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>469</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="10">
         <v>2</v>
       </c>
       <c r="D126" t="s">
@@ -5141,10 +5306,10 @@
       <c r="A127" t="s">
         <v>471</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="10">
         <v>2</v>
       </c>
       <c r="D127" t="s">
@@ -5157,10 +5322,10 @@
       <c r="A128" t="s">
         <v>473</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="10">
         <v>9</v>
       </c>
       <c r="D128" t="s">
@@ -5173,10 +5338,10 @@
       <c r="A129" t="s">
         <v>475</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="10">
         <v>1</v>
       </c>
       <c r="D129" t="s">
@@ -5189,10 +5354,10 @@
       <c r="A130" t="s">
         <v>477</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="10">
         <v>4</v>
       </c>
       <c r="D130" t="s">
@@ -5205,10 +5370,10 @@
       <c r="A131" t="s">
         <v>479</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="10">
         <v>4</v>
       </c>
       <c r="D131" t="s">
@@ -5224,7 +5389,7 @@
       <c r="B132" t="s">
         <v>482</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="11">
         <v>2</v>
       </c>
       <c r="D132" t="s">
@@ -5232,7 +5397,7 @@
       </c>
       <c r="E132"/>
       <c r="F132"/>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="17" t="s">
         <v>743</v>
       </c>
     </row>
@@ -5243,17 +5408,17 @@
       <c r="B133" t="s">
         <v>484</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="11">
         <v>2</v>
       </c>
       <c r="D133" t="s">
         <v>610</v>
       </c>
-      <c r="E133" s="15"/>
+      <c r="E133" s="14"/>
       <c r="F133" t="s">
         <v>608</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="17" t="s">
         <v>720</v>
       </c>
     </row>
@@ -5264,7 +5429,7 @@
       <c r="B134" t="s">
         <v>492</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="11">
         <v>2</v>
       </c>
       <c r="D134" t="s">
@@ -5274,7 +5439,7 @@
         <v>747</v>
       </c>
       <c r="F134"/>
-      <c r="G134" s="18" t="s">
+      <c r="G134" s="17" t="s">
         <v>749</v>
       </c>
     </row>
@@ -5285,7 +5450,7 @@
       <c r="B135" t="s">
         <v>494</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="11">
         <v>8</v>
       </c>
       <c r="D135" t="s">
@@ -5295,7 +5460,7 @@
         <v>683</v>
       </c>
       <c r="F135"/>
-      <c r="G135" s="18" t="s">
+      <c r="G135" s="17" t="s">
         <v>750</v>
       </c>
     </row>
@@ -5306,7 +5471,7 @@
       <c r="B136" t="s">
         <v>486</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="12">
         <v>14</v>
       </c>
       <c r="D136" t="s">
@@ -5325,7 +5490,7 @@
       <c r="B137" t="s">
         <v>488</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="11">
         <v>12</v>
       </c>
       <c r="D137" t="s">
@@ -5335,7 +5500,7 @@
         <v>746</v>
       </c>
       <c r="F137"/>
-      <c r="G137" s="18" t="s">
+      <c r="G137" s="17" t="s">
         <v>748</v>
       </c>
     </row>
@@ -5346,7 +5511,7 @@
       <c r="B138" t="s">
         <v>490</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="11">
         <v>1</v>
       </c>
       <c r="D138" t="s">
@@ -5356,7 +5521,7 @@
         <v>655</v>
       </c>
       <c r="F138"/>
-      <c r="G138" s="18" t="s">
+      <c r="G138" s="17" t="s">
         <v>668</v>
       </c>
     </row>
@@ -5367,14 +5532,14 @@
       <c r="B139" t="s">
         <v>496</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="12">
         <v>4</v>
       </c>
       <c r="D139" t="s">
         <v>611</v>
       </c>
       <c r="E139"/>
-      <c r="F139" s="16" t="s">
+      <c r="F139" s="15" t="s">
         <v>612</v>
       </c>
       <c r="G139" t="s">
@@ -5385,10 +5550,10 @@
       <c r="A140" t="s">
         <v>497</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>20</v>
       </c>
       <c r="D140" t="s">
@@ -5398,47 +5563,47 @@
       <c r="F140"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>373</v>
       </c>
       <c r="B143" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="11">
         <v>1</v>
       </c>
       <c r="D143" t="s">
         <v>625</v>
       </c>
-      <c r="G143" s="18" t="s">
+      <c r="G143" s="17" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>375</v>
       </c>
       <c r="B144" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="10">
         <v>2</v>
       </c>
       <c r="D144" t="s">
         <v>626</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G144" s="19" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="9" t="s">
         <v>377</v>
       </c>
       <c r="B145" t="s">
         <v>378</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="10">
         <v>26</v>
       </c>
       <c r="D145" t="s">
@@ -5449,13 +5614,13 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>379</v>
       </c>
       <c r="B146" t="s">
         <v>380</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>111</v>
       </c>
       <c r="D146" t="s">
@@ -5464,18 +5629,18 @@
       <c r="E146" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="G146" s="18" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>381</v>
       </c>
       <c r="B147" t="s">
         <v>382</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="11">
         <v>13</v>
       </c>
       <c r="D147" t="s">
@@ -5484,18 +5649,18 @@
       <c r="E147" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G147" s="18" t="s">
+      <c r="G147" s="17" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="9" t="s">
         <v>383</v>
       </c>
       <c r="B148" t="s">
         <v>384</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="11">
         <v>6</v>
       </c>
       <c r="D148" t="s">
@@ -5504,18 +5669,18 @@
       <c r="F148" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G148" s="18" t="s">
+      <c r="G148" s="17" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="9" t="s">
         <v>385</v>
       </c>
       <c r="B149" t="s">
         <v>386</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="10">
         <v>5</v>
       </c>
       <c r="D149" t="s">
@@ -5526,13 +5691,13 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="9" t="s">
         <v>387</v>
       </c>
       <c r="B150" t="s">
         <v>388</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="11">
         <v>9</v>
       </c>
       <c r="D150" t="s">
@@ -5541,18 +5706,18 @@
       <c r="E150" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G150" s="18" t="s">
+      <c r="G150" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="9" t="s">
         <v>389</v>
       </c>
       <c r="B151" t="s">
         <v>390</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="11">
         <v>9</v>
       </c>
       <c r="D151" t="s">
@@ -5561,18 +5726,18 @@
       <c r="E151" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G151" s="18" t="s">
+      <c r="G151" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>391</v>
       </c>
       <c r="B152" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="11">
         <v>2</v>
       </c>
       <c r="D152" t="s">
@@ -5581,69 +5746,69 @@
       <c r="E152" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G152" s="18" t="s">
+      <c r="G152" s="17" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>393</v>
       </c>
       <c r="B153" t="s">
         <v>394</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="11">
         <v>12</v>
       </c>
       <c r="D153" t="s">
         <v>625</v>
       </c>
-      <c r="G153" s="18" t="s">
+      <c r="G153" s="17" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>395</v>
       </c>
       <c r="B154" t="s">
         <v>396</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="11">
         <v>22</v>
       </c>
       <c r="D154" t="s">
         <v>625</v>
       </c>
-      <c r="G154" s="18" t="s">
+      <c r="G154" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="9" t="s">
         <v>397</v>
       </c>
       <c r="B155" t="s">
         <v>398</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="11">
         <v>6</v>
       </c>
       <c r="D155" t="s">
         <v>625</v>
       </c>
-      <c r="G155" s="18" t="s">
+      <c r="G155" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B156" t="s">
         <v>51</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="11">
         <v>329</v>
       </c>
       <c r="D156" t="s">
@@ -5652,7 +5817,7 @@
       <c r="F156" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G156" s="18" t="s">
+      <c r="G156" s="17" t="s">
         <v>113</v>
       </c>
       <c r="J156" s="7" t="s">
@@ -5660,13 +5825,13 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>399</v>
       </c>
       <c r="B157" t="s">
         <v>400</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="12">
         <v>9</v>
       </c>
       <c r="D157" t="s">
@@ -5677,13 +5842,13 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>401</v>
       </c>
       <c r="B158" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="11">
         <v>20</v>
       </c>
       <c r="D158" t="s">
@@ -5692,35 +5857,35 @@
       <c r="E158" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G158" s="18" t="s">
+      <c r="G158" s="17" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>403</v>
       </c>
       <c r="B159" t="s">
         <v>404</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="11">
         <v>8</v>
       </c>
       <c r="D159" t="s">
         <v>763</v>
       </c>
-      <c r="G159" s="18" t="s">
+      <c r="G159" s="17" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>405</v>
       </c>
       <c r="B160" t="s">
         <v>406</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="11">
         <v>10</v>
       </c>
       <c r="D160" t="s">
@@ -5729,92 +5894,92 @@
       <c r="F160" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G160" s="18" t="s">
+      <c r="G160" s="17" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>407</v>
       </c>
       <c r="B161" t="s">
         <v>408</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="11">
         <v>34</v>
       </c>
       <c r="D161" t="s">
         <v>631</v>
       </c>
-      <c r="G161" s="18" t="s">
+      <c r="G161" s="17" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="9" t="s">
         <v>409</v>
       </c>
       <c r="B162" t="s">
         <v>410</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="11">
         <v>32</v>
       </c>
       <c r="D162" t="s">
         <v>631</v>
       </c>
-      <c r="G162" s="18" t="s">
+      <c r="G162" s="17" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="9" t="s">
         <v>411</v>
       </c>
       <c r="B163" t="s">
         <v>412</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="11">
         <v>14</v>
       </c>
       <c r="D163" t="s">
         <v>631</v>
       </c>
-      <c r="G163" s="18" t="s">
+      <c r="G163" s="17" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>413</v>
       </c>
       <c r="B164" t="s">
         <v>414</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="11">
         <v>9</v>
       </c>
       <c r="D164" t="s">
         <v>631</v>
       </c>
-      <c r="G164" s="18" t="s">
+      <c r="G164" s="17" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="9" t="s">
         <v>415</v>
       </c>
       <c r="B165" t="s">
         <v>416</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="11">
         <v>39</v>
       </c>
       <c r="D165" t="s">
         <v>763</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="G165" s="19" t="s">
         <v>751</v>
       </c>
       <c r="H165" t="s">
@@ -5822,13 +5987,13 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="9" t="s">
         <v>417</v>
       </c>
       <c r="B166" t="s">
         <v>418</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="11">
         <v>14</v>
       </c>
       <c r="D166" t="s">
@@ -5837,7 +6002,7 @@
       <c r="E166" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G166" s="18" t="s">
+      <c r="G166" s="17" t="s">
         <v>757</v>
       </c>
     </row>
@@ -5848,7 +6013,7 @@
       <c r="B168" t="s">
         <v>550</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="11">
         <v>46</v>
       </c>
       <c r="D168" t="s">
@@ -5858,7 +6023,7 @@
         <v>74</v>
       </c>
       <c r="F168"/>
-      <c r="G168" s="24" t="s">
+      <c r="G168" s="21" t="s">
         <v>757</v>
       </c>
     </row>
@@ -5869,7 +6034,7 @@
       <c r="B169" t="s">
         <v>552</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="12">
         <v>1</v>
       </c>
       <c r="D169" t="s">
@@ -5887,7 +6052,7 @@
       <c r="B170" t="s">
         <v>554</v>
       </c>
-      <c r="C170" s="13">
+      <c r="C170" s="12">
         <v>4</v>
       </c>
       <c r="D170" t="s">
@@ -5905,10 +6070,10 @@
       <c r="A171" t="s">
         <v>555</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="C171" s="11">
+      <c r="C171" s="10">
         <v>12</v>
       </c>
       <c r="D171" t="s">
@@ -5926,10 +6091,10 @@
       <c r="A172" t="s">
         <v>557</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="C172" s="11">
+      <c r="C172" s="10">
         <v>4</v>
       </c>
       <c r="E172"/>
@@ -5939,10 +6104,10 @@
       <c r="A173" t="s">
         <v>559</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C173" s="11">
+      <c r="C173" s="10">
         <v>40</v>
       </c>
       <c r="E173"/>
@@ -5955,7 +6120,7 @@
       <c r="B174" t="s">
         <v>562</v>
       </c>
-      <c r="C174" s="11">
+      <c r="C174" s="10">
         <v>8</v>
       </c>
       <c r="D174" t="s">
@@ -5976,7 +6141,7 @@
       <c r="B175" t="s">
         <v>564</v>
       </c>
-      <c r="C175" s="11">
+      <c r="C175" s="10">
         <v>3</v>
       </c>
       <c r="D175" t="s">
@@ -5997,7 +6162,7 @@
       <c r="B176" t="s">
         <v>566</v>
       </c>
-      <c r="C176" s="11">
+      <c r="C176" s="10">
         <v>18</v>
       </c>
       <c r="D176" t="s">
@@ -6020,7 +6185,7 @@
       <c r="B177" t="s">
         <v>568</v>
       </c>
-      <c r="C177" s="11">
+      <c r="C177" s="10">
         <v>26</v>
       </c>
       <c r="D177" t="s">
@@ -6043,7 +6208,7 @@
       <c r="B178" t="s">
         <v>570</v>
       </c>
-      <c r="C178" s="11">
+      <c r="C178" s="10">
         <v>8</v>
       </c>
       <c r="E178"/>
@@ -6056,7 +6221,7 @@
       <c r="B179" t="s">
         <v>572</v>
       </c>
-      <c r="C179" s="11">
+      <c r="C179" s="10">
         <v>6</v>
       </c>
       <c r="E179"/>
@@ -6069,7 +6234,7 @@
       <c r="B180" t="s">
         <v>574</v>
       </c>
-      <c r="C180" s="11">
+      <c r="C180" s="10">
         <v>2</v>
       </c>
       <c r="E180"/>
@@ -6082,7 +6247,7 @@
       <c r="B181" t="s">
         <v>576</v>
       </c>
-      <c r="C181" s="11">
+      <c r="C181" s="10">
         <v>2</v>
       </c>
       <c r="E181"/>
@@ -6095,7 +6260,7 @@
       <c r="B182" t="s">
         <v>578</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="10">
         <v>1</v>
       </c>
       <c r="E182"/>
@@ -6108,7 +6273,7 @@
       <c r="B183" t="s">
         <v>580</v>
       </c>
-      <c r="C183" s="11">
+      <c r="C183" s="10">
         <v>48</v>
       </c>
       <c r="E183"/>
@@ -6126,7 +6291,7 @@
       <c r="B184" t="s">
         <v>582</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="11">
         <v>26</v>
       </c>
       <c r="E184"/>
@@ -6144,14 +6309,14 @@
       <c r="B185" t="s">
         <v>584</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="11">
         <v>14</v>
       </c>
       <c r="E185"/>
       <c r="F185" t="s">
         <v>634</v>
       </c>
-      <c r="G185" s="18" t="s">
+      <c r="G185" s="17" t="s">
         <v>757</v>
       </c>
     </row>
@@ -6162,14 +6327,14 @@
       <c r="B186" t="s">
         <v>771</v>
       </c>
-      <c r="C186" s="12">
+      <c r="C186" s="11">
         <v>23</v>
       </c>
       <c r="E186"/>
       <c r="F186" t="s">
         <v>634</v>
       </c>
-      <c r="G186" s="18" t="s">
+      <c r="G186" s="17" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6180,14 +6345,14 @@
       <c r="B187" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="11">
         <v>4</v>
       </c>
       <c r="E187"/>
       <c r="F187" t="s">
         <v>634</v>
       </c>
-      <c r="G187" s="18" t="s">
+      <c r="G187" s="17" t="s">
         <v>770</v>
       </c>
     </row>
@@ -6198,7 +6363,7 @@
       <c r="B188" t="s">
         <v>589</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="10">
         <v>2</v>
       </c>
       <c r="E188"/>
@@ -6211,7 +6376,7 @@
       <c r="B189" t="s">
         <v>591</v>
       </c>
-      <c r="C189" s="11">
+      <c r="C189" s="10">
         <v>2</v>
       </c>
       <c r="E189"/>
@@ -6221,10 +6386,10 @@
       <c r="A190" t="s">
         <v>592</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="10">
         <v>14</v>
       </c>
       <c r="E190"/>
@@ -6234,10 +6399,10 @@
       <c r="A191" t="s">
         <v>594</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C191" s="11">
+      <c r="C191" s="10">
         <v>41</v>
       </c>
       <c r="E191"/>
@@ -6247,10 +6412,10 @@
       <c r="A192" t="s">
         <v>596</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="10">
         <v>24</v>
       </c>
       <c r="E192"/>
@@ -6260,10 +6425,10 @@
       <c r="A193" t="s">
         <v>598</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="10">
         <v>8</v>
       </c>
       <c r="E193"/>
@@ -6276,7 +6441,7 @@
       <c r="B194" t="s">
         <v>47</v>
       </c>
-      <c r="C194" s="12">
+      <c r="C194" s="11">
         <v>299</v>
       </c>
       <c r="D194" t="s">
@@ -6299,13 +6464,13 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="9" t="s">
         <v>332</v>
       </c>
       <c r="B197" t="s">
         <v>333</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="10">
         <v>8</v>
       </c>
       <c r="D197" t="s">
@@ -6316,13 +6481,13 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B198" t="s">
         <v>69</v>
       </c>
-      <c r="C198" s="11">
+      <c r="C198" s="10">
         <v>116</v>
       </c>
       <c r="D198" t="s">
@@ -6339,13 +6504,13 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B199" t="s">
         <v>335</v>
       </c>
-      <c r="C199" s="11">
+      <c r="C199" s="10">
         <v>19</v>
       </c>
       <c r="D199" t="s">
@@ -6353,13 +6518,13 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="9" t="s">
         <v>336</v>
       </c>
       <c r="B200" t="s">
         <v>337</v>
       </c>
-      <c r="C200" s="11">
+      <c r="C200" s="10">
         <v>74</v>
       </c>
       <c r="D200" t="s">
@@ -6373,13 +6538,13 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B201" t="s">
         <v>57</v>
       </c>
-      <c r="C201" s="11">
+      <c r="C201" s="10">
         <v>192</v>
       </c>
       <c r="D201" t="s">
@@ -6396,13 +6561,13 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B202" t="s">
         <v>54</v>
       </c>
-      <c r="C202" s="11">
+      <c r="C202" s="10">
         <v>231</v>
       </c>
       <c r="D202" t="s">
@@ -6419,13 +6584,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="9" t="s">
         <v>338</v>
       </c>
       <c r="B203" t="s">
         <v>339</v>
       </c>
-      <c r="C203" s="11">
+      <c r="C203" s="10">
         <v>23</v>
       </c>
       <c r="D203" t="s">
@@ -6439,13 +6604,13 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="9" t="s">
         <v>340</v>
       </c>
       <c r="B204" t="s">
         <v>341</v>
       </c>
-      <c r="C204" s="11">
+      <c r="C204" s="10">
         <v>6</v>
       </c>
       <c r="D204" t="s">
@@ -6456,13 +6621,13 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="9" t="s">
         <v>342</v>
       </c>
       <c r="B205" t="s">
         <v>341</v>
       </c>
-      <c r="C205" s="11">
+      <c r="C205" s="10">
         <v>4</v>
       </c>
       <c r="D205" t="s">
@@ -6479,7 +6644,7 @@
       <c r="D210" t="s">
         <v>116</v>
       </c>
-      <c r="G210" s="8" t="s">
+      <c r="G210" t="s">
         <v>62</v>
       </c>
       <c r="J210" s="7" t="s">
@@ -6514,10 +6679,10 @@
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C216" s="9"/>
+      <c r="C216" s="8"/>
       <c r="D216" t="s">
         <v>127</v>
       </c>
@@ -6526,10 +6691,10 @@
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="8"/>
       <c r="D217" t="s">
         <v>127</v>
       </c>
@@ -6545,13 +6710,13 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
+      <c r="A227" s="9" t="s">
         <v>343</v>
       </c>
       <c r="B227" t="s">
         <v>344</v>
       </c>
-      <c r="C227" s="11">
+      <c r="C227" s="10">
         <v>4</v>
       </c>
       <c r="D227" t="s">
@@ -6559,13 +6724,13 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
+      <c r="A229" s="9" t="s">
         <v>345</v>
       </c>
       <c r="B229" t="s">
         <v>346</v>
       </c>
-      <c r="C229" s="11">
+      <c r="C229" s="10">
         <v>4</v>
       </c>
       <c r="D229" t="s">
@@ -6573,156 +6738,156 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
+      <c r="A231" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
       </c>
-      <c r="C231" s="11">
+      <c r="C231" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
+      <c r="A232" s="9" t="s">
         <v>349</v>
       </c>
       <c r="B232" t="s">
         <v>350</v>
       </c>
-      <c r="C232" s="11">
+      <c r="C232" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
+      <c r="A233" s="9" t="s">
         <v>351</v>
       </c>
       <c r="B233" t="s">
         <v>352</v>
       </c>
-      <c r="C233" s="11">
+      <c r="C233" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="9" t="s">
         <v>353</v>
       </c>
       <c r="B234" t="s">
         <v>354</v>
       </c>
-      <c r="C234" s="11">
+      <c r="C234" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
+      <c r="A235" s="9" t="s">
         <v>355</v>
       </c>
       <c r="B235" t="s">
         <v>356</v>
       </c>
-      <c r="C235" s="11">
+      <c r="C235" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="9" t="s">
         <v>357</v>
       </c>
       <c r="B236" t="s">
         <v>358</v>
       </c>
-      <c r="C236" s="11">
+      <c r="C236" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="9" t="s">
         <v>359</v>
       </c>
       <c r="B237" t="s">
         <v>360</v>
       </c>
-      <c r="C237" s="11">
+      <c r="C237" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="10" t="s">
+      <c r="A238" s="9" t="s">
         <v>361</v>
       </c>
       <c r="B238" t="s">
         <v>362</v>
       </c>
-      <c r="C238" s="11">
+      <c r="C238" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="10" t="s">
+      <c r="A239" s="9" t="s">
         <v>363</v>
       </c>
       <c r="B239" t="s">
         <v>364</v>
       </c>
-      <c r="C239" s="11">
+      <c r="C239" s="10">
         <v>116</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="9" t="s">
         <v>365</v>
       </c>
       <c r="B240" t="s">
         <v>366</v>
       </c>
-      <c r="C240" s="11">
+      <c r="C240" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="10" t="s">
+      <c r="A241" s="9" t="s">
         <v>367</v>
       </c>
       <c r="B241" t="s">
         <v>368</v>
       </c>
-      <c r="C241" s="11">
+      <c r="C241" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="10" t="s">
+      <c r="A242" s="9" t="s">
         <v>369</v>
       </c>
       <c r="B242" t="s">
         <v>370</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
+      <c r="A243" s="9" t="s">
         <v>371</v>
       </c>
       <c r="B243" t="s">
         <v>372</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C243" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="10" t="s">
+      <c r="A245" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B245" t="s">
         <v>60</v>
       </c>
-      <c r="C245" s="11">
+      <c r="C245" s="10">
         <v>172</v>
       </c>
       <c r="D245" t="s">
@@ -6730,13 +6895,13 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="9" t="s">
         <v>434</v>
       </c>
       <c r="B246" t="s">
         <v>435</v>
       </c>
-      <c r="C246" s="11">
+      <c r="C246" s="10">
         <v>17</v>
       </c>
       <c r="D246" t="s">
@@ -6744,13 +6909,13 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="9" t="s">
         <v>436</v>
       </c>
       <c r="B247" t="s">
         <v>437</v>
       </c>
-      <c r="C247" s="11">
+      <c r="C247" s="10">
         <v>6</v>
       </c>
       <c r="D247" t="s">
@@ -6764,12 +6929,12 @@
       <c r="B249" t="s">
         <v>439</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C249" s="10">
         <v>11</v>
       </c>
       <c r="E249"/>
       <c r="F249"/>
-      <c r="G249" s="9"/>
+      <c r="G249" s="8"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -6778,7 +6943,7 @@
       <c r="B250" t="s">
         <v>443</v>
       </c>
-      <c r="C250" s="11">
+      <c r="C250" s="10">
         <v>4</v>
       </c>
       <c r="E250"/>
@@ -6791,7 +6956,7 @@
       <c r="B252" t="s">
         <v>441</v>
       </c>
-      <c r="C252" s="11">
+      <c r="C252" s="10">
         <v>8</v>
       </c>
       <c r="D252" t="s">
@@ -6807,7 +6972,7 @@
       <c r="B254" t="s">
         <v>445</v>
       </c>
-      <c r="C254" s="11">
+      <c r="C254" s="10">
         <v>1</v>
       </c>
       <c r="D254" t="s">
@@ -6815,7 +6980,7 @@
       </c>
       <c r="E254"/>
       <c r="F254"/>
-      <c r="G254" s="9"/>
+      <c r="G254" s="8"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -6824,7 +6989,7 @@
       <c r="B255" t="s">
         <v>447</v>
       </c>
-      <c r="C255" s="11">
+      <c r="C255" s="10">
         <v>1</v>
       </c>
       <c r="D255" t="s">
@@ -6840,7 +7005,7 @@
       <c r="B256" t="s">
         <v>449</v>
       </c>
-      <c r="C256" s="11">
+      <c r="C256" s="10">
         <v>3</v>
       </c>
       <c r="D256" t="s">
@@ -6856,7 +7021,7 @@
       <c r="B257" t="s">
         <v>451</v>
       </c>
-      <c r="C257" s="11">
+      <c r="C257" s="10">
         <v>3</v>
       </c>
       <c r="D257" t="s">
@@ -6874,7 +7039,7 @@
       <c r="B258" t="s">
         <v>453</v>
       </c>
-      <c r="C258" s="11">
+      <c r="C258" s="10">
         <v>18</v>
       </c>
       <c r="D258" t="s">
@@ -6890,7 +7055,7 @@
       <c r="B259" t="s">
         <v>455</v>
       </c>
-      <c r="C259" s="11">
+      <c r="C259" s="10">
         <v>4</v>
       </c>
       <c r="D259" t="s">
@@ -6906,7 +7071,7 @@
       <c r="B260" t="s">
         <v>457</v>
       </c>
-      <c r="C260" s="11">
+      <c r="C260" s="10">
         <v>10</v>
       </c>
       <c r="D260" t="s">
@@ -6922,7 +7087,7 @@
       <c r="B261" t="s">
         <v>459</v>
       </c>
-      <c r="C261" s="11">
+      <c r="C261" s="10">
         <v>3</v>
       </c>
       <c r="D261" t="s">
@@ -6938,7 +7103,7 @@
       <c r="B262" t="s">
         <v>461</v>
       </c>
-      <c r="C262" s="11">
+      <c r="C262" s="10">
         <v>14</v>
       </c>
       <c r="D262" t="s">
@@ -6954,7 +7119,7 @@
       <c r="B263" t="s">
         <v>461</v>
       </c>
-      <c r="C263" s="11">
+      <c r="C263" s="10">
         <v>23</v>
       </c>
       <c r="D263" t="s">
@@ -6970,7 +7135,7 @@
       <c r="B264" t="s">
         <v>464</v>
       </c>
-      <c r="C264" s="11">
+      <c r="C264" s="10">
         <v>2</v>
       </c>
       <c r="D264" t="s">
@@ -6986,7 +7151,7 @@
       <c r="B265" t="s">
         <v>466</v>
       </c>
-      <c r="C265" s="11">
+      <c r="C265" s="10">
         <v>2</v>
       </c>
       <c r="D265" t="s">
@@ -7002,7 +7167,7 @@
       <c r="B269" t="s">
         <v>500</v>
       </c>
-      <c r="C269" s="11">
+      <c r="C269" s="10">
         <v>2</v>
       </c>
       <c r="D269" t="s">
@@ -7010,7 +7175,7 @@
       </c>
       <c r="E269"/>
       <c r="F269"/>
-      <c r="G269" s="9"/>
+      <c r="G269" s="8"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -7019,7 +7184,7 @@
       <c r="B271" t="s">
         <v>502</v>
       </c>
-      <c r="C271" s="11">
+      <c r="C271" s="10">
         <v>9</v>
       </c>
       <c r="D271" t="s">
@@ -7027,7 +7192,7 @@
       </c>
       <c r="E271"/>
       <c r="F271"/>
-      <c r="G271" s="9"/>
+      <c r="G271" s="8"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -7036,7 +7201,7 @@
       <c r="B272" t="s">
         <v>504</v>
       </c>
-      <c r="C272" s="11">
+      <c r="C272" s="10">
         <v>2</v>
       </c>
       <c r="D272" t="s">
@@ -7052,7 +7217,7 @@
       <c r="B273" t="s">
         <v>506</v>
       </c>
-      <c r="C273" s="11">
+      <c r="C273" s="10">
         <v>2</v>
       </c>
       <c r="D273" t="s">
@@ -7068,7 +7233,7 @@
       <c r="B274" t="s">
         <v>508</v>
       </c>
-      <c r="C274" s="11">
+      <c r="C274" s="10">
         <v>8</v>
       </c>
       <c r="D274" t="s">
@@ -7084,7 +7249,7 @@
       <c r="B276" t="s">
         <v>510</v>
       </c>
-      <c r="C276" s="11">
+      <c r="C276" s="10">
         <v>30</v>
       </c>
       <c r="D276" t="s">
@@ -7092,7 +7257,7 @@
       </c>
       <c r="E276"/>
       <c r="F276"/>
-      <c r="G276" s="9"/>
+      <c r="G276" s="8"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -7101,7 +7266,7 @@
       <c r="B277" t="s">
         <v>512</v>
       </c>
-      <c r="C277" s="11">
+      <c r="C277" s="10">
         <v>15</v>
       </c>
       <c r="D277" t="s">
@@ -7117,7 +7282,7 @@
       <c r="B278" t="s">
         <v>514</v>
       </c>
-      <c r="C278" s="11">
+      <c r="C278" s="10">
         <v>4</v>
       </c>
       <c r="D278" t="s">
@@ -7133,7 +7298,7 @@
       <c r="B279" t="s">
         <v>516</v>
       </c>
-      <c r="C279" s="11">
+      <c r="C279" s="10">
         <v>67</v>
       </c>
       <c r="D279" t="s">
@@ -7149,7 +7314,7 @@
       <c r="B280" t="s">
         <v>518</v>
       </c>
-      <c r="C280" s="11">
+      <c r="C280" s="10">
         <v>4</v>
       </c>
       <c r="D280" t="s">
@@ -7165,7 +7330,7 @@
       <c r="B281" t="s">
         <v>520</v>
       </c>
-      <c r="C281" s="11">
+      <c r="C281" s="10">
         <v>12</v>
       </c>
       <c r="D281" t="s">
@@ -7181,7 +7346,7 @@
       <c r="B282" t="s">
         <v>522</v>
       </c>
-      <c r="C282" s="11">
+      <c r="C282" s="10">
         <v>28</v>
       </c>
       <c r="D282" t="s">
@@ -7197,7 +7362,7 @@
       <c r="B283" t="s">
         <v>524</v>
       </c>
-      <c r="C283" s="11">
+      <c r="C283" s="10">
         <v>7</v>
       </c>
       <c r="D283" t="s">
@@ -7213,7 +7378,7 @@
       <c r="B284" t="s">
         <v>526</v>
       </c>
-      <c r="C284" s="11">
+      <c r="C284" s="10">
         <v>2</v>
       </c>
       <c r="D284" t="s">
@@ -7229,7 +7394,7 @@
       <c r="B285" t="s">
         <v>528</v>
       </c>
-      <c r="C285" s="11">
+      <c r="C285" s="10">
         <v>1</v>
       </c>
       <c r="D285" t="s">
@@ -7245,7 +7410,7 @@
       <c r="B286" t="s">
         <v>530</v>
       </c>
-      <c r="C286" s="11">
+      <c r="C286" s="10">
         <v>1</v>
       </c>
       <c r="D286" t="s">
@@ -7261,7 +7426,7 @@
       <c r="B287" t="s">
         <v>532</v>
       </c>
-      <c r="C287" s="11">
+      <c r="C287" s="10">
         <v>1</v>
       </c>
       <c r="D287" t="s">
@@ -7277,7 +7442,7 @@
       <c r="B288" t="s">
         <v>124</v>
       </c>
-      <c r="C288" s="11">
+      <c r="C288" s="10">
         <v>29</v>
       </c>
       <c r="D288" t="s">
@@ -7293,7 +7458,7 @@
       <c r="B289" t="s">
         <v>125</v>
       </c>
-      <c r="C289" s="11">
+      <c r="C289" s="10">
         <v>17</v>
       </c>
       <c r="D289" t="s">
@@ -7309,7 +7474,7 @@
       <c r="B290" t="s">
         <v>536</v>
       </c>
-      <c r="C290" s="11">
+      <c r="C290" s="10">
         <v>9</v>
       </c>
       <c r="D290" t="s">
@@ -7325,7 +7490,7 @@
       <c r="B291" t="s">
         <v>538</v>
       </c>
-      <c r="C291" s="11">
+      <c r="C291" s="10">
         <v>12</v>
       </c>
       <c r="D291" t="s">
@@ -7341,7 +7506,7 @@
       <c r="B292" t="s">
         <v>540</v>
       </c>
-      <c r="C292" s="11">
+      <c r="C292" s="10">
         <v>4</v>
       </c>
       <c r="D292" t="s">
@@ -7357,12 +7522,12 @@
       <c r="B294" t="s">
         <v>542</v>
       </c>
-      <c r="C294" s="11">
+      <c r="C294" s="10">
         <v>28</v>
       </c>
       <c r="E294"/>
       <c r="F294"/>
-      <c r="G294" s="9"/>
+      <c r="G294" s="8"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -7371,7 +7536,7 @@
       <c r="B295" t="s">
         <v>544</v>
       </c>
-      <c r="C295" s="11">
+      <c r="C295" s="10">
         <v>10</v>
       </c>
       <c r="E295"/>
@@ -7384,7 +7549,7 @@
       <c r="B296" t="s">
         <v>546</v>
       </c>
-      <c r="C296" s="11">
+      <c r="C296" s="10">
         <v>1</v>
       </c>
       <c r="E296"/>
@@ -7397,7 +7562,7 @@
       <c r="B297" t="s">
         <v>548</v>
       </c>
-      <c r="C297" s="11">
+      <c r="C297" s="10">
         <v>3</v>
       </c>
       <c r="E297"/>
@@ -7410,7 +7575,7 @@
       <c r="B300" t="s">
         <v>601</v>
       </c>
-      <c r="C300" s="11">
+      <c r="C300" s="10">
         <v>1</v>
       </c>
       <c r="E300"/>
@@ -7423,7 +7588,7 @@
       <c r="B301" t="s">
         <v>603</v>
       </c>
-      <c r="C301" s="11">
+      <c r="C301" s="10">
         <v>2</v>
       </c>
       <c r="E301"/>
@@ -7436,95 +7601,95 @@
       <c r="B302" t="s">
         <v>605</v>
       </c>
-      <c r="C302" s="11">
+      <c r="C302" s="10">
         <v>28</v>
       </c>
       <c r="E302"/>
       <c r="F302"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="10" t="s">
+      <c r="A304" s="9" t="s">
         <v>419</v>
       </c>
       <c r="B304" t="s">
         <v>420</v>
       </c>
-      <c r="C304" s="11">
+      <c r="C304" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="9" t="s">
         <v>421</v>
       </c>
       <c r="B305" t="s">
         <v>422</v>
       </c>
-      <c r="C305" s="11">
+      <c r="C305" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="10" t="s">
+      <c r="A306" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B306" t="s">
         <v>424</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C306" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="10" t="s">
+      <c r="A307" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B307" t="s">
         <v>426</v>
       </c>
-      <c r="C307" s="11">
+      <c r="C307" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="10" t="s">
+      <c r="A308" s="9" t="s">
         <v>427</v>
       </c>
       <c r="B308" t="s">
         <v>428</v>
       </c>
-      <c r="C308" s="11">
+      <c r="C308" s="10">
         <v>64</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="14" t="s">
+      <c r="A309" s="13" t="s">
         <v>429</v>
       </c>
       <c r="B309" t="s">
         <v>430</v>
       </c>
-      <c r="C309" s="11">
+      <c r="C309" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="10"/>
+      <c r="A310" s="9"/>
       <c r="B310" t="s">
         <v>431</v>
       </c>
-      <c r="C310" s="11">
+      <c r="C310" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="9" t="s">
         <v>432</v>
       </c>
       <c r="B311" t="s">
         <v>433</v>
       </c>
-      <c r="C311" s="11">
+      <c r="C311" s="10">
         <v>2</v>
       </c>
     </row>
@@ -7881,4 +8046,325 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23DC3C-FC33-C942-8382-35514D36DECE}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4" t="s">
+        <v>793</v>
+      </c>
+      <c r="E4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C6" t="s">
+        <v>806</v>
+      </c>
+      <c r="D6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" t="s">
+        <v>808</v>
+      </c>
+      <c r="E7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" t="s">
+        <v>803</v>
+      </c>
+      <c r="E8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10" t="s">
+        <v>797</v>
+      </c>
+      <c r="E10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C11" t="s">
+        <v>798</v>
+      </c>
+      <c r="D11" t="s">
+        <v>835</v>
+      </c>
+      <c r="E11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA27F86-00EA-E945-928B-590117336EE1}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D867A-FF45-1E40-9EFF-40C9E0223537}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29F90F-24B9-3647-BF97-D46598CD3CE5}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F347C65-4561-7F4E-AF9A-FA8FCA81C346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D320122-BE65-8443-960C-B204F3208D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" activeTab="3" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ersatzartikel" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Zoll - metrisch" sheetId="3" r:id="rId3"/>
     <sheet name="Gravurmaterial" sheetId="4" r:id="rId4"/>
     <sheet name="Schraubenquellen" sheetId="5" r:id="rId5"/>
     <sheet name="Aufbau Panels" sheetId="6" r:id="rId6"/>
-    <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
+    <sheet name="Schraubenlager" sheetId="8" r:id="rId7"/>
+    <sheet name="MDF lackieren" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="884">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -2184,36 +2185,6 @@
     <t>3,505 x  31,75 mm</t>
   </si>
   <si>
-    <t>DIN 7991, ISO 10643</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10644</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10645</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10646</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10647</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10648</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10649</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10650</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10651</t>
-  </si>
-  <si>
-    <t>DIN 7991, ISO 10652</t>
-  </si>
-  <si>
     <t>DIN 7991, ISO 10642; alternativ DIN14581 (Torx)</t>
   </si>
   <si>
@@ -2593,6 +2564,159 @@
   </si>
   <si>
     <t>12,90 € + MwSt.</t>
+  </si>
+  <si>
+    <t>SET SCREW, 8-32 X .125, CUP POINT, 18-8</t>
+  </si>
+  <si>
+    <t>4,166 mm x 3,175 mm</t>
+  </si>
+  <si>
+    <t>M4 x 3 mm</t>
+  </si>
+  <si>
+    <t>4,166 mm x 4,7625 mm</t>
+  </si>
+  <si>
+    <t>4,166 mm x 7,9375 mm</t>
+  </si>
+  <si>
+    <t>M4 x 5 mm</t>
+  </si>
+  <si>
+    <t>M4 x 8 mm</t>
+  </si>
+  <si>
+    <t>4,826 mm x 6,35 mm</t>
+  </si>
+  <si>
+    <t>M5 x 6 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 4,7625 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 3,175 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 2,38125 mm</t>
+  </si>
+  <si>
+    <t>M3,5 x 6 mm</t>
+  </si>
+  <si>
+    <t>M3 x 2 mm</t>
+  </si>
+  <si>
+    <t>M5 x 10 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 15,88 mm</t>
+  </si>
+  <si>
+    <t>M2 x 16 mm</t>
+  </si>
+  <si>
+    <t>M2 x 18 mm</t>
+  </si>
+  <si>
+    <t>1,524 mm x 9,53 mm</t>
+  </si>
+  <si>
+    <t>M1,6 x 10 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 7,94 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 25,4 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 3,175 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 9,53 mm</t>
+  </si>
+  <si>
+    <t>6,35 mm x 19,05 mm</t>
+  </si>
+  <si>
+    <t>M6x 10 mm</t>
+  </si>
+  <si>
+    <t>M6 x 20 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 3,175 mm</t>
+  </si>
+  <si>
+    <t>M2x 3 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 4,76 mm</t>
+  </si>
+  <si>
+    <t>M2 x 5 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 9,525 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 38,1 mm</t>
+  </si>
+  <si>
+    <t>M2 x 40 mm</t>
+  </si>
+  <si>
+    <t>1,524 mm</t>
+  </si>
+  <si>
+    <t>Schraubenlager</t>
+  </si>
+  <si>
+    <t>2,5 mm</t>
+  </si>
+  <si>
+    <t>2 mm</t>
+  </si>
+  <si>
+    <t>3 mm</t>
+  </si>
+  <si>
+    <t>4 mm</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>8 mm</t>
+  </si>
+  <si>
+    <t>10 mm</t>
+  </si>
+  <si>
+    <t>Linsenkopf</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Senkkopf</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Zylinderkopf</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Außensechskant</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2805,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2712,6 +2836,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2735,7 +2889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2773,6 +2927,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3203,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
   <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView topLeftCell="C184" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,11 +3794,11 @@
       <c r="B24" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="29">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>651</v>
@@ -3649,7 +3817,7 @@
       <c r="B25" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="29">
         <v>4</v>
       </c>
       <c r="D25" t="s">
@@ -3879,7 +4047,7 @@
       <c r="B37" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>13</v>
       </c>
       <c r="D37" t="s">
@@ -3902,7 +4070,7 @@
       <c r="B38" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -3925,7 +4093,7 @@
       <c r="B39" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>11</v>
       </c>
       <c r="D39" t="s">
@@ -3948,7 +4116,7 @@
       <c r="B40" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>16</v>
       </c>
       <c r="D40" t="s">
@@ -3971,7 +4139,7 @@
       <c r="B41" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>2</v>
       </c>
       <c r="D41" t="s">
@@ -3983,7 +4151,7 @@
       <c r="F41" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="21" t="s">
         <v>678</v>
       </c>
     </row>
@@ -3994,7 +4162,7 @@
       <c r="B42" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -4006,7 +4174,7 @@
       <c r="F42" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="21" t="s">
         <v>677</v>
       </c>
     </row>
@@ -4071,7 +4239,7 @@
         <v>285</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>668</v>
@@ -4111,10 +4279,10 @@
         <v>285</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -4131,10 +4299,10 @@
         <v>285</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -4151,7 +4319,7 @@
         <v>285</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>0</v>
@@ -4164,17 +4332,17 @@
       <c r="B52" t="s">
         <v>290</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="23">
         <v>2</v>
       </c>
       <c r="D52" t="s">
         <v>285</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G52" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -4191,7 +4359,7 @@
         <v>285</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>4</v>
@@ -4211,10 +4379,10 @@
         <v>285</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -4231,10 +4399,10 @@
         <v>285</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -4251,10 +4419,10 @@
         <v>285</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4271,10 +4439,10 @@
         <v>285</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G57" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4298,7 +4466,7 @@
         <v>101</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>65</v>
@@ -4347,7 +4515,7 @@
         <v>77</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>4</v>
@@ -4366,7 +4534,7 @@
       <c r="B63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="23">
         <v>24</v>
       </c>
       <c r="D63" t="s">
@@ -4386,7 +4554,7 @@
       <c r="B64" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="23">
         <v>90</v>
       </c>
       <c r="D64" t="s">
@@ -4446,7 +4614,7 @@
       <c r="B68" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="29">
         <v>4</v>
       </c>
       <c r="D68" t="s">
@@ -4466,7 +4634,7 @@
       <c r="B69" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="29">
         <v>4</v>
       </c>
       <c r="D69" t="s">
@@ -4486,7 +4654,7 @@
       <c r="B70" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="29">
         <v>70</v>
       </c>
       <c r="D70" t="s">
@@ -4506,7 +4674,7 @@
       <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="30">
         <v>107</v>
       </c>
       <c r="D71" t="s">
@@ -4533,7 +4701,7 @@
       <c r="B72" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="29">
         <v>2</v>
       </c>
       <c r="D72" t="s">
@@ -4553,7 +4721,7 @@
       <c r="B73" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="29">
         <v>25</v>
       </c>
       <c r="D73" t="s">
@@ -4573,7 +4741,7 @@
       <c r="B74" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="29">
         <v>6</v>
       </c>
       <c r="D74" t="s">
@@ -4593,7 +4761,7 @@
       <c r="B75" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="29">
         <v>5</v>
       </c>
       <c r="D75" t="s">
@@ -4726,7 +4894,7 @@
         <v>689</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4736,11 +4904,17 @@
       <c r="B87" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="11">
         <v>4</v>
       </c>
       <c r="D87" t="s">
         <v>304</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4750,11 +4924,17 @@
       <c r="B89" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="11">
         <v>5</v>
       </c>
       <c r="D89" t="s">
         <v>304</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4764,11 +4944,17 @@
       <c r="B90" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="11">
         <v>2</v>
       </c>
       <c r="D90" t="s">
         <v>304</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4778,11 +4964,17 @@
       <c r="B91" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="11">
         <v>27</v>
       </c>
       <c r="D91" t="s">
         <v>304</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4792,11 +4984,17 @@
       <c r="B92" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="11">
         <v>2</v>
       </c>
       <c r="D92" t="s">
         <v>304</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4806,7 +5004,7 @@
       <c r="B93" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="11">
         <v>11</v>
       </c>
       <c r="D93" t="s">
@@ -4814,6 +5012,9 @@
       </c>
       <c r="E93" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4823,11 +5024,17 @@
       <c r="B94" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="23">
         <v>22</v>
       </c>
       <c r="D94" t="s">
         <v>304</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4837,11 +5044,17 @@
       <c r="B95" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="23">
         <v>10</v>
       </c>
       <c r="D95" t="s">
         <v>304</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4851,11 +5064,17 @@
       <c r="B96" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="23">
         <v>8</v>
       </c>
       <c r="D96" t="s">
         <v>304</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,6 +5150,12 @@
       <c r="D102" t="s">
         <v>305</v>
       </c>
+      <c r="E102" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G102" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
@@ -4997,7 +5222,7 @@
         <v>299</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5014,7 +5239,7 @@
         <v>299</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5048,7 +5273,7 @@
         <v>299</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5058,11 +5283,14 @@
       <c r="B111" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="23">
         <v>10</v>
       </c>
       <c r="D111" t="s">
         <v>300</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>667</v>
@@ -5075,14 +5303,17 @@
       <c r="B112" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="23">
         <v>2</v>
       </c>
       <c r="D112" t="s">
         <v>300</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>855</v>
+      </c>
       <c r="G112" s="16" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5100,13 +5331,13 @@
         <v>326</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>331</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5123,10 +5354,10 @@
         <v>326</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5143,10 +5374,10 @@
         <v>326</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5163,10 +5394,10 @@
         <v>326</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5183,13 +5414,13 @@
         <v>327</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5206,13 +5437,13 @@
         <v>330</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>329</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5232,7 +5463,7 @@
         <v>331</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5249,7 +5480,7 @@
         <v>326</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5266,7 +5497,7 @@
         <v>326</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5276,15 +5507,19 @@
       <c r="B125" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="12">
         <v>4</v>
       </c>
       <c r="D125" t="s">
         <v>609</v>
       </c>
-      <c r="E125"/>
+      <c r="E125" t="s">
+        <v>654</v>
+      </c>
       <c r="F125"/>
-      <c r="G125" s="8"/>
+      <c r="G125" s="25" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -5293,14 +5528,19 @@
       <c r="B126" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="12">
         <v>2</v>
       </c>
       <c r="D126" t="s">
         <v>609</v>
       </c>
-      <c r="E126"/>
+      <c r="E126" t="s">
+        <v>853</v>
+      </c>
       <c r="F126"/>
+      <c r="G126" s="16" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -5309,14 +5549,19 @@
       <c r="B127" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="12">
         <v>2</v>
       </c>
       <c r="D127" t="s">
         <v>609</v>
       </c>
-      <c r="E127"/>
+      <c r="E127" t="s">
+        <v>655</v>
+      </c>
       <c r="F127"/>
+      <c r="G127" s="16" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -5325,14 +5570,19 @@
       <c r="B128" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="12">
         <v>9</v>
       </c>
       <c r="D128" t="s">
         <v>609</v>
       </c>
-      <c r="E128"/>
+      <c r="E128" t="s">
+        <v>854</v>
+      </c>
       <c r="F128"/>
+      <c r="G128" s="16" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -5341,14 +5591,19 @@
       <c r="B129" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="12">
         <v>1</v>
       </c>
       <c r="D129" t="s">
         <v>609</v>
       </c>
-      <c r="E129"/>
+      <c r="E129" t="s">
+        <v>699</v>
+      </c>
       <c r="F129"/>
+      <c r="G129" s="16" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -5357,14 +5612,19 @@
       <c r="B130" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="12">
         <v>4</v>
       </c>
       <c r="D130" t="s">
         <v>609</v>
       </c>
-      <c r="E130"/>
+      <c r="E130" t="s">
+        <v>856</v>
+      </c>
       <c r="F130"/>
+      <c r="G130" s="16" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -5373,14 +5633,19 @@
       <c r="B131" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="12">
         <v>4</v>
       </c>
       <c r="D131" t="s">
         <v>609</v>
       </c>
-      <c r="E131"/>
+      <c r="E131" t="s">
+        <v>857</v>
+      </c>
       <c r="F131"/>
+      <c r="G131" s="16" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -5398,7 +5663,7 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" s="17" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5419,7 +5684,7 @@
         <v>608</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5436,11 +5701,11 @@
         <v>610</v>
       </c>
       <c r="E134" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F134"/>
       <c r="G134" s="17" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5461,7 +5726,7 @@
       </c>
       <c r="F135"/>
       <c r="G135" s="17" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5471,7 +5736,7 @@
       <c r="B136" t="s">
         <v>486</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="23">
         <v>14</v>
       </c>
       <c r="D136" t="s">
@@ -5480,7 +5745,7 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5497,11 +5762,11 @@
         <v>610</v>
       </c>
       <c r="E137" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F137"/>
       <c r="G137" s="17" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5543,7 +5808,7 @@
         <v>612</v>
       </c>
       <c r="G139" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5559,8 +5824,13 @@
       <c r="D140" t="s">
         <v>609</v>
       </c>
-      <c r="E140"/>
+      <c r="E140" t="s">
+        <v>860</v>
+      </c>
       <c r="F140"/>
+      <c r="G140" s="16" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
@@ -5576,7 +5846,7 @@
         <v>625</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5593,7 +5863,7 @@
         <v>626</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -5610,7 +5880,7 @@
         <v>627</v>
       </c>
       <c r="G145" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -5630,7 +5900,7 @@
         <v>645</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -5650,7 +5920,7 @@
         <v>74</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -5670,7 +5940,7 @@
         <v>628</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -5707,7 +5977,7 @@
         <v>644</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -5727,7 +5997,7 @@
         <v>645</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -5744,10 +6014,10 @@
         <v>631</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -5764,7 +6034,7 @@
         <v>625</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -5781,7 +6051,7 @@
         <v>625</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -5798,7 +6068,7 @@
         <v>625</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -5837,8 +6107,11 @@
       <c r="D157" t="s">
         <v>629</v>
       </c>
+      <c r="E157" s="1" t="s">
+        <v>867</v>
+      </c>
       <c r="G157" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -5852,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -5872,10 +6145,10 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -5895,7 +6168,7 @@
         <v>630</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -5912,7 +6185,7 @@
         <v>631</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -5929,7 +6202,7 @@
         <v>631</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -5946,7 +6219,7 @@
         <v>631</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -5963,7 +6236,7 @@
         <v>631</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -5977,13 +6250,13 @@
         <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="H165" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6003,7 +6276,7 @@
         <v>74</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6017,14 +6290,14 @@
         <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E168" t="s">
         <v>74</v>
       </c>
       <c r="F168"/>
       <c r="G168" s="21" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6038,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E169" t="s">
         <v>74</v>
@@ -6056,14 +6329,14 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F170"/>
       <c r="G170" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6077,14 +6350,14 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F171"/>
       <c r="G171" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6124,14 +6397,14 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G174" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6145,14 +6418,14 @@
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E175"/>
       <c r="F175" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G175" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6166,16 +6439,16 @@
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="E176" t="s">
         <v>670</v>
       </c>
       <c r="F176" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G176" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -6189,16 +6462,16 @@
         <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="E177" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F177" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G177" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6281,7 +6554,7 @@
         <v>634</v>
       </c>
       <c r="G183" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6299,7 +6572,7 @@
         <v>634</v>
       </c>
       <c r="G184" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6317,7 +6590,7 @@
         <v>634</v>
       </c>
       <c r="G185" s="17" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6325,7 +6598,7 @@
         <v>585</v>
       </c>
       <c r="B186" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C186" s="11">
         <v>23</v>
@@ -6335,7 +6608,7 @@
         <v>634</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6353,7 +6626,7 @@
         <v>634</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6474,10 +6747,10 @@
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G197" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -6491,10 +6764,10 @@
         <v>116</v>
       </c>
       <c r="D198" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G198" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="I198" t="s">
         <v>123</v>
@@ -6514,7 +6787,7 @@
         <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -6528,13 +6801,13 @@
         <v>74</v>
       </c>
       <c r="D200" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>644</v>
       </c>
       <c r="G200" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -6548,13 +6821,13 @@
         <v>192</v>
       </c>
       <c r="D201" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G201" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="I201" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="J201" s="7" t="s">
         <v>122</v>
@@ -6571,10 +6844,10 @@
         <v>231</v>
       </c>
       <c r="D202" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G202" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="I202" t="s">
         <v>119</v>
@@ -6594,13 +6867,13 @@
         <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G203" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -6614,10 +6887,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G204" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -6631,10 +6904,10 @@
         <v>4</v>
       </c>
       <c r="D205" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G205" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.2">
@@ -7021,7 +7294,7 @@
       <c r="B257" t="s">
         <v>451</v>
       </c>
-      <c r="C257" s="10">
+      <c r="C257" s="23">
         <v>3</v>
       </c>
       <c r="D257" t="s">
@@ -7031,6 +7304,9 @@
       <c r="F257" t="s">
         <v>618</v>
       </c>
+      <c r="G257" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -7039,14 +7315,21 @@
       <c r="B258" t="s">
         <v>453</v>
       </c>
-      <c r="C258" s="10">
+      <c r="C258" s="29">
         <v>18</v>
       </c>
       <c r="D258" t="s">
         <v>619</v>
       </c>
-      <c r="E258"/>
-      <c r="F258"/>
+      <c r="E258" t="s">
+        <v>844</v>
+      </c>
+      <c r="F258" t="s">
+        <v>618</v>
+      </c>
+      <c r="G258" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -7055,14 +7338,21 @@
       <c r="B259" t="s">
         <v>455</v>
       </c>
-      <c r="C259" s="10">
+      <c r="C259" s="29">
         <v>4</v>
       </c>
       <c r="D259" t="s">
         <v>619</v>
       </c>
-      <c r="E259"/>
-      <c r="F259"/>
+      <c r="E259" t="s">
+        <v>843</v>
+      </c>
+      <c r="F259" t="s">
+        <v>618</v>
+      </c>
+      <c r="G259" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -7071,14 +7361,21 @@
       <c r="B260" t="s">
         <v>457</v>
       </c>
-      <c r="C260" s="10">
+      <c r="C260" s="29">
         <v>10</v>
       </c>
       <c r="D260" t="s">
         <v>619</v>
       </c>
-      <c r="E260"/>
-      <c r="F260"/>
+      <c r="E260" t="s">
+        <v>842</v>
+      </c>
+      <c r="F260" t="s">
+        <v>618</v>
+      </c>
+      <c r="G260" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -7093,24 +7390,38 @@
       <c r="D261" t="s">
         <v>619</v>
       </c>
-      <c r="E261"/>
-      <c r="F261"/>
+      <c r="E261" t="s">
+        <v>686</v>
+      </c>
+      <c r="F261" t="s">
+        <v>618</v>
+      </c>
+      <c r="G261" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>460</v>
       </c>
       <c r="B262" t="s">
-        <v>461</v>
-      </c>
-      <c r="C262" s="10">
+        <v>833</v>
+      </c>
+      <c r="C262" s="23">
         <v>14</v>
       </c>
       <c r="D262" t="s">
         <v>619</v>
       </c>
-      <c r="E262"/>
-      <c r="F262"/>
+      <c r="E262" t="s">
+        <v>834</v>
+      </c>
+      <c r="F262" t="s">
+        <v>618</v>
+      </c>
+      <c r="G262" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -7119,14 +7430,21 @@
       <c r="B263" t="s">
         <v>461</v>
       </c>
-      <c r="C263" s="10">
+      <c r="C263" s="23">
         <v>23</v>
       </c>
       <c r="D263" t="s">
         <v>619</v>
       </c>
-      <c r="E263"/>
-      <c r="F263"/>
+      <c r="E263" t="s">
+        <v>836</v>
+      </c>
+      <c r="F263" t="s">
+        <v>618</v>
+      </c>
+      <c r="G263" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -7135,14 +7453,21 @@
       <c r="B264" t="s">
         <v>464</v>
       </c>
-      <c r="C264" s="10">
+      <c r="C264" s="23">
         <v>2</v>
       </c>
       <c r="D264" t="s">
         <v>619</v>
       </c>
-      <c r="E264"/>
-      <c r="F264"/>
+      <c r="E264" t="s">
+        <v>837</v>
+      </c>
+      <c r="F264" t="s">
+        <v>618</v>
+      </c>
+      <c r="G264" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -7151,14 +7476,21 @@
       <c r="B265" t="s">
         <v>466</v>
       </c>
-      <c r="C265" s="10">
+      <c r="C265" s="23">
         <v>2</v>
       </c>
       <c r="D265" t="s">
         <v>619</v>
       </c>
-      <c r="E265"/>
-      <c r="F265"/>
+      <c r="E265" t="s">
+        <v>840</v>
+      </c>
+      <c r="F265" t="s">
+        <v>618</v>
+      </c>
+      <c r="G265" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -7255,9 +7587,13 @@
       <c r="D276" t="s">
         <v>616</v>
       </c>
-      <c r="E276"/>
+      <c r="E276" t="s">
+        <v>864</v>
+      </c>
       <c r="F276"/>
-      <c r="G276" s="8"/>
+      <c r="G276" s="8" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -7272,8 +7608,13 @@
       <c r="D277" t="s">
         <v>616</v>
       </c>
-      <c r="E277"/>
+      <c r="E277" t="s">
+        <v>865</v>
+      </c>
       <c r="F277"/>
+      <c r="G277" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -8052,7 +8393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23DC3C-FC33-C942-8382-35514D36DECE}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -8067,115 +8408,115 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B4" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C4" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D4" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="E4" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B6" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C6" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D6" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E6" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C7" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="E7" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B8" t="s">
         <v>794</v>
       </c>
-      <c r="B8" t="s">
-        <v>804</v>
-      </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="E8" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B9" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E9" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B10" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C10" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E10" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B11" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C11" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E11" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -8195,40 +8536,40 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -8241,38 +8582,38 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C4" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C5" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="C6" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -8281,6 +8622,98 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84233AF-9805-0746-902B-2057B627BF11}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="C3" t="s">
+        <v>876</v>
+      </c>
+      <c r="D3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="C5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C6" t="s">
+        <v>882</v>
+      </c>
+      <c r="D6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A29F90F-24B9-3647-BF97-D46598CD3CE5}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -8292,7 +8725,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8300,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8308,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8316,7 +8749,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8324,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8332,7 +8765,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8340,7 +8773,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8348,7 +8781,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8356,12 +8789,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D320122-BE65-8443-960C-B204F3208D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC227F55-F73B-8340-8F9E-8C1FC9C3DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="900">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -2659,12 +2659,6 @@
     <t>M2 x 5 mm</t>
   </si>
   <si>
-    <t>2,1844 mm x 9,525 mm</t>
-  </si>
-  <si>
-    <t>2,1844 mm x 38,1 mm</t>
-  </si>
-  <si>
     <t>M2 x 40 mm</t>
   </si>
   <si>
@@ -2717,6 +2711,60 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 38,1 mm, Außen 4,76 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 9,525 mm, Außen 3,175 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 9,525 mm, Außen 4,76 mm</t>
+  </si>
+  <si>
+    <t>2,1844 mm x 25,4 mm, Außen 4,76 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 22,225 mm, Außen 6,35 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 63,5 mm, Außen 6,35 mm</t>
+  </si>
+  <si>
+    <t>2,845 mm x 25,4 mm, Außen 4,76 mm</t>
+  </si>
+  <si>
+    <t>M3 x 63 mm</t>
+  </si>
+  <si>
+    <t>3,505 mm x 22,225 mm, Außen 6,35</t>
+  </si>
+  <si>
+    <t>3,505 mm x 38,1 mm, Außen 6,35</t>
+  </si>
+  <si>
+    <t>3,505 mm x 25,4 mm, Außen 6,35</t>
+  </si>
+  <si>
+    <t>4,166 mm x 25,4 mm, Außen 6,35 mm</t>
+  </si>
+  <si>
+    <t>Distanzhülse, Sechskant, weiblich-weiblich, Stahl</t>
+  </si>
+  <si>
+    <t>Distanzhülse, rund, weiblich-weiblich</t>
+  </si>
+  <si>
+    <t>4,826 mm x 101,6 mm</t>
+  </si>
+  <si>
+    <t>M5 x 100 mm</t>
+  </si>
+  <si>
+    <t>4,826 mm x 88,9 mm</t>
+  </si>
+  <si>
+    <t>M5 x 90 mm</t>
   </si>
 </sst>
 </file>
@@ -3369,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6108,7 +6156,7 @@
         <v>629</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G157" t="s">
         <v>755</v>
@@ -7578,7 +7626,7 @@
       <c r="A276" t="s">
         <v>509</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="24" t="s">
         <v>510</v>
       </c>
       <c r="C276" s="10">
@@ -7588,7 +7636,7 @@
         <v>616</v>
       </c>
       <c r="E276" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="F276"/>
       <c r="G276" s="8" t="s">
@@ -7599,7 +7647,7 @@
       <c r="A277" t="s">
         <v>511</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="24" t="s">
         <v>512</v>
       </c>
       <c r="C277" s="10">
@@ -7609,242 +7657,240 @@
         <v>616</v>
       </c>
       <c r="E277" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="F277"/>
       <c r="G277" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>513</v>
-      </c>
-      <c r="B278" t="s">
-        <v>514</v>
+        <v>515</v>
+      </c>
+      <c r="B278" s="24" t="s">
+        <v>516</v>
       </c>
       <c r="C278" s="10">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D278" t="s">
         <v>616</v>
       </c>
-      <c r="E278"/>
+      <c r="E278" t="s">
+        <v>884</v>
+      </c>
       <c r="F278"/>
+      <c r="G278" s="8" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>515</v>
-      </c>
-      <c r="B279" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="B279" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="C279" s="10">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="D279" t="s">
         <v>616</v>
       </c>
-      <c r="E279"/>
+      <c r="E279" t="s">
+        <v>885</v>
+      </c>
       <c r="F279"/>
+      <c r="G279" s="8" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>517</v>
-      </c>
-      <c r="B280" t="s">
-        <v>518</v>
+        <v>533</v>
+      </c>
+      <c r="B280" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="C280" s="10">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D280" t="s">
-        <v>616</v>
-      </c>
-      <c r="E280"/>
+        <v>617</v>
+      </c>
+      <c r="E280" t="s">
+        <v>884</v>
+      </c>
       <c r="F280"/>
+      <c r="G280" s="8" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>519</v>
-      </c>
-      <c r="B281" t="s">
-        <v>520</v>
+        <v>534</v>
+      </c>
+      <c r="B281" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="C281" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D281" t="s">
-        <v>616</v>
-      </c>
-      <c r="E281"/>
+        <v>617</v>
+      </c>
+      <c r="E281" t="s">
+        <v>885</v>
+      </c>
       <c r="F281"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>521</v>
-      </c>
-      <c r="B282" t="s">
-        <v>522</v>
-      </c>
-      <c r="C282" s="10">
-        <v>28</v>
-      </c>
-      <c r="D282" t="s">
-        <v>616</v>
-      </c>
-      <c r="E282"/>
-      <c r="F282"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>523</v>
-      </c>
-      <c r="B283" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="B283" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="C283" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>616</v>
-      </c>
-      <c r="E283"/>
+        <v>895</v>
+      </c>
+      <c r="E283" t="s">
+        <v>886</v>
+      </c>
       <c r="F283"/>
+      <c r="G283" s="8" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>525</v>
-      </c>
-      <c r="B284" t="s">
-        <v>526</v>
+        <v>531</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="C284" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>616</v>
-      </c>
-      <c r="E284"/>
+        <v>617</v>
+      </c>
+      <c r="E284" t="s">
+        <v>888</v>
+      </c>
       <c r="F284"/>
+      <c r="G284" s="8" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>527</v>
-      </c>
-      <c r="B285" t="s">
-        <v>528</v>
+        <v>513</v>
+      </c>
+      <c r="B285" s="24" t="s">
+        <v>514</v>
       </c>
       <c r="C285" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D285" t="s">
         <v>616</v>
       </c>
-      <c r="E285"/>
+      <c r="E285" t="s">
+        <v>887</v>
+      </c>
       <c r="F285"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>529</v>
-      </c>
-      <c r="B286" t="s">
-        <v>530</v>
-      </c>
-      <c r="C286" s="10">
-        <v>1</v>
-      </c>
-      <c r="D286" t="s">
-        <v>616</v>
-      </c>
-      <c r="E286"/>
-      <c r="F286"/>
+      <c r="G285" s="8" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>531</v>
-      </c>
-      <c r="B287" t="s">
-        <v>532</v>
+        <v>519</v>
+      </c>
+      <c r="B287" s="24" t="s">
+        <v>520</v>
       </c>
       <c r="C287" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D287" t="s">
-        <v>617</v>
-      </c>
-      <c r="E287"/>
+        <v>616</v>
+      </c>
+      <c r="E287" t="s">
+        <v>890</v>
+      </c>
       <c r="F287"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>533</v>
-      </c>
-      <c r="B288" t="s">
-        <v>124</v>
+        <v>521</v>
+      </c>
+      <c r="B288" s="24" t="s">
+        <v>522</v>
       </c>
       <c r="C288" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
-        <v>617</v>
-      </c>
-      <c r="E288"/>
+        <v>616</v>
+      </c>
+      <c r="E288" t="s">
+        <v>891</v>
+      </c>
       <c r="F288"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>534</v>
-      </c>
-      <c r="B289" t="s">
-        <v>125</v>
+        <v>535</v>
+      </c>
+      <c r="B289" s="24" t="s">
+        <v>536</v>
       </c>
       <c r="C289" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D289" t="s">
         <v>617</v>
       </c>
-      <c r="E289"/>
+      <c r="E289" t="s">
+        <v>890</v>
+      </c>
       <c r="F289"/>
+      <c r="G289" s="8" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>535</v>
-      </c>
-      <c r="B290" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="C290" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" t="s">
         <v>617</v>
       </c>
-      <c r="E290"/>
+      <c r="E290" t="s">
+        <v>892</v>
+      </c>
       <c r="F290"/>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>537</v>
-      </c>
-      <c r="B291" t="s">
-        <v>538</v>
-      </c>
-      <c r="C291" s="10">
-        <v>12</v>
-      </c>
-      <c r="D291" t="s">
-        <v>617</v>
-      </c>
-      <c r="E291"/>
-      <c r="F291"/>
+      <c r="G290" s="8" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>539</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="24" t="s">
         <v>540</v>
       </c>
       <c r="C292" s="10">
@@ -7853,184 +7899,247 @@
       <c r="D292" t="s">
         <v>617</v>
       </c>
-      <c r="E292"/>
+      <c r="E292" t="s">
+        <v>893</v>
+      </c>
       <c r="F292"/>
+      <c r="G292" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>541</v>
-      </c>
-      <c r="B294" t="s">
-        <v>542</v>
+        <v>527</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>528</v>
       </c>
       <c r="C294" s="10">
-        <v>28</v>
-      </c>
-      <c r="E294"/>
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>895</v>
+      </c>
+      <c r="E294" t="s">
+        <v>898</v>
+      </c>
       <c r="F294"/>
-      <c r="G294" s="8"/>
+      <c r="G294" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>543</v>
-      </c>
-      <c r="B295" t="s">
-        <v>544</v>
+        <v>529</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>530</v>
       </c>
       <c r="C295" s="10">
-        <v>10</v>
-      </c>
-      <c r="E295"/>
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>895</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>896</v>
+      </c>
       <c r="F295"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>545</v>
-      </c>
-      <c r="B296" t="s">
-        <v>546</v>
-      </c>
-      <c r="C296" s="10">
-        <v>1</v>
-      </c>
-      <c r="E296"/>
-      <c r="F296"/>
+      <c r="G295" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>547</v>
-      </c>
-      <c r="B297" t="s">
-        <v>548</v>
+        <v>523</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>524</v>
       </c>
       <c r="C297" s="10">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>894</v>
       </c>
       <c r="E297"/>
       <c r="F297"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>541</v>
+      </c>
+      <c r="B309" t="s">
+        <v>542</v>
+      </c>
+      <c r="C309" s="10">
+        <v>28</v>
+      </c>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>543</v>
+      </c>
+      <c r="B310" t="s">
+        <v>544</v>
+      </c>
+      <c r="C310" s="10">
+        <v>10</v>
+      </c>
+      <c r="E310"/>
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>545</v>
+      </c>
+      <c r="B311" t="s">
+        <v>546</v>
+      </c>
+      <c r="C311" s="10">
+        <v>1</v>
+      </c>
+      <c r="E311"/>
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>547</v>
+      </c>
+      <c r="B312" t="s">
+        <v>548</v>
+      </c>
+      <c r="C312" s="10">
+        <v>3</v>
+      </c>
+      <c r="E312"/>
+      <c r="F312"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>600</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B315" t="s">
         <v>601</v>
       </c>
-      <c r="C300" s="10">
+      <c r="C315" s="10">
         <v>1</v>
       </c>
-      <c r="E300"/>
-      <c r="F300"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="E315"/>
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
         <v>602</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B316" t="s">
         <v>603</v>
       </c>
-      <c r="C301" s="10">
+      <c r="C316" s="10">
         <v>2</v>
       </c>
-      <c r="E301"/>
-      <c r="F301"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+      <c r="E316"/>
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>604</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B317" t="s">
         <v>605</v>
       </c>
-      <c r="C302" s="10">
+      <c r="C317" s="10">
         <v>28</v>
       </c>
-      <c r="E302"/>
-      <c r="F302"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="9" t="s">
+      <c r="E317"/>
+      <c r="F317"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B319" t="s">
         <v>420</v>
       </c>
-      <c r="C304" s="10">
+      <c r="C319" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="9" t="s">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B320" t="s">
         <v>422</v>
       </c>
-      <c r="C305" s="10">
+      <c r="C320" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="9" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B321" t="s">
         <v>424</v>
       </c>
-      <c r="C306" s="10">
+      <c r="C321" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="9" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B322" t="s">
         <v>426</v>
       </c>
-      <c r="C307" s="10">
+      <c r="C322" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="9" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B323" t="s">
         <v>428</v>
       </c>
-      <c r="C308" s="10">
+      <c r="C323" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="13" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B324" t="s">
         <v>430</v>
       </c>
-      <c r="C309" s="10">
+      <c r="C324" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="9"/>
-      <c r="B310" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="9"/>
+      <c r="B325" t="s">
         <v>431</v>
       </c>
-      <c r="C310" s="10">
+      <c r="C325" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="9" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B326" t="s">
         <v>433</v>
       </c>
-      <c r="C311" s="10">
+      <c r="C326" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8636,7 +8745,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8644,53 +8753,53 @@
         <v>810</v>
       </c>
       <c r="C3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8700,12 +8809,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC227F55-F73B-8340-8F9E-8C1FC9C3DBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C26196-B7B3-DE42-AEE0-835817C52848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="903">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -2765,6 +2765,15 @@
   </si>
   <si>
     <t>M5 x 90 mm</t>
+  </si>
+  <si>
+    <t>M3 x 38 mm</t>
+  </si>
+  <si>
+    <t>M3 x 50 mm</t>
+  </si>
+  <si>
+    <t>3 mm x 50 mm</t>
   </si>
 </sst>
 </file>
@@ -2937,7 +2946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2985,9 +2994,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3419,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
   <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3842,7 +3848,7 @@
       <c r="B24" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="11">
         <v>13</v>
       </c>
       <c r="D24" t="s">
@@ -3865,7 +3871,7 @@
       <c r="B25" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
       <c r="D25" t="s">
@@ -4662,7 +4668,7 @@
       <c r="B68" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="11">
         <v>4</v>
       </c>
       <c r="D68" t="s">
@@ -4682,7 +4688,7 @@
       <c r="B69" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="11">
         <v>4</v>
       </c>
       <c r="D69" t="s">
@@ -4702,7 +4708,7 @@
       <c r="B70" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="11">
         <v>70</v>
       </c>
       <c r="D70" t="s">
@@ -4722,7 +4728,7 @@
       <c r="B71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="11">
         <v>107</v>
       </c>
       <c r="D71" t="s">
@@ -4749,7 +4755,7 @@
       <c r="B72" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="11">
         <v>2</v>
       </c>
       <c r="D72" t="s">
@@ -4769,7 +4775,7 @@
       <c r="B73" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="11">
         <v>25</v>
       </c>
       <c r="D73" t="s">
@@ -4789,7 +4795,7 @@
       <c r="B74" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="11">
         <v>6</v>
       </c>
       <c r="D74" t="s">
@@ -4809,7 +4815,7 @@
       <c r="B75" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="11">
         <v>5</v>
       </c>
       <c r="D75" t="s">
@@ -5192,7 +5198,7 @@
       <c r="B102" t="s">
         <v>190</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="11">
         <v>208</v>
       </c>
       <c r="D102" t="s">
@@ -5201,7 +5207,7 @@
       <c r="E102" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="29" t="s">
         <v>863</v>
       </c>
     </row>
@@ -7363,7 +7369,7 @@
       <c r="B258" t="s">
         <v>453</v>
       </c>
-      <c r="C258" s="29">
+      <c r="C258" s="11">
         <v>18</v>
       </c>
       <c r="D258" t="s">
@@ -7386,7 +7392,7 @@
       <c r="B259" t="s">
         <v>455</v>
       </c>
-      <c r="C259" s="29">
+      <c r="C259" s="11">
         <v>4</v>
       </c>
       <c r="D259" t="s">
@@ -7409,7 +7415,7 @@
       <c r="B260" t="s">
         <v>457</v>
       </c>
-      <c r="C260" s="29">
+      <c r="C260" s="11">
         <v>10</v>
       </c>
       <c r="D260" t="s">
@@ -7626,10 +7632,10 @@
       <c r="A276" t="s">
         <v>509</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B276" t="s">
         <v>510</v>
       </c>
-      <c r="C276" s="10">
+      <c r="C276" s="11">
         <v>30</v>
       </c>
       <c r="D276" t="s">
@@ -7647,10 +7653,10 @@
       <c r="A277" t="s">
         <v>511</v>
       </c>
-      <c r="B277" s="24" t="s">
+      <c r="B277" t="s">
         <v>512</v>
       </c>
-      <c r="C277" s="10">
+      <c r="C277" s="11">
         <v>15</v>
       </c>
       <c r="D277" t="s">
@@ -7668,10 +7674,10 @@
       <c r="A278" t="s">
         <v>515</v>
       </c>
-      <c r="B278" s="24" t="s">
+      <c r="B278" t="s">
         <v>516</v>
       </c>
-      <c r="C278" s="10">
+      <c r="C278" s="11">
         <v>67</v>
       </c>
       <c r="D278" t="s">
@@ -7689,10 +7695,10 @@
       <c r="A279" t="s">
         <v>517</v>
       </c>
-      <c r="B279" s="24" t="s">
+      <c r="B279" t="s">
         <v>518</v>
       </c>
-      <c r="C279" s="10">
+      <c r="C279" s="11">
         <v>4</v>
       </c>
       <c r="D279" t="s">
@@ -7710,10 +7716,10 @@
       <c r="A280" t="s">
         <v>533</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B280" t="s">
         <v>124</v>
       </c>
-      <c r="C280" s="10">
+      <c r="C280" s="11">
         <v>29</v>
       </c>
       <c r="D280" t="s">
@@ -7731,10 +7737,10 @@
       <c r="A281" t="s">
         <v>534</v>
       </c>
-      <c r="B281" s="24" t="s">
+      <c r="B281" t="s">
         <v>125</v>
       </c>
-      <c r="C281" s="10">
+      <c r="C281" s="11">
         <v>17</v>
       </c>
       <c r="D281" t="s">
@@ -7749,10 +7755,10 @@
       <c r="A283" t="s">
         <v>525</v>
       </c>
-      <c r="B283" s="24" t="s">
+      <c r="B283" t="s">
         <v>526</v>
       </c>
-      <c r="C283" s="10">
+      <c r="C283" s="11">
         <v>2</v>
       </c>
       <c r="D283" t="s">
@@ -7770,10 +7776,10 @@
       <c r="A284" t="s">
         <v>531</v>
       </c>
-      <c r="B284" s="24" t="s">
+      <c r="B284" t="s">
         <v>532</v>
       </c>
-      <c r="C284" s="10">
+      <c r="C284" s="11">
         <v>1</v>
       </c>
       <c r="D284" t="s">
@@ -7791,10 +7797,10 @@
       <c r="A285" t="s">
         <v>513</v>
       </c>
-      <c r="B285" s="24" t="s">
+      <c r="B285" t="s">
         <v>514</v>
       </c>
-      <c r="C285" s="10">
+      <c r="C285" s="11">
         <v>4</v>
       </c>
       <c r="D285" t="s">
@@ -7812,10 +7818,10 @@
       <c r="A287" t="s">
         <v>519</v>
       </c>
-      <c r="B287" s="24" t="s">
+      <c r="B287" t="s">
         <v>520</v>
       </c>
-      <c r="C287" s="10">
+      <c r="C287" s="11">
         <v>12</v>
       </c>
       <c r="D287" t="s">
@@ -7825,15 +7831,18 @@
         <v>890</v>
       </c>
       <c r="F287"/>
+      <c r="G287" s="8" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>521</v>
       </c>
-      <c r="B288" s="24" t="s">
+      <c r="B288" t="s">
         <v>522</v>
       </c>
-      <c r="C288" s="10">
+      <c r="C288" s="11">
         <v>28</v>
       </c>
       <c r="D288" t="s">
@@ -7843,15 +7852,18 @@
         <v>891</v>
       </c>
       <c r="F288"/>
+      <c r="G288" s="8" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>535</v>
       </c>
-      <c r="B289" s="24" t="s">
+      <c r="B289" t="s">
         <v>536</v>
       </c>
-      <c r="C289" s="10">
+      <c r="C289" s="11">
         <v>9</v>
       </c>
       <c r="D289" t="s">
@@ -7869,10 +7881,10 @@
       <c r="A290" t="s">
         <v>537</v>
       </c>
-      <c r="B290" s="24" t="s">
+      <c r="B290" t="s">
         <v>538</v>
       </c>
-      <c r="C290" s="10">
+      <c r="C290" s="11">
         <v>12</v>
       </c>
       <c r="D290" t="s">
@@ -7890,10 +7902,10 @@
       <c r="A292" t="s">
         <v>539</v>
       </c>
-      <c r="B292" s="24" t="s">
+      <c r="B292" t="s">
         <v>540</v>
       </c>
-      <c r="C292" s="10">
+      <c r="C292" s="11">
         <v>4</v>
       </c>
       <c r="D292" t="s">
@@ -7911,10 +7923,10 @@
       <c r="A294" t="s">
         <v>527</v>
       </c>
-      <c r="B294" s="24" t="s">
+      <c r="B294" t="s">
         <v>528</v>
       </c>
-      <c r="C294" s="10">
+      <c r="C294" s="11">
         <v>1</v>
       </c>
       <c r="D294" t="s">
@@ -7932,10 +7944,10 @@
       <c r="A295" t="s">
         <v>529</v>
       </c>
-      <c r="B295" s="24" t="s">
+      <c r="B295" t="s">
         <v>530</v>
       </c>
-      <c r="C295" s="10">
+      <c r="C295" s="11">
         <v>1</v>
       </c>
       <c r="D295" t="s">
@@ -7953,17 +7965,22 @@
       <c r="A297" t="s">
         <v>523</v>
       </c>
-      <c r="B297" s="24" t="s">
+      <c r="B297" t="s">
         <v>524</v>
       </c>
-      <c r="C297" s="10">
+      <c r="C297" s="11">
         <v>7</v>
       </c>
       <c r="D297" t="s">
         <v>894</v>
       </c>
-      <c r="E297"/>
+      <c r="E297" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="F297"/>
+      <c r="G297" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">

--- a/Metric Modifications/Replacement_COTS.xlsx
+++ b/Metric Modifications/Replacement_COTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/github/OpenHornet-metric/Metric Modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C26196-B7B3-DE42-AEE0-835817C52848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E63B23-1270-3543-A6BC-105BE93E6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{D93EFF7A-6B33-AC4D-9A9C-C443CD52EB89}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Schraubenlager" sheetId="8" r:id="rId7"/>
     <sheet name="MDF lackieren" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="904">
   <si>
     <t>M4 x 30 mm</t>
   </si>
@@ -2774,6 +2774,9 @@
   </si>
   <si>
     <t>3 mm x 50 mm</t>
+  </si>
+  <si>
+    <t>Ersatzweise M3 x 6 mm und M4 x 6 mm beschafft</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2995,6 +2998,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3425,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20728A-6C41-1849-BB83-42D2A465FBDB}">
   <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:B202"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7341,14 +7347,14 @@
       <c r="E256"/>
       <c r="F256"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>450</v>
       </c>
       <c r="B257" t="s">
         <v>451</v>
       </c>
-      <c r="C257" s="23">
+      <c r="C257" s="30">
         <v>3</v>
       </c>
       <c r="D257" t="s">
@@ -7362,14 +7368,14 @@
         <v>847</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>452</v>
       </c>
       <c r="B258" t="s">
         <v>453</v>
       </c>
-      <c r="C258" s="11">
+      <c r="C258" s="30">
         <v>18</v>
       </c>
       <c r="D258" t="s">
@@ -7385,14 +7391,14 @@
         <v>846</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>454</v>
       </c>
       <c r="B259" t="s">
         <v>455</v>
       </c>
-      <c r="C259" s="11">
+      <c r="C259" s="30">
         <v>4</v>
       </c>
       <c r="D259" t="s">
@@ -7408,14 +7414,14 @@
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>456</v>
       </c>
       <c r="B260" t="s">
         <v>457</v>
       </c>
-      <c r="C260" s="11">
+      <c r="C260" s="30">
         <v>10</v>
       </c>
       <c r="D260" t="s">
@@ -7431,7 +7437,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>458</v>
       </c>
@@ -7453,15 +7459,18 @@
       <c r="G261" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>460</v>
       </c>
       <c r="B262" t="s">
         <v>833</v>
       </c>
-      <c r="C262" s="23">
+      <c r="C262" s="30">
         <v>14</v>
       </c>
       <c r="D262" t="s">
@@ -7477,14 +7486,14 @@
         <v>835</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>462</v>
       </c>
       <c r="B263" t="s">
         <v>461</v>
       </c>
-      <c r="C263" s="23">
+      <c r="C263" s="30">
         <v>23</v>
       </c>
       <c r="D263" t="s">
@@ -7500,14 +7509,14 @@
         <v>838</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>463</v>
       </c>
       <c r="B264" t="s">
         <v>464</v>
       </c>
-      <c r="C264" s="23">
+      <c r="C264" s="30">
         <v>2</v>
       </c>
       <c r="D264" t="s">
@@ -7523,7 +7532,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>465</v>
       </c>
@@ -7546,7 +7555,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>499</v>
       </c>
@@ -7563,7 +7572,7 @@
       <c r="F269"/>
       <c r="G269" s="8"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>501</v>
       </c>
@@ -7580,7 +7589,7 @@
       <c r="F271"/>
       <c r="G271" s="8"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>503</v>
       </c>
